--- a/Trades_M1.xlsx
+++ b/Trades_M1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0AE106-BBF0-4F6D-B795-4ABF9FB1903C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC51CE-05F1-4700-8E40-53E23F0282AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -67,12 +67,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -102,12 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,15 +419,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
+      <selection activeCell="C937" sqref="C937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -460,7 +469,7 @@
         <v>44768.354861111111</v>
       </c>
       <c r="D2" s="2">
-        <v>44768.354861111111</v>
+        <v>44768.333333333336</v>
       </c>
       <c r="E2">
         <v>393.91</v>
@@ -489,7 +498,7 @@
         <v>44768.459027777782</v>
       </c>
       <c r="D3" s="2">
-        <v>44768.459027777782</v>
+        <v>44768.458333333336</v>
       </c>
       <c r="E3">
         <v>390.43</v>
@@ -518,7 +527,7 @@
         <v>44768.584027777782</v>
       </c>
       <c r="D4" s="2">
-        <v>44768.584027777782</v>
+        <v>44768.583333333336</v>
       </c>
       <c r="E4">
         <v>390.64</v>
@@ -27455,11 +27464,11 @@
       <c r="B933">
         <v>931</v>
       </c>
-      <c r="C933" s="2">
-        <v>45715.396527777782</v>
-      </c>
-      <c r="D933" s="2">
-        <v>45715.396527777782</v>
+      <c r="C933" s="3">
+        <v>45715.375</v>
+      </c>
+      <c r="D933" s="3">
+        <v>45715.375</v>
       </c>
       <c r="E933">
         <v>597.16</v>
@@ -27485,10 +27494,10 @@
         <v>932</v>
       </c>
       <c r="C934" s="2">
-        <v>45715.417361111111</v>
+        <v>45715.416666666664</v>
       </c>
       <c r="D934" s="2">
-        <v>45715.417361111111</v>
+        <v>45715.416666666664</v>
       </c>
       <c r="E934">
         <v>591.17999999999995</v>
@@ -27514,10 +27523,10 @@
         <v>933</v>
       </c>
       <c r="C935" s="2">
-        <v>45715.459027777782</v>
+        <v>45715.458333333336</v>
       </c>
       <c r="D935" s="2">
-        <v>45715.459027777782</v>
+        <v>45715.458333333336</v>
       </c>
       <c r="E935">
         <v>594.26</v>
@@ -27543,10 +27552,10 @@
         <v>934</v>
       </c>
       <c r="C936" s="2">
-        <v>45715.500694444447</v>
+        <v>45715.5</v>
       </c>
       <c r="D936" s="2">
-        <v>45715.500694444447</v>
+        <v>45715.5</v>
       </c>
       <c r="E936">
         <v>592.48</v>
@@ -27572,10 +27581,10 @@
         <v>935</v>
       </c>
       <c r="C937" s="2">
-        <v>45715.542361111111</v>
+        <v>45715.541666666664</v>
       </c>
       <c r="D937" s="2">
-        <v>45715.542361111111</v>
+        <v>45715.541666666664</v>
       </c>
       <c r="E937">
         <v>593.97</v>
@@ -27601,10 +27610,10 @@
         <v>936</v>
       </c>
       <c r="C938" s="2">
-        <v>45716.417361111111</v>
+        <v>45716.416666666664</v>
       </c>
       <c r="D938" s="2">
-        <v>45716.417361111111</v>
+        <v>45716.416666666664</v>
       </c>
       <c r="E938">
         <v>586.58000000000004</v>
@@ -27630,10 +27639,10 @@
         <v>937</v>
       </c>
       <c r="C939" s="2">
-        <v>45720.459027777782</v>
+        <v>45720.458333333336</v>
       </c>
       <c r="D939" s="2">
-        <v>45720.459027777782</v>
+        <v>45720.458333333336</v>
       </c>
       <c r="E939">
         <v>574.46</v>
@@ -27659,10 +27668,10 @@
         <v>938</v>
       </c>
       <c r="C940" s="2">
-        <v>45720.542361111111</v>
+        <v>45720.541666666664</v>
       </c>
       <c r="D940" s="2">
-        <v>45720.542361111111</v>
+        <v>45720.541666666664</v>
       </c>
       <c r="E940">
         <v>576.61</v>
@@ -27688,10 +27697,10 @@
         <v>939</v>
       </c>
       <c r="C941" s="2">
-        <v>45720.584027777782</v>
+        <v>45720.583333333336</v>
       </c>
       <c r="D941" s="2">
-        <v>45720.584027777782</v>
+        <v>45720.583333333336</v>
       </c>
       <c r="E941">
         <v>580.46</v>
@@ -27716,11 +27725,11 @@
       <c r="B942">
         <v>940</v>
       </c>
-      <c r="C942" s="2">
-        <v>45721.396527777782</v>
-      </c>
-      <c r="D942" s="2">
-        <v>45721.396527777782</v>
+      <c r="C942" s="3">
+        <v>45721.375</v>
+      </c>
+      <c r="D942" s="3">
+        <v>45721.375</v>
       </c>
       <c r="E942">
         <v>577.30999999999995</v>
@@ -27746,10 +27755,10 @@
         <v>941</v>
       </c>
       <c r="C943" s="2">
-        <v>45721.417361111111</v>
+        <v>45721.416666666664</v>
       </c>
       <c r="D943" s="2">
-        <v>45721.417361111111</v>
+        <v>45721.416666666664</v>
       </c>
       <c r="E943">
         <v>578.76</v>
@@ -27775,10 +27784,10 @@
         <v>942</v>
       </c>
       <c r="C944" s="2">
-        <v>45721.459027777782</v>
+        <v>45721.458333333336</v>
       </c>
       <c r="D944" s="2">
-        <v>45721.459027777782</v>
+        <v>45721.458333333336</v>
       </c>
       <c r="E944">
         <v>576.23</v>
@@ -27803,11 +27812,11 @@
       <c r="B945">
         <v>943</v>
       </c>
-      <c r="C945" s="2">
-        <v>45723.396527777782</v>
-      </c>
-      <c r="D945" s="2">
-        <v>45723.396527777782</v>
+      <c r="C945" s="3">
+        <v>45723.375</v>
+      </c>
+      <c r="D945" s="3">
+        <v>45723.375</v>
       </c>
       <c r="E945">
         <v>571.69000000000005</v>
@@ -27833,10 +27842,10 @@
         <v>944</v>
       </c>
       <c r="C946" s="2">
-        <v>45723.417361111111</v>
+        <v>45723.416666666664</v>
       </c>
       <c r="D946" s="2">
-        <v>45723.417361111111</v>
+        <v>45723.416666666664</v>
       </c>
       <c r="E946">
         <v>573.13</v>
@@ -27862,10 +27871,10 @@
         <v>945</v>
       </c>
       <c r="C947" s="2">
-        <v>45723.500694444447</v>
+        <v>45723.5</v>
       </c>
       <c r="D947" s="2">
-        <v>45723.500694444447</v>
+        <v>45723.5</v>
       </c>
       <c r="E947">
         <v>567.70000000000005</v>
@@ -27891,10 +27900,10 @@
         <v>946</v>
       </c>
       <c r="C948" s="2">
-        <v>45723.542361111111</v>
+        <v>45723.541666666664</v>
       </c>
       <c r="D948" s="2">
-        <v>45723.542361111111</v>
+        <v>45723.541666666664</v>
       </c>
       <c r="E948">
         <v>570.38</v>
@@ -27920,10 +27929,10 @@
         <v>947</v>
       </c>
       <c r="C949" s="2">
-        <v>45727.417361111111</v>
+        <v>45727.416666666664</v>
       </c>
       <c r="D949" s="2">
-        <v>45727.417361111111</v>
+        <v>45727.416666666664</v>
       </c>
       <c r="E949">
         <v>554.71</v>
@@ -27949,10 +27958,10 @@
         <v>948</v>
       </c>
       <c r="C950" s="2">
-        <v>45727.459027777782</v>
+        <v>45727.458333333336</v>
       </c>
       <c r="D950" s="2">
-        <v>45727.459027777782</v>
+        <v>45727.458333333336</v>
       </c>
       <c r="E950">
         <v>556.77</v>
@@ -27978,10 +27987,10 @@
         <v>949</v>
       </c>
       <c r="C951" s="2">
-        <v>45729.375694444447</v>
+        <v>45729.375</v>
       </c>
       <c r="D951" s="2">
-        <v>45729.375694444447</v>
+        <v>45729.375</v>
       </c>
       <c r="E951">
         <v>555.11</v>
@@ -28007,10 +28016,10 @@
         <v>950</v>
       </c>
       <c r="C952" s="2">
-        <v>45729.542361111111</v>
+        <v>45729.541666666664</v>
       </c>
       <c r="D952" s="2">
-        <v>45729.542361111111</v>
+        <v>45729.541666666664</v>
       </c>
       <c r="E952">
         <v>550.58000000000004</v>
@@ -28036,10 +28045,10 @@
         <v>951</v>
       </c>
       <c r="C953" s="2">
-        <v>45729.584027777782</v>
+        <v>45729.583333333336</v>
       </c>
       <c r="D953" s="2">
-        <v>45729.584027777782</v>
+        <v>45729.583333333336</v>
       </c>
       <c r="E953">
         <v>554.12</v>
@@ -28065,10 +28074,10 @@
         <v>952</v>
       </c>
       <c r="C954" s="2">
-        <v>45734.500694444447</v>
+        <v>45734.5</v>
       </c>
       <c r="D954" s="2">
-        <v>45734.500694444447</v>
+        <v>45734.5</v>
       </c>
       <c r="E954">
         <v>560.95000000000005</v>
@@ -28094,10 +28103,10 @@
         <v>953</v>
       </c>
       <c r="C955" s="2">
-        <v>45734.542361111111</v>
+        <v>45734.541666666664</v>
       </c>
       <c r="D955" s="2">
-        <v>45734.542361111111</v>
+        <v>45734.541666666664</v>
       </c>
       <c r="E955">
         <v>560.91</v>
@@ -28123,10 +28132,10 @@
         <v>954</v>
       </c>
       <c r="C956" s="2">
-        <v>45734.584027777782</v>
+        <v>45734.583333333336</v>
       </c>
       <c r="D956" s="2">
-        <v>45734.584027777782</v>
+        <v>45734.583333333336</v>
       </c>
       <c r="E956">
         <v>560.87</v>
@@ -28151,11 +28160,11 @@
       <c r="B957">
         <v>955</v>
       </c>
-      <c r="C957" s="2">
-        <v>45735.354861111111</v>
-      </c>
-      <c r="D957" s="2">
-        <v>45735.354861111111</v>
+      <c r="C957" s="3">
+        <v>45735.333333333336</v>
+      </c>
+      <c r="D957" s="3">
+        <v>45735.333333333336</v>
       </c>
       <c r="E957">
         <v>562.84</v>
@@ -28181,10 +28190,10 @@
         <v>956</v>
       </c>
       <c r="C958" s="2">
-        <v>45735.375694444447</v>
+        <v>45735.375</v>
       </c>
       <c r="D958" s="2">
-        <v>45735.375694444447</v>
+        <v>45735.375</v>
       </c>
       <c r="E958">
         <v>564.19000000000005</v>
@@ -28210,10 +28219,10 @@
         <v>957</v>
       </c>
       <c r="C959" s="2">
-        <v>45737.459027777782</v>
+        <v>45737.458333333336</v>
       </c>
       <c r="D959" s="2">
-        <v>45737.459027777782</v>
+        <v>45737.458333333336</v>
       </c>
       <c r="E959">
         <v>559.49</v>
@@ -28239,10 +28248,10 @@
         <v>958</v>
       </c>
       <c r="C960" s="2">
-        <v>45737.500694444447</v>
+        <v>45737.5</v>
       </c>
       <c r="D960" s="2">
-        <v>45737.500694444447</v>
+        <v>45737.5</v>
       </c>
       <c r="E960">
         <v>563.21</v>
@@ -28268,10 +28277,10 @@
         <v>959</v>
       </c>
       <c r="C961" s="2">
-        <v>45737.542361111111</v>
+        <v>45737.541666666664</v>
       </c>
       <c r="D961" s="2">
-        <v>45737.542361111111</v>
+        <v>45737.541666666664</v>
       </c>
       <c r="E961">
         <v>563.12</v>
@@ -28297,10 +28306,10 @@
         <v>960</v>
       </c>
       <c r="C962" s="2">
-        <v>45737.584027777782</v>
+        <v>45737.583333333336</v>
       </c>
       <c r="D962" s="2">
-        <v>45737.584027777782</v>
+        <v>45737.583333333336</v>
       </c>
       <c r="E962">
         <v>562.22</v>
@@ -28325,11 +28334,11 @@
       <c r="B963">
         <v>961</v>
       </c>
-      <c r="C963" s="2">
-        <v>45743.354861111111</v>
-      </c>
-      <c r="D963" s="2">
-        <v>45743.354861111111</v>
+      <c r="C963" s="3">
+        <v>45743.333333333336</v>
+      </c>
+      <c r="D963" s="3">
+        <v>45743.333333333336</v>
       </c>
       <c r="E963">
         <v>567.30999999999995</v>
@@ -28355,10 +28364,10 @@
         <v>962</v>
       </c>
       <c r="C964" s="2">
-        <v>45743.375694444447</v>
+        <v>45743.375</v>
       </c>
       <c r="D964" s="2">
-        <v>45743.375694444447</v>
+        <v>45743.375</v>
       </c>
       <c r="E964">
         <v>568.79</v>
@@ -28384,10 +28393,10 @@
         <v>963</v>
       </c>
       <c r="C965" s="2">
-        <v>45743.417361111111</v>
+        <v>45743.416666666664</v>
       </c>
       <c r="D965" s="2">
-        <v>45743.417361111111</v>
+        <v>45743.416666666664</v>
       </c>
       <c r="E965">
         <v>570.79</v>
@@ -28413,10 +28422,10 @@
         <v>964</v>
       </c>
       <c r="C966" s="2">
-        <v>45743.459027777782</v>
+        <v>45743.458333333336</v>
       </c>
       <c r="D966" s="2">
-        <v>45743.459027777782</v>
+        <v>45743.458333333336</v>
       </c>
       <c r="E966">
         <v>568.02</v>
@@ -28442,10 +28451,10 @@
         <v>965</v>
       </c>
       <c r="C967" s="2">
-        <v>45743.542361111111</v>
+        <v>45743.541666666664</v>
       </c>
       <c r="D967" s="2">
-        <v>45743.542361111111</v>
+        <v>45743.541666666664</v>
       </c>
       <c r="E967">
         <v>567.02</v>
@@ -28471,10 +28480,10 @@
         <v>966</v>
       </c>
       <c r="C968" s="2">
-        <v>45744.542361111111</v>
+        <v>45744.541666666664</v>
       </c>
       <c r="D968" s="2">
-        <v>45744.542361111111</v>
+        <v>45744.541666666664</v>
       </c>
       <c r="E968">
         <v>556.51</v>
@@ -28500,10 +28509,10 @@
         <v>967</v>
       </c>
       <c r="C969" s="2">
-        <v>45744.584027777782</v>
+        <v>45744.583333333336</v>
       </c>
       <c r="D969" s="2">
-        <v>45744.584027777782</v>
+        <v>45744.583333333336</v>
       </c>
       <c r="E969">
         <v>556.36</v>
@@ -28529,10 +28538,10 @@
         <v>968</v>
       </c>
       <c r="C970" s="2">
-        <v>45747.375694444447</v>
+        <v>45747.375</v>
       </c>
       <c r="D970" s="2">
-        <v>45747.375694444447</v>
+        <v>45747.375</v>
       </c>
       <c r="E970">
         <v>550.51</v>
@@ -28558,10 +28567,10 @@
         <v>969</v>
       </c>
       <c r="C971" s="2">
-        <v>45747.417361111111</v>
+        <v>45747.416666666664</v>
       </c>
       <c r="D971" s="2">
-        <v>45747.417361111111</v>
+        <v>45747.416666666664</v>
       </c>
       <c r="E971">
         <v>551.97</v>
@@ -28587,10 +28596,10 @@
         <v>970</v>
       </c>
       <c r="C972" s="2">
-        <v>45747.459027777782</v>
+        <v>45747.458333333336</v>
       </c>
       <c r="D972" s="2">
-        <v>45747.459027777782</v>
+        <v>45747.458333333336</v>
       </c>
       <c r="E972">
         <v>553.64</v>
@@ -28616,10 +28625,10 @@
         <v>971</v>
       </c>
       <c r="C973" s="2">
-        <v>45747.500694444447</v>
+        <v>45747.5</v>
       </c>
       <c r="D973" s="2">
-        <v>45747.500694444447</v>
+        <v>45747.5</v>
       </c>
       <c r="E973">
         <v>553.16999999999996</v>
@@ -28645,10 +28654,10 @@
         <v>972</v>
       </c>
       <c r="C974" s="2">
-        <v>45750.542361111111</v>
+        <v>45750.541666666664</v>
       </c>
       <c r="D974" s="2">
-        <v>45750.542361111111</v>
+        <v>45750.541666666664</v>
       </c>
       <c r="E974">
         <v>542.34</v>
@@ -28674,10 +28683,10 @@
         <v>973</v>
       </c>
       <c r="C975" s="2">
-        <v>45751.417361111111</v>
+        <v>45751.416666666664</v>
       </c>
       <c r="D975" s="2">
-        <v>45751.417361111111</v>
+        <v>45751.416666666664</v>
       </c>
       <c r="E975">
         <v>515.99</v>
@@ -28703,10 +28712,10 @@
         <v>974</v>
       </c>
       <c r="C976" s="2">
-        <v>45751.459027777782</v>
+        <v>45751.458333333336</v>
       </c>
       <c r="D976" s="2">
-        <v>45751.459027777782</v>
+        <v>45751.458333333336</v>
       </c>
       <c r="E976">
         <v>515.20000000000005</v>
@@ -28732,10 +28741,10 @@
         <v>975</v>
       </c>
       <c r="C977" s="2">
-        <v>45751.500694444447</v>
+        <v>45751.5</v>
       </c>
       <c r="D977" s="2">
-        <v>45751.500694444447</v>
+        <v>45751.5</v>
       </c>
       <c r="E977">
         <v>512.41</v>
@@ -28761,10 +28770,10 @@
         <v>976</v>
       </c>
       <c r="C978" s="2">
-        <v>45756.417361111111</v>
+        <v>45756.416666666664</v>
       </c>
       <c r="D978" s="2">
-        <v>45756.417361111111</v>
+        <v>45756.416666666664</v>
       </c>
       <c r="E978">
         <v>494.01</v>
@@ -28789,11 +28798,11 @@
       <c r="B979">
         <v>977</v>
       </c>
-      <c r="C979" s="2">
-        <v>45764.354861111111</v>
-      </c>
-      <c r="D979" s="2">
-        <v>45764.354861111111</v>
+      <c r="C979" s="3">
+        <v>45764.333333333336</v>
+      </c>
+      <c r="D979" s="3">
+        <v>45764.333333333336</v>
       </c>
       <c r="E979">
         <v>528.32000000000005</v>
@@ -28819,10 +28828,10 @@
         <v>978</v>
       </c>
       <c r="C980" s="2">
-        <v>45764.375694444447</v>
+        <v>45764.375</v>
       </c>
       <c r="D980" s="2">
-        <v>45764.375694444447</v>
+        <v>45764.375</v>
       </c>
       <c r="E980">
         <v>528.61</v>
@@ -28848,10 +28857,10 @@
         <v>979</v>
       </c>
       <c r="C981" s="2">
-        <v>45764.417361111111</v>
+        <v>45764.416666666664</v>
       </c>
       <c r="D981" s="2">
-        <v>45764.417361111111</v>
+        <v>45764.416666666664</v>
       </c>
       <c r="E981">
         <v>525.79</v>
@@ -28877,10 +28886,10 @@
         <v>980</v>
       </c>
       <c r="C982" s="2">
-        <v>45764.459027777782</v>
+        <v>45764.458333333336</v>
       </c>
       <c r="D982" s="2">
-        <v>45764.459027777782</v>
+        <v>45764.458333333336</v>
       </c>
       <c r="E982">
         <v>527.08000000000004</v>
@@ -28906,10 +28915,10 @@
         <v>981</v>
       </c>
       <c r="C983" s="2">
-        <v>45764.500694444447</v>
+        <v>45764.5</v>
       </c>
       <c r="D983" s="2">
-        <v>45764.500694444447</v>
+        <v>45764.5</v>
       </c>
       <c r="E983">
         <v>530.24</v>
@@ -28935,10 +28944,10 @@
         <v>982</v>
       </c>
       <c r="C984" s="2">
-        <v>45764.542361111111</v>
+        <v>45764.541666666664</v>
       </c>
       <c r="D984" s="2">
-        <v>45764.542361111111</v>
+        <v>45764.541666666664</v>
       </c>
       <c r="E984">
         <v>529.51</v>
@@ -28964,10 +28973,10 @@
         <v>983</v>
       </c>
       <c r="C985" s="2">
-        <v>45775.459027777782</v>
+        <v>45775.458333333336</v>
       </c>
       <c r="D985" s="2">
-        <v>45775.459027777782</v>
+        <v>45775.458333333336</v>
       </c>
       <c r="E985">
         <v>547.24</v>
@@ -28993,10 +29002,10 @@
         <v>984</v>
       </c>
       <c r="C986" s="2">
-        <v>45775.500694444447</v>
+        <v>45775.5</v>
       </c>
       <c r="D986" s="2">
-        <v>45775.500694444447</v>
+        <v>45775.5</v>
       </c>
       <c r="E986">
         <v>546.70000000000005</v>
@@ -29022,10 +29031,10 @@
         <v>985</v>
       </c>
       <c r="C987" s="2">
-        <v>45775.542361111111</v>
+        <v>45775.541666666664</v>
       </c>
       <c r="D987" s="2">
-        <v>45775.542361111111</v>
+        <v>45775.541666666664</v>
       </c>
       <c r="E987">
         <v>547.79999999999995</v>
@@ -29051,10 +29060,10 @@
         <v>986</v>
       </c>
       <c r="C988" s="2">
-        <v>45777.375694444447</v>
+        <v>45777.375</v>
       </c>
       <c r="D988" s="2">
-        <v>45777.375694444447</v>
+        <v>45777.375</v>
       </c>
       <c r="E988">
         <v>543.05999999999995</v>
@@ -29080,10 +29089,10 @@
         <v>987</v>
       </c>
       <c r="C989" s="2">
-        <v>45777.417361111111</v>
+        <v>45777.416666666664</v>
       </c>
       <c r="D989" s="2">
-        <v>45777.417361111111</v>
+        <v>45777.416666666664</v>
       </c>
       <c r="E989">
         <v>547.91999999999996</v>
@@ -29109,10 +29118,10 @@
         <v>988</v>
       </c>
       <c r="C990" s="2">
-        <v>45777.459027777782</v>
+        <v>45777.458333333336</v>
       </c>
       <c r="D990" s="2">
-        <v>45777.459027777782</v>
+        <v>45777.458333333336</v>
       </c>
       <c r="E990">
         <v>549.44000000000005</v>
@@ -29138,10 +29147,10 @@
         <v>989</v>
       </c>
       <c r="C991" s="2">
-        <v>45777.500694444447</v>
+        <v>45777.5</v>
       </c>
       <c r="D991" s="2">
-        <v>45777.500694444447</v>
+        <v>45777.5</v>
       </c>
       <c r="E991">
         <v>549.73</v>
@@ -29167,10 +29176,10 @@
         <v>990</v>
       </c>
       <c r="C992" s="2">
-        <v>45777.542361111111</v>
+        <v>45777.541666666664</v>
       </c>
       <c r="D992" s="2">
-        <v>45777.542361111111</v>
+        <v>45777.541666666664</v>
       </c>
       <c r="E992">
         <v>550.07000000000005</v>
@@ -29195,11 +29204,11 @@
       <c r="B993">
         <v>991</v>
       </c>
-      <c r="C993" s="2">
-        <v>45782.354861111111</v>
-      </c>
-      <c r="D993" s="2">
-        <v>45782.354861111111</v>
+      <c r="C993" s="3">
+        <v>45782.333333333336</v>
+      </c>
+      <c r="D993" s="3">
+        <v>45782.333333333336</v>
       </c>
       <c r="E993">
         <v>562.69000000000005</v>
@@ -29225,10 +29234,10 @@
         <v>992</v>
       </c>
       <c r="C994" s="2">
-        <v>45782.375694444447</v>
+        <v>45782.375</v>
       </c>
       <c r="D994" s="2">
-        <v>45782.375694444447</v>
+        <v>45782.375</v>
       </c>
       <c r="E994">
         <v>563.83000000000004</v>
@@ -29254,10 +29263,10 @@
         <v>993</v>
       </c>
       <c r="C995" s="2">
-        <v>45782.459027777782</v>
+        <v>45782.458333333336</v>
       </c>
       <c r="D995" s="2">
-        <v>45782.459027777782</v>
+        <v>45782.458333333336</v>
       </c>
       <c r="E995">
         <v>564.92999999999995</v>
@@ -29283,10 +29292,10 @@
         <v>994</v>
       </c>
       <c r="C996" s="2">
-        <v>45782.500694444447</v>
+        <v>45782.5</v>
       </c>
       <c r="D996" s="2">
-        <v>45782.500694444447</v>
+        <v>45782.5</v>
       </c>
       <c r="E996">
         <v>565.35</v>
@@ -29312,10 +29321,10 @@
         <v>995</v>
       </c>
       <c r="C997" s="2">
-        <v>45782.542361111111</v>
+        <v>45782.541666666664</v>
       </c>
       <c r="D997" s="2">
-        <v>45782.542361111111</v>
+        <v>45782.541666666664</v>
       </c>
       <c r="E997">
         <v>565.6</v>
@@ -29341,10 +29350,10 @@
         <v>996</v>
       </c>
       <c r="C998" s="2">
-        <v>45783.417361111111</v>
+        <v>45783.416666666664</v>
       </c>
       <c r="D998" s="2">
-        <v>45783.417361111111</v>
+        <v>45783.416666666664</v>
       </c>
       <c r="E998">
         <v>561.03</v>
@@ -29370,10 +29379,10 @@
         <v>997</v>
       </c>
       <c r="C999" s="2">
-        <v>45783.542361111111</v>
+        <v>45783.541666666664</v>
       </c>
       <c r="D999" s="2">
-        <v>45783.542361111111</v>
+        <v>45783.541666666664</v>
       </c>
       <c r="E999">
         <v>558.71</v>
@@ -29399,10 +29408,10 @@
         <v>998</v>
       </c>
       <c r="C1000" s="2">
-        <v>45783.584027777782</v>
+        <v>45783.583333333336</v>
       </c>
       <c r="D1000" s="2">
-        <v>45783.584027777782</v>
+        <v>45783.583333333336</v>
       </c>
       <c r="E1000">
         <v>560.86</v>
@@ -29428,10 +29437,10 @@
         <v>999</v>
       </c>
       <c r="C1001" s="2">
-        <v>45786.500694444447</v>
+        <v>45786.5</v>
       </c>
       <c r="D1001" s="2">
-        <v>45786.500694444447</v>
+        <v>45786.5</v>
       </c>
       <c r="E1001">
         <v>563.47</v>
@@ -29457,10 +29466,10 @@
         <v>1000</v>
       </c>
       <c r="C1002" s="2">
-        <v>45786.542361111111</v>
+        <v>45786.541666666664</v>
       </c>
       <c r="D1002" s="2">
-        <v>45786.542361111111</v>
+        <v>45786.541666666664</v>
       </c>
       <c r="E1002">
         <v>565.22</v>
@@ -29486,10 +29495,10 @@
         <v>1001</v>
       </c>
       <c r="C1003" s="2">
-        <v>45786.584027777782</v>
+        <v>45786.583333333336</v>
       </c>
       <c r="D1003" s="2">
-        <v>45786.584027777782</v>
+        <v>45786.583333333336</v>
       </c>
       <c r="E1003">
         <v>564.95000000000005</v>
@@ -29515,10 +29524,10 @@
         <v>1002</v>
       </c>
       <c r="C1004" s="2">
-        <v>45791.584027777782</v>
+        <v>45791.583333333336</v>
       </c>
       <c r="D1004" s="2">
-        <v>45791.584027777782</v>
+        <v>45791.583333333336</v>
       </c>
       <c r="E1004">
         <v>587.4</v>
@@ -29544,10 +29553,10 @@
         <v>1003</v>
       </c>
       <c r="C1005" s="2">
-        <v>45792.375694444447</v>
+        <v>45792.375</v>
       </c>
       <c r="D1005" s="2">
-        <v>45792.375694444447</v>
+        <v>45792.375</v>
       </c>
       <c r="E1005">
         <v>586.42999999999995</v>
@@ -29573,10 +29582,10 @@
         <v>1004</v>
       </c>
       <c r="C1006" s="2">
-        <v>45796.375694444447</v>
+        <v>45796.375</v>
       </c>
       <c r="D1006" s="2">
-        <v>45796.375694444447</v>
+        <v>45796.375</v>
       </c>
       <c r="E1006">
         <v>591.22</v>
@@ -29602,10 +29611,10 @@
         <v>1005</v>
       </c>
       <c r="C1007" s="2">
-        <v>45796.417361111111</v>
+        <v>45796.416666666664</v>
       </c>
       <c r="D1007" s="2">
-        <v>45796.417361111111</v>
+        <v>45796.416666666664</v>
       </c>
       <c r="E1007">
         <v>592.07000000000005</v>
@@ -29631,10 +29640,10 @@
         <v>1006</v>
       </c>
       <c r="C1008" s="2">
-        <v>45797.584027777782</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="D1008" s="2">
-        <v>45797.584027777782</v>
+        <v>45797.583333333336</v>
       </c>
       <c r="E1008">
         <v>590.46</v>
@@ -29660,10 +29669,10 @@
         <v>1007</v>
       </c>
       <c r="C1009" s="2">
-        <v>45798.417361111111</v>
+        <v>45798.416666666664</v>
       </c>
       <c r="D1009" s="2">
-        <v>45798.417361111111</v>
+        <v>45798.416666666664</v>
       </c>
       <c r="E1009">
         <v>590.5</v>
@@ -29689,10 +29698,10 @@
         <v>1008</v>
       </c>
       <c r="C1010" s="2">
-        <v>45798.459027777782</v>
+        <v>45798.458333333336</v>
       </c>
       <c r="D1010" s="2">
-        <v>45798.459027777782</v>
+        <v>45798.458333333336</v>
       </c>
       <c r="E1010">
         <v>591.94000000000005</v>
@@ -29718,10 +29727,10 @@
         <v>1009</v>
       </c>
       <c r="C1011" s="2">
-        <v>45799.500694444447</v>
+        <v>45799.5</v>
       </c>
       <c r="D1011" s="2">
-        <v>45799.500694444447</v>
+        <v>45799.5</v>
       </c>
       <c r="E1011">
         <v>583.26</v>
@@ -29747,10 +29756,10 @@
         <v>1010</v>
       </c>
       <c r="C1012" s="2">
-        <v>45799.542361111111</v>
+        <v>45799.541666666664</v>
       </c>
       <c r="D1012" s="2">
-        <v>45799.542361111111</v>
+        <v>45799.541666666664</v>
       </c>
       <c r="E1012">
         <v>585.4</v>
@@ -29776,10 +29785,10 @@
         <v>1011</v>
       </c>
       <c r="C1013" s="2">
-        <v>45800.500694444447</v>
+        <v>45800.5</v>
       </c>
       <c r="D1013" s="2">
-        <v>45800.500694444447</v>
+        <v>45800.5</v>
       </c>
       <c r="E1013">
         <v>579.14</v>
@@ -29805,10 +29814,10 @@
         <v>1012</v>
       </c>
       <c r="C1014" s="2">
-        <v>45800.542361111111</v>
+        <v>45800.541666666664</v>
       </c>
       <c r="D1014" s="2">
-        <v>45800.542361111111</v>
+        <v>45800.541666666664</v>
       </c>
       <c r="E1014">
         <v>580.91999999999996</v>
@@ -29834,10 +29843,10 @@
         <v>1013</v>
       </c>
       <c r="C1015" s="2">
-        <v>45800.584027777782</v>
+        <v>45800.583333333336</v>
       </c>
       <c r="D1015" s="2">
-        <v>45800.584027777782</v>
+        <v>45800.583333333336</v>
       </c>
       <c r="E1015">
         <v>580.61</v>
@@ -29863,10 +29872,10 @@
         <v>1014</v>
       </c>
       <c r="C1016" s="2">
-        <v>45806.459027777782</v>
+        <v>45806.458333333336</v>
       </c>
       <c r="D1016" s="2">
-        <v>45806.459027777782</v>
+        <v>45806.458333333336</v>
       </c>
       <c r="E1016">
         <v>586.35</v>
@@ -29892,10 +29901,10 @@
         <v>1015</v>
       </c>
       <c r="C1017" s="2">
-        <v>45806.500694444447</v>
+        <v>45806.5</v>
       </c>
       <c r="D1017" s="2">
-        <v>45806.500694444447</v>
+        <v>45806.5</v>
       </c>
       <c r="E1017">
         <v>590.12</v>
@@ -29921,10 +29930,10 @@
         <v>1016</v>
       </c>
       <c r="C1018" s="2">
-        <v>45806.542361111111</v>
+        <v>45806.541666666664</v>
       </c>
       <c r="D1018" s="2">
-        <v>45806.542361111111</v>
+        <v>45806.541666666664</v>
       </c>
       <c r="E1018">
         <v>588.91999999999996</v>
@@ -29950,10 +29959,10 @@
         <v>1017</v>
       </c>
       <c r="C1019" s="2">
-        <v>45806.584027777782</v>
+        <v>45806.583333333336</v>
       </c>
       <c r="D1019" s="2">
-        <v>45806.584027777782</v>
+        <v>45806.583333333336</v>
       </c>
       <c r="E1019">
         <v>589.09</v>
@@ -29979,10 +29988,10 @@
         <v>1018</v>
       </c>
       <c r="C1020" s="2">
-        <v>45807.375694444447</v>
+        <v>45807.375</v>
       </c>
       <c r="D1020" s="2">
-        <v>45807.375694444447</v>
+        <v>45807.375</v>
       </c>
       <c r="E1020">
         <v>587.96</v>
@@ -30008,10 +30017,10 @@
         <v>1019</v>
       </c>
       <c r="C1021" s="2">
-        <v>45807.417361111111</v>
+        <v>45807.416666666664</v>
       </c>
       <c r="D1021" s="2">
-        <v>45807.417361111111</v>
+        <v>45807.416666666664</v>
       </c>
       <c r="E1021">
         <v>588.85</v>
@@ -30037,10 +30046,10 @@
         <v>1020</v>
       </c>
       <c r="C1022" s="2">
-        <v>45807.500694444447</v>
+        <v>45807.5</v>
       </c>
       <c r="D1022" s="2">
-        <v>45807.500694444447</v>
+        <v>45807.5</v>
       </c>
       <c r="E1022">
         <v>584.25</v>
@@ -30066,10 +30075,10 @@
         <v>1021</v>
       </c>
       <c r="C1023" s="2">
-        <v>45813.375694444447</v>
+        <v>45813.375</v>
       </c>
       <c r="D1023" s="2">
-        <v>45813.375694444447</v>
+        <v>45813.375</v>
       </c>
       <c r="E1023">
         <v>594.62</v>
@@ -30095,10 +30104,10 @@
         <v>1022</v>
       </c>
       <c r="C1024" s="2">
-        <v>45813.542361111111</v>
+        <v>45813.541666666664</v>
       </c>
       <c r="D1024" s="2">
-        <v>45813.542361111111</v>
+        <v>45813.541666666664</v>
       </c>
       <c r="E1024">
         <v>596.01</v>
@@ -30124,10 +30133,10 @@
         <v>1023</v>
       </c>
       <c r="C1025" s="2">
-        <v>45819.584027777782</v>
+        <v>45819.583333333336</v>
       </c>
       <c r="D1025" s="2">
-        <v>45819.584027777782</v>
+        <v>45819.583333333336</v>
       </c>
       <c r="E1025">
         <v>600.42999999999995</v>
@@ -30152,11 +30161,11 @@
       <c r="B1026">
         <v>1024</v>
       </c>
-      <c r="C1026" s="2">
-        <v>45820.354861111111</v>
-      </c>
-      <c r="D1026" s="2">
-        <v>45820.354861111111</v>
+      <c r="C1026" s="3">
+        <v>45820.333333333336</v>
+      </c>
+      <c r="D1026" s="3">
+        <v>45820.333333333336</v>
       </c>
       <c r="E1026">
         <v>600.38</v>
@@ -30182,10 +30191,10 @@
         <v>1025</v>
       </c>
       <c r="C1027" s="2">
-        <v>45820.375694444447</v>
+        <v>45820.375</v>
       </c>
       <c r="D1027" s="2">
-        <v>45820.375694444447</v>
+        <v>45820.375</v>
       </c>
       <c r="E1027">
         <v>600.73</v>
@@ -30211,10 +30220,10 @@
         <v>1026</v>
       </c>
       <c r="C1028" s="2">
-        <v>45820.417361111111</v>
+        <v>45820.416666666664</v>
       </c>
       <c r="D1028" s="2">
-        <v>45820.417361111111</v>
+        <v>45820.416666666664</v>
       </c>
       <c r="E1028">
         <v>602.88</v>
@@ -30240,10 +30249,10 @@
         <v>1027</v>
       </c>
       <c r="C1029" s="2">
-        <v>45820.459027777782</v>
+        <v>45820.458333333336</v>
       </c>
       <c r="D1029" s="2">
-        <v>45820.459027777782</v>
+        <v>45820.458333333336</v>
       </c>
       <c r="E1029">
         <v>602.66999999999996</v>
@@ -30269,10 +30278,10 @@
         <v>1028</v>
       </c>
       <c r="C1030" s="2">
-        <v>45820.500694444447</v>
+        <v>45820.5</v>
       </c>
       <c r="D1030" s="2">
-        <v>45820.500694444447</v>
+        <v>45820.5</v>
       </c>
       <c r="E1030">
         <v>602.5</v>
@@ -30298,10 +30307,10 @@
         <v>1029</v>
       </c>
       <c r="C1031" s="2">
-        <v>45820.542361111111</v>
+        <v>45820.541666666664</v>
       </c>
       <c r="D1031" s="2">
-        <v>45820.542361111111</v>
+        <v>45820.541666666664</v>
       </c>
       <c r="E1031">
         <v>603.22</v>
@@ -30327,10 +30336,10 @@
         <v>1030</v>
       </c>
       <c r="C1032" s="2">
-        <v>45821.417361111111</v>
+        <v>45821.416666666664</v>
       </c>
       <c r="D1032" s="2">
-        <v>45821.417361111111</v>
+        <v>45821.416666666664</v>
       </c>
       <c r="E1032">
         <v>599.03</v>
@@ -30356,10 +30365,10 @@
         <v>1031</v>
       </c>
       <c r="C1033" s="2">
-        <v>45821.459027777782</v>
+        <v>45821.458333333336</v>
       </c>
       <c r="D1033" s="2">
-        <v>45821.459027777782</v>
+        <v>45821.458333333336</v>
       </c>
       <c r="E1033">
         <v>601.1</v>
@@ -30384,11 +30393,11 @@
       <c r="B1034">
         <v>1032</v>
       </c>
-      <c r="C1034" s="2">
-        <v>45826.354861111111</v>
-      </c>
-      <c r="D1034" s="2">
-        <v>45826.354861111111</v>
+      <c r="C1034" s="3">
+        <v>45826.333333333336</v>
+      </c>
+      <c r="D1034" s="3">
+        <v>45826.333333333336</v>
       </c>
       <c r="E1034">
         <v>597.97</v>
@@ -30414,10 +30423,10 @@
         <v>1033</v>
       </c>
       <c r="C1035" s="2">
-        <v>45826.375694444447</v>
+        <v>45826.375</v>
       </c>
       <c r="D1035" s="2">
-        <v>45826.375694444447</v>
+        <v>45826.375</v>
       </c>
       <c r="E1035">
         <v>598.82000000000005</v>
@@ -30443,10 +30452,10 @@
         <v>1034</v>
       </c>
       <c r="C1036" s="2">
-        <v>45826.417361111111</v>
+        <v>45826.416666666664</v>
       </c>
       <c r="D1036" s="2">
-        <v>45826.417361111111</v>
+        <v>45826.416666666664</v>
       </c>
       <c r="E1036">
         <v>600.85</v>
@@ -30472,10 +30481,10 @@
         <v>1035</v>
       </c>
       <c r="C1037" s="2">
-        <v>45826.459027777782</v>
+        <v>45826.458333333336</v>
       </c>
       <c r="D1037" s="2">
-        <v>45826.459027777782</v>
+        <v>45826.458333333336</v>
       </c>
       <c r="E1037">
         <v>599.57000000000005</v>
@@ -30501,10 +30510,10 @@
         <v>1036</v>
       </c>
       <c r="C1038" s="2">
-        <v>45826.500694444447</v>
+        <v>45826.5</v>
       </c>
       <c r="D1038" s="2">
-        <v>45826.500694444447</v>
+        <v>45826.5</v>
       </c>
       <c r="E1038">
         <v>599.37</v>
@@ -30530,10 +30539,10 @@
         <v>1037</v>
       </c>
       <c r="C1039" s="2">
-        <v>45826.584027777782</v>
+        <v>45826.583333333336</v>
       </c>
       <c r="D1039" s="2">
-        <v>45826.584027777782</v>
+        <v>45826.583333333336</v>
       </c>
       <c r="E1039">
         <v>596.75</v>
@@ -30559,10 +30568,10 @@
         <v>1038</v>
       </c>
       <c r="C1040" s="2">
-        <v>45828.584027777782</v>
+        <v>45828.583333333336</v>
       </c>
       <c r="D1040" s="2">
-        <v>45828.584027777782</v>
+        <v>45828.583333333336</v>
       </c>
       <c r="E1040">
         <v>593.65</v>
@@ -30588,10 +30597,10 @@
         <v>1039</v>
       </c>
       <c r="C1041" s="2">
-        <v>45835.584027777782</v>
+        <v>45835.583333333336</v>
       </c>
       <c r="D1041" s="2">
-        <v>45835.584027777782</v>
+        <v>45835.583333333336</v>
       </c>
       <c r="E1041">
         <v>611.29</v>

--- a/Trades_M1.xlsx
+++ b/Trades_M1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC51CE-05F1-4700-8E40-53E23F0282AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF6CF07-6DDF-4776-BC06-72E48BE6BD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
-      <selection activeCell="C937" sqref="C937"/>
+    <sheetView tabSelected="1" topLeftCell="A813" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D836" sqref="D836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24535,11 +24535,11 @@
       <c r="B832">
         <v>830</v>
       </c>
-      <c r="C832" s="2">
-        <v>45595.354861111111</v>
-      </c>
-      <c r="D832" s="2">
-        <v>45595.354861111111</v>
+      <c r="C832" s="3">
+        <v>45595.333333333336</v>
+      </c>
+      <c r="D832" s="3">
+        <v>45595.333333333336</v>
       </c>
       <c r="E832">
         <v>580.92999999999995</v>
@@ -24565,10 +24565,10 @@
         <v>831</v>
       </c>
       <c r="C833" s="2">
-        <v>45596.459027777782</v>
+        <v>45596.458333333336</v>
       </c>
       <c r="D833" s="2">
-        <v>45596.459027777782</v>
+        <v>45596.458333333336</v>
       </c>
       <c r="E833">
         <v>570.80999999999995</v>
@@ -24593,11 +24593,11 @@
       <c r="B834">
         <v>832</v>
       </c>
-      <c r="C834" s="2">
-        <v>45597.354861111111</v>
-      </c>
-      <c r="D834" s="2">
-        <v>45597.354861111111</v>
+      <c r="C834" s="3">
+        <v>45597.333333333336</v>
+      </c>
+      <c r="D834" s="3">
+        <v>45597.333333333336</v>
       </c>
       <c r="E834">
         <v>571.4</v>
@@ -24623,10 +24623,10 @@
         <v>833</v>
       </c>
       <c r="C835" s="2">
-        <v>45597.375694444447</v>
+        <v>45597.375</v>
       </c>
       <c r="D835" s="2">
-        <v>45597.375694444447</v>
+        <v>45597.375</v>
       </c>
       <c r="E835">
         <v>573.09</v>
@@ -24652,10 +24652,10 @@
         <v>834</v>
       </c>
       <c r="C836" s="2">
-        <v>45597.417361111111</v>
+        <v>45597.416666666664</v>
       </c>
       <c r="D836" s="2">
-        <v>45597.417361111111</v>
+        <v>45597.416666666664</v>
       </c>
       <c r="E836">
         <v>574.44000000000005</v>
@@ -24681,10 +24681,10 @@
         <v>835</v>
       </c>
       <c r="C837" s="2">
-        <v>45597.459027777782</v>
+        <v>45597.458333333336</v>
       </c>
       <c r="D837" s="2">
-        <v>45597.459027777782</v>
+        <v>45597.458333333336</v>
       </c>
       <c r="E837">
         <v>573.79</v>
@@ -24710,10 +24710,10 @@
         <v>836</v>
       </c>
       <c r="C838" s="2">
-        <v>45597.500694444447</v>
+        <v>45597.5</v>
       </c>
       <c r="D838" s="2">
-        <v>45597.500694444447</v>
+        <v>45597.5</v>
       </c>
       <c r="E838">
         <v>573.13</v>
@@ -24739,10 +24739,10 @@
         <v>837</v>
       </c>
       <c r="C839" s="2">
-        <v>45597.542361111111</v>
+        <v>45597.541666666664</v>
       </c>
       <c r="D839" s="2">
-        <v>45597.542361111111</v>
+        <v>45597.541666666664</v>
       </c>
       <c r="E839">
         <v>571.67999999999995</v>
@@ -24768,10 +24768,10 @@
         <v>838</v>
       </c>
       <c r="C840" s="2">
-        <v>45607.584027777782</v>
+        <v>45607.583333333336</v>
       </c>
       <c r="D840" s="2">
-        <v>45607.584027777782</v>
+        <v>45607.583333333336</v>
       </c>
       <c r="E840">
         <v>598.13</v>
@@ -24797,10 +24797,10 @@
         <v>839</v>
       </c>
       <c r="C841" s="2">
-        <v>45607.625694444447</v>
+        <v>45607.625</v>
       </c>
       <c r="D841" s="2">
-        <v>45607.625694444447</v>
+        <v>45607.625</v>
       </c>
       <c r="E841">
         <v>598.16</v>
@@ -24825,11 +24825,11 @@
       <c r="B842">
         <v>840</v>
       </c>
-      <c r="C842" s="2">
-        <v>45608.396527777782</v>
-      </c>
-      <c r="D842" s="2">
-        <v>45608.396527777782</v>
+      <c r="C842" s="3">
+        <v>45608.375</v>
+      </c>
+      <c r="D842" s="3">
+        <v>45608.375</v>
       </c>
       <c r="E842">
         <v>598.79</v>
@@ -24855,10 +24855,10 @@
         <v>841</v>
       </c>
       <c r="C843" s="2">
-        <v>45608.542361111111</v>
+        <v>45608.541666666664</v>
       </c>
       <c r="D843" s="2">
-        <v>45608.542361111111</v>
+        <v>45608.541666666664</v>
       </c>
       <c r="E843">
         <v>594.59</v>
@@ -24884,10 +24884,10 @@
         <v>842</v>
       </c>
       <c r="C844" s="2">
-        <v>45608.584027777782</v>
+        <v>45608.583333333336</v>
       </c>
       <c r="D844" s="2">
-        <v>45608.584027777782</v>
+        <v>45608.583333333336</v>
       </c>
       <c r="E844">
         <v>597.48</v>
@@ -24912,11 +24912,11 @@
       <c r="B845">
         <v>843</v>
       </c>
-      <c r="C845" s="2">
-        <v>45609.396527777782</v>
-      </c>
-      <c r="D845" s="2">
-        <v>45609.396527777782</v>
+      <c r="C845" s="3">
+        <v>45609.375</v>
+      </c>
+      <c r="D845" s="3">
+        <v>45609.375</v>
       </c>
       <c r="E845">
         <v>597.45000000000005</v>
@@ -24942,10 +24942,10 @@
         <v>844</v>
       </c>
       <c r="C846" s="2">
-        <v>45609.417361111111</v>
+        <v>45609.416666666664</v>
       </c>
       <c r="D846" s="2">
-        <v>45609.417361111111</v>
+        <v>45609.416666666664</v>
       </c>
       <c r="E846">
         <v>596.58000000000004</v>
@@ -24971,10 +24971,10 @@
         <v>845</v>
       </c>
       <c r="C847" s="2">
-        <v>45610.584027777782</v>
+        <v>45610.583333333336</v>
       </c>
       <c r="D847" s="2">
-        <v>45610.584027777782</v>
+        <v>45610.583333333336</v>
       </c>
       <c r="E847">
         <v>594.29</v>
@@ -24999,11 +24999,11 @@
       <c r="B848">
         <v>846</v>
       </c>
-      <c r="C848" s="2">
-        <v>45614.396527777782</v>
-      </c>
-      <c r="D848" s="2">
-        <v>45614.396527777782</v>
+      <c r="C848" s="3">
+        <v>45614.375</v>
+      </c>
+      <c r="D848" s="3">
+        <v>45614.375</v>
       </c>
       <c r="E848">
         <v>585.78</v>
@@ -25029,10 +25029,10 @@
         <v>847</v>
       </c>
       <c r="C849" s="2">
-        <v>45614.417361111111</v>
+        <v>45614.416666666664</v>
       </c>
       <c r="D849" s="2">
-        <v>45614.417361111111</v>
+        <v>45614.416666666664</v>
       </c>
       <c r="E849">
         <v>585.76</v>
@@ -25058,10 +25058,10 @@
         <v>848</v>
       </c>
       <c r="C850" s="2">
-        <v>45615.417361111111</v>
+        <v>45615.416666666664</v>
       </c>
       <c r="D850" s="2">
-        <v>45615.417361111111</v>
+        <v>45615.416666666664</v>
       </c>
       <c r="E850">
         <v>584.69000000000005</v>
@@ -25087,10 +25087,10 @@
         <v>849</v>
       </c>
       <c r="C851" s="2">
-        <v>45615.459027777782</v>
+        <v>45615.458333333336</v>
       </c>
       <c r="D851" s="2">
-        <v>45615.459027777782</v>
+        <v>45615.458333333336</v>
       </c>
       <c r="E851">
         <v>587.77</v>
@@ -25116,10 +25116,10 @@
         <v>850</v>
       </c>
       <c r="C852" s="2">
-        <v>45616.500694444447</v>
+        <v>45616.5</v>
       </c>
       <c r="D852" s="2">
-        <v>45616.500694444447</v>
+        <v>45616.5</v>
       </c>
       <c r="E852">
         <v>588.52</v>
@@ -25145,10 +25145,10 @@
         <v>851</v>
       </c>
       <c r="C853" s="2">
-        <v>45616.584027777782</v>
+        <v>45616.583333333336</v>
       </c>
       <c r="D853" s="2">
-        <v>45616.584027777782</v>
+        <v>45616.583333333336</v>
       </c>
       <c r="E853">
         <v>586.61</v>
@@ -25174,10 +25174,10 @@
         <v>852</v>
       </c>
       <c r="C854" s="2">
-        <v>45621.542361111111</v>
+        <v>45621.541666666664</v>
       </c>
       <c r="D854" s="2">
-        <v>45621.542361111111</v>
+        <v>45621.541666666664</v>
       </c>
       <c r="E854">
         <v>596.6</v>
@@ -25203,10 +25203,10 @@
         <v>853</v>
       </c>
       <c r="C855" s="2">
-        <v>45621.584027777782</v>
+        <v>45621.583333333336</v>
       </c>
       <c r="D855" s="2">
-        <v>45621.584027777782</v>
+        <v>45621.583333333336</v>
       </c>
       <c r="E855">
         <v>597.28</v>
@@ -25232,10 +25232,10 @@
         <v>854</v>
       </c>
       <c r="C856" s="2">
-        <v>45621.625694444447</v>
+        <v>45621.625</v>
       </c>
       <c r="D856" s="2">
-        <v>45621.625694444447</v>
+        <v>45621.625</v>
       </c>
       <c r="E856">
         <v>596.91999999999996</v>
@@ -25260,11 +25260,11 @@
       <c r="B857">
         <v>855</v>
       </c>
-      <c r="C857" s="2">
-        <v>45622.396527777782</v>
-      </c>
-      <c r="D857" s="2">
-        <v>45622.396527777782</v>
+      <c r="C857" s="3">
+        <v>45622.375</v>
+      </c>
+      <c r="D857" s="3">
+        <v>45622.375</v>
       </c>
       <c r="E857">
         <v>598.94000000000005</v>
@@ -25290,10 +25290,10 @@
         <v>856</v>
       </c>
       <c r="C858" s="2">
-        <v>45622.417361111111</v>
+        <v>45622.416666666664</v>
       </c>
       <c r="D858" s="2">
-        <v>45622.417361111111</v>
+        <v>45622.416666666664</v>
       </c>
       <c r="E858">
         <v>598.78</v>
@@ -25319,10 +25319,10 @@
         <v>857</v>
       </c>
       <c r="C859" s="2">
-        <v>45622.459027777782</v>
+        <v>45622.458333333336</v>
       </c>
       <c r="D859" s="2">
-        <v>45622.459027777782</v>
+        <v>45622.458333333336</v>
       </c>
       <c r="E859">
         <v>599.26</v>
@@ -25348,10 +25348,10 @@
         <v>858</v>
       </c>
       <c r="C860" s="2">
-        <v>45623.542361111111</v>
+        <v>45623.541666666664</v>
       </c>
       <c r="D860" s="2">
-        <v>45623.542361111111</v>
+        <v>45623.541666666664</v>
       </c>
       <c r="E860">
         <v>598.29</v>
@@ -25377,10 +25377,10 @@
         <v>859</v>
       </c>
       <c r="C861" s="2">
-        <v>45623.584027777782</v>
+        <v>45623.583333333336</v>
       </c>
       <c r="D861" s="2">
-        <v>45623.584027777782</v>
+        <v>45623.583333333336</v>
       </c>
       <c r="E861">
         <v>598.91999999999996</v>
@@ -25406,10 +25406,10 @@
         <v>860</v>
       </c>
       <c r="C862" s="2">
-        <v>45623.625694444447</v>
+        <v>45623.625</v>
       </c>
       <c r="D862" s="2">
-        <v>45623.625694444447</v>
+        <v>45623.625</v>
       </c>
       <c r="E862">
         <v>598.6</v>
@@ -25434,11 +25434,11 @@
       <c r="B863">
         <v>861</v>
       </c>
-      <c r="C863" s="2">
-        <v>45625.396527777782</v>
-      </c>
-      <c r="D863" s="2">
-        <v>45625.396527777782</v>
+      <c r="C863" s="3">
+        <v>45625.375</v>
+      </c>
+      <c r="D863" s="3">
+        <v>45625.375</v>
       </c>
       <c r="E863">
         <v>599.46</v>
@@ -25464,10 +25464,10 @@
         <v>862</v>
       </c>
       <c r="C864" s="2">
-        <v>45635.542361111111</v>
+        <v>45635.541666666664</v>
       </c>
       <c r="D864" s="2">
-        <v>45635.542361111111</v>
+        <v>45635.541666666664</v>
       </c>
       <c r="E864">
         <v>605.14</v>
@@ -25493,10 +25493,10 @@
         <v>863</v>
       </c>
       <c r="C865" s="2">
-        <v>45635.584027777782</v>
+        <v>45635.583333333336</v>
       </c>
       <c r="D865" s="2">
-        <v>45635.584027777782</v>
+        <v>45635.583333333336</v>
       </c>
       <c r="E865">
         <v>605.83000000000004</v>
@@ -25521,11 +25521,11 @@
       <c r="B866">
         <v>864</v>
       </c>
-      <c r="C866" s="2">
-        <v>45636.396527777782</v>
-      </c>
-      <c r="D866" s="2">
-        <v>45636.396527777782</v>
+      <c r="C866" s="3">
+        <v>45636.375</v>
+      </c>
+      <c r="D866" s="3">
+        <v>45636.375</v>
       </c>
       <c r="E866">
         <v>604.79</v>
@@ -25551,10 +25551,10 @@
         <v>865</v>
       </c>
       <c r="C867" s="2">
-        <v>45636.417361111111</v>
+        <v>45636.416666666664</v>
       </c>
       <c r="D867" s="2">
-        <v>45636.417361111111</v>
+        <v>45636.416666666664</v>
       </c>
       <c r="E867">
         <v>604.96</v>
@@ -25580,10 +25580,10 @@
         <v>866</v>
       </c>
       <c r="C868" s="2">
-        <v>45639.396527777782</v>
+        <v>45639.375</v>
       </c>
       <c r="D868" s="2">
-        <v>45639.396527777782</v>
+        <v>45639.375</v>
       </c>
       <c r="E868">
         <v>606.35</v>
@@ -25609,10 +25609,10 @@
         <v>867</v>
       </c>
       <c r="C869" s="2">
-        <v>45639.459027777782</v>
+        <v>45639.458333333336</v>
       </c>
       <c r="D869" s="2">
-        <v>45639.459027777782</v>
+        <v>45639.458333333336</v>
       </c>
       <c r="E869">
         <v>603.47</v>
@@ -25638,10 +25638,10 @@
         <v>868</v>
       </c>
       <c r="C870" s="2">
-        <v>45639.542361111111</v>
+        <v>45639.541666666664</v>
       </c>
       <c r="D870" s="2">
-        <v>45639.542361111111</v>
+        <v>45639.541666666664</v>
       </c>
       <c r="E870">
         <v>602.88</v>
@@ -25667,10 +25667,10 @@
         <v>869</v>
       </c>
       <c r="C871" s="2">
-        <v>45639.584027777782</v>
+        <v>45639.583333333336</v>
       </c>
       <c r="D871" s="2">
-        <v>45639.584027777782</v>
+        <v>45639.583333333336</v>
       </c>
       <c r="E871">
         <v>604.02</v>
@@ -25696,10 +25696,10 @@
         <v>870</v>
       </c>
       <c r="C872" s="2">
-        <v>45639.625694444447</v>
+        <v>45639.625</v>
       </c>
       <c r="D872" s="2">
-        <v>45639.625694444447</v>
+        <v>45639.625</v>
       </c>
       <c r="E872">
         <v>604.39</v>
@@ -25725,10 +25725,10 @@
         <v>871</v>
       </c>
       <c r="C873" s="2">
-        <v>45643.459027777782</v>
+        <v>45643.458333333336</v>
       </c>
       <c r="D873" s="2">
-        <v>45643.459027777782</v>
+        <v>45643.458333333336</v>
       </c>
       <c r="E873">
         <v>604.08000000000004</v>
@@ -25754,10 +25754,10 @@
         <v>872</v>
       </c>
       <c r="C874" s="2">
-        <v>45643.625694444447</v>
+        <v>45643.625</v>
       </c>
       <c r="D874" s="2">
-        <v>45643.625694444447</v>
+        <v>45643.625</v>
       </c>
       <c r="E874">
         <v>603.30999999999995</v>
@@ -25782,11 +25782,11 @@
       <c r="B875">
         <v>873</v>
       </c>
-      <c r="C875" s="2">
-        <v>45644.396527777782</v>
-      </c>
-      <c r="D875" s="2">
-        <v>45644.396527777782</v>
+      <c r="C875" s="3">
+        <v>45644.375</v>
+      </c>
+      <c r="D875" s="3">
+        <v>45644.375</v>
       </c>
       <c r="E875">
         <v>604.02</v>
@@ -25812,10 +25812,10 @@
         <v>874</v>
       </c>
       <c r="C876" s="2">
-        <v>45644.417361111111</v>
+        <v>45644.416666666664</v>
       </c>
       <c r="D876" s="2">
-        <v>45644.417361111111</v>
+        <v>45644.416666666664</v>
       </c>
       <c r="E876">
         <v>604.52</v>
@@ -25841,10 +25841,10 @@
         <v>875</v>
       </c>
       <c r="C877" s="2">
-        <v>45644.459027777782</v>
+        <v>45644.458333333336</v>
       </c>
       <c r="D877" s="2">
-        <v>45644.459027777782</v>
+        <v>45644.458333333336</v>
       </c>
       <c r="E877">
         <v>606.17999999999995</v>
@@ -25870,10 +25870,10 @@
         <v>876</v>
       </c>
       <c r="C878" s="2">
-        <v>45644.500694444447</v>
+        <v>45644.5</v>
       </c>
       <c r="D878" s="2">
-        <v>45644.500694444447</v>
+        <v>45644.5</v>
       </c>
       <c r="E878">
         <v>605.67999999999995</v>
@@ -25899,10 +25899,10 @@
         <v>877</v>
       </c>
       <c r="C879" s="2">
-        <v>45644.542361111111</v>
+        <v>45644.541666666664</v>
       </c>
       <c r="D879" s="2">
-        <v>45644.542361111111</v>
+        <v>45644.541666666664</v>
       </c>
       <c r="E879">
         <v>605.52</v>
@@ -25928,10 +25928,10 @@
         <v>878</v>
       </c>
       <c r="C880" s="2">
-        <v>45653.584027777782</v>
+        <v>45653.583333333336</v>
       </c>
       <c r="D880" s="2">
-        <v>45653.584027777782</v>
+        <v>45653.583333333336</v>
       </c>
       <c r="E880">
         <v>593.91999999999996</v>
@@ -25957,10 +25957,10 @@
         <v>879</v>
       </c>
       <c r="C881" s="2">
-        <v>45653.625694444447</v>
+        <v>45653.625</v>
       </c>
       <c r="D881" s="2">
-        <v>45653.625694444447</v>
+        <v>45653.625</v>
       </c>
       <c r="E881">
         <v>595.05999999999995</v>
@@ -25986,10 +25986,10 @@
         <v>880</v>
       </c>
       <c r="C882" s="2">
-        <v>45656.417361111111</v>
+        <v>45656.416666666664</v>
       </c>
       <c r="D882" s="2">
-        <v>45656.417361111111</v>
+        <v>45656.416666666664</v>
       </c>
       <c r="E882">
         <v>584.78</v>
@@ -26015,10 +26015,10 @@
         <v>881</v>
       </c>
       <c r="C883" s="2">
-        <v>45656.459027777782</v>
+        <v>45656.458333333336</v>
       </c>
       <c r="D883" s="2">
-        <v>45656.459027777782</v>
+        <v>45656.458333333336</v>
       </c>
       <c r="E883">
         <v>586.98</v>
@@ -26044,10 +26044,10 @@
         <v>882</v>
       </c>
       <c r="C884" s="2">
-        <v>45656.500694444447</v>
+        <v>45656.5</v>
       </c>
       <c r="D884" s="2">
-        <v>45656.500694444447</v>
+        <v>45656.5</v>
       </c>
       <c r="E884">
         <v>589.47</v>
@@ -26073,10 +26073,10 @@
         <v>883</v>
       </c>
       <c r="C885" s="2">
-        <v>45656.542361111111</v>
+        <v>45656.541666666664</v>
       </c>
       <c r="D885" s="2">
-        <v>45656.542361111111</v>
+        <v>45656.541666666664</v>
       </c>
       <c r="E885">
         <v>590.38</v>
@@ -26102,10 +26102,10 @@
         <v>884</v>
       </c>
       <c r="C886" s="2">
-        <v>45656.584027777782</v>
+        <v>45656.583333333336</v>
       </c>
       <c r="D886" s="2">
-        <v>45656.584027777782</v>
+        <v>45656.583333333336</v>
       </c>
       <c r="E886">
         <v>591.15</v>
@@ -26131,10 +26131,10 @@
         <v>885</v>
       </c>
       <c r="C887" s="2">
-        <v>45659.625694444447</v>
+        <v>45659.625</v>
       </c>
       <c r="D887" s="2">
-        <v>45659.625694444447</v>
+        <v>45659.625</v>
       </c>
       <c r="E887">
         <v>582.53</v>
@@ -26159,11 +26159,11 @@
       <c r="B888">
         <v>886</v>
       </c>
-      <c r="C888" s="2">
-        <v>45660.396527777782</v>
-      </c>
-      <c r="D888" s="2">
-        <v>45660.396527777782</v>
+      <c r="C888" s="3">
+        <v>45660.375</v>
+      </c>
+      <c r="D888" s="3">
+        <v>45660.375</v>
       </c>
       <c r="E888">
         <v>587.76</v>
@@ -26189,10 +26189,10 @@
         <v>887</v>
       </c>
       <c r="C889" s="2">
-        <v>45660.417361111111</v>
+        <v>45660.416666666664</v>
       </c>
       <c r="D889" s="2">
-        <v>45660.417361111111</v>
+        <v>45660.416666666664</v>
       </c>
       <c r="E889">
         <v>587.72</v>
@@ -26218,10 +26218,10 @@
         <v>888</v>
       </c>
       <c r="C890" s="2">
-        <v>45665.417361111111</v>
+        <v>45665.416666666664</v>
       </c>
       <c r="D890" s="2">
-        <v>45665.417361111111</v>
+        <v>45665.416666666664</v>
       </c>
       <c r="E890">
         <v>587.80999999999995</v>
@@ -26247,10 +26247,10 @@
         <v>889</v>
       </c>
       <c r="C891" s="2">
-        <v>45665.459027777782</v>
+        <v>45665.458333333336</v>
       </c>
       <c r="D891" s="2">
-        <v>45665.459027777782</v>
+        <v>45665.458333333336</v>
       </c>
       <c r="E891">
         <v>588.19000000000005</v>
@@ -26276,10 +26276,10 @@
         <v>890</v>
       </c>
       <c r="C892" s="2">
-        <v>45665.542361111111</v>
+        <v>45665.541666666664</v>
       </c>
       <c r="D892" s="2">
-        <v>45665.542361111111</v>
+        <v>45665.541666666664</v>
       </c>
       <c r="E892">
         <v>587.36</v>
@@ -26305,10 +26305,10 @@
         <v>891</v>
       </c>
       <c r="C893" s="2">
-        <v>45665.584027777782</v>
+        <v>45665.583333333336</v>
       </c>
       <c r="D893" s="2">
-        <v>45665.584027777782</v>
+        <v>45665.583333333336</v>
       </c>
       <c r="E893">
         <v>587.66</v>
@@ -26334,10 +26334,10 @@
         <v>892</v>
       </c>
       <c r="C894" s="2">
-        <v>45665.625694444447</v>
+        <v>45665.625</v>
       </c>
       <c r="D894" s="2">
-        <v>45665.625694444447</v>
+        <v>45665.625</v>
       </c>
       <c r="E894">
         <v>588.86</v>
@@ -26363,10 +26363,10 @@
         <v>893</v>
       </c>
       <c r="C895" s="2">
-        <v>45667.542361111111</v>
+        <v>45667.541666666664</v>
       </c>
       <c r="D895" s="2">
-        <v>45667.542361111111</v>
+        <v>45667.541666666664</v>
       </c>
       <c r="E895">
         <v>581.08000000000004</v>
@@ -26392,10 +26392,10 @@
         <v>894</v>
       </c>
       <c r="C896" s="2">
-        <v>45670.417361111111</v>
+        <v>45670.416666666664</v>
       </c>
       <c r="D896" s="2">
-        <v>45670.417361111111</v>
+        <v>45670.416666666664</v>
       </c>
       <c r="E896">
         <v>577.48</v>
@@ -26421,10 +26421,10 @@
         <v>895</v>
       </c>
       <c r="C897" s="2">
-        <v>45673.584027777782</v>
+        <v>45673.583333333336</v>
       </c>
       <c r="D897" s="2">
-        <v>45673.584027777782</v>
+        <v>45673.583333333336</v>
       </c>
       <c r="E897">
         <v>591.16999999999996</v>
@@ -26450,10 +26450,10 @@
         <v>896</v>
       </c>
       <c r="C898" s="2">
-        <v>45673.625694444447</v>
+        <v>45673.625</v>
       </c>
       <c r="D898" s="2">
-        <v>45673.625694444447</v>
+        <v>45673.625</v>
       </c>
       <c r="E898">
         <v>592.88</v>
@@ -26478,11 +26478,11 @@
       <c r="B899">
         <v>897</v>
       </c>
-      <c r="C899" s="2">
-        <v>45680.396527777782</v>
-      </c>
-      <c r="D899" s="2">
-        <v>45680.396527777782</v>
+      <c r="C899" s="3">
+        <v>45680.375</v>
+      </c>
+      <c r="D899" s="3">
+        <v>45680.375</v>
       </c>
       <c r="E899">
         <v>605.69000000000005</v>
@@ -26508,10 +26508,10 @@
         <v>898</v>
       </c>
       <c r="C900" s="2">
-        <v>45680.417361111111</v>
+        <v>45680.416666666664</v>
       </c>
       <c r="D900" s="2">
-        <v>45680.417361111111</v>
+        <v>45680.416666666664</v>
       </c>
       <c r="E900">
         <v>606.07000000000005</v>
@@ -26537,10 +26537,10 @@
         <v>899</v>
       </c>
       <c r="C901" s="2">
-        <v>45681.584027777782</v>
+        <v>45681.583333333336</v>
       </c>
       <c r="D901" s="2">
-        <v>45681.584027777782</v>
+        <v>45681.583333333336</v>
       </c>
       <c r="E901">
         <v>607.54999999999995</v>
@@ -26566,10 +26566,10 @@
         <v>900</v>
       </c>
       <c r="C902" s="2">
-        <v>45681.625694444447</v>
+        <v>45681.625</v>
       </c>
       <c r="D902" s="2">
-        <v>45681.625694444447</v>
+        <v>45681.625</v>
       </c>
       <c r="E902">
         <v>607.36</v>
@@ -26595,10 +26595,10 @@
         <v>901</v>
       </c>
       <c r="C903" s="2">
-        <v>45684.542361111111</v>
+        <v>45684.541666666664</v>
       </c>
       <c r="D903" s="2">
-        <v>45684.542361111111</v>
+        <v>45684.541666666664</v>
       </c>
       <c r="E903">
         <v>596.23</v>
@@ -26624,10 +26624,10 @@
         <v>902</v>
       </c>
       <c r="C904" s="2">
-        <v>45684.584027777782</v>
+        <v>45684.583333333336</v>
       </c>
       <c r="D904" s="2">
-        <v>45684.584027777782</v>
+        <v>45684.583333333336</v>
       </c>
       <c r="E904">
         <v>596.73</v>
@@ -26653,10 +26653,10 @@
         <v>903</v>
       </c>
       <c r="C905" s="2">
-        <v>45684.625694444447</v>
+        <v>45684.625</v>
       </c>
       <c r="D905" s="2">
-        <v>45684.625694444447</v>
+        <v>45684.625</v>
       </c>
       <c r="E905">
         <v>597.08000000000004</v>
@@ -26681,11 +26681,11 @@
       <c r="B906">
         <v>904</v>
       </c>
-      <c r="C906" s="2">
-        <v>45685.396527777782</v>
-      </c>
-      <c r="D906" s="2">
-        <v>45685.396527777782</v>
+      <c r="C906" s="3">
+        <v>45685.375</v>
+      </c>
+      <c r="D906" s="3">
+        <v>45685.375</v>
       </c>
       <c r="E906">
         <v>600.36</v>
@@ -26711,10 +26711,10 @@
         <v>905</v>
       </c>
       <c r="C907" s="2">
-        <v>45686.584027777782</v>
+        <v>45686.583333333336</v>
       </c>
       <c r="D907" s="2">
-        <v>45686.584027777782</v>
+        <v>45686.583333333336</v>
       </c>
       <c r="E907">
         <v>600.11</v>
@@ -26740,10 +26740,10 @@
         <v>906</v>
       </c>
       <c r="C908" s="2">
-        <v>45686.625694444447</v>
+        <v>45686.625</v>
       </c>
       <c r="D908" s="2">
-        <v>45686.625694444447</v>
+        <v>45686.625</v>
       </c>
       <c r="E908">
         <v>602.16</v>
@@ -26769,10 +26769,10 @@
         <v>907</v>
       </c>
       <c r="C909" s="2">
-        <v>45688.584027777782</v>
+        <v>45688.583333333336</v>
       </c>
       <c r="D909" s="2">
-        <v>45688.584027777782</v>
+        <v>45688.583333333336</v>
       </c>
       <c r="E909">
         <v>605.22</v>
@@ -26798,10 +26798,10 @@
         <v>908</v>
       </c>
       <c r="C910" s="2">
-        <v>45691.417361111111</v>
+        <v>45691.416666666664</v>
       </c>
       <c r="D910" s="2">
-        <v>45691.417361111111</v>
+        <v>45691.416666666664</v>
       </c>
       <c r="E910">
         <v>591.85</v>
@@ -26827,10 +26827,10 @@
         <v>909</v>
       </c>
       <c r="C911" s="2">
-        <v>45691.459027777782</v>
+        <v>45691.458333333336</v>
       </c>
       <c r="D911" s="2">
-        <v>45691.459027777782</v>
+        <v>45691.458333333336</v>
       </c>
       <c r="E911">
         <v>598.16</v>
@@ -26856,10 +26856,10 @@
         <v>910</v>
       </c>
       <c r="C912" s="2">
-        <v>45691.500694444447</v>
+        <v>45691.5</v>
       </c>
       <c r="D912" s="2">
-        <v>45691.500694444447</v>
+        <v>45691.5</v>
       </c>
       <c r="E912">
         <v>597.64</v>
@@ -26885,10 +26885,10 @@
         <v>911</v>
       </c>
       <c r="C913" s="2">
-        <v>45691.584027777782</v>
+        <v>45691.583333333336</v>
       </c>
       <c r="D913" s="2">
-        <v>45691.584027777782</v>
+        <v>45691.583333333336</v>
       </c>
       <c r="E913">
         <v>599.08000000000004</v>
@@ -26914,10 +26914,10 @@
         <v>912</v>
       </c>
       <c r="C914" s="2">
-        <v>45691.625694444447</v>
+        <v>45691.625</v>
       </c>
       <c r="D914" s="2">
-        <v>45691.625694444447</v>
+        <v>45691.625</v>
       </c>
       <c r="E914">
         <v>599.66999999999996</v>
@@ -26942,11 +26942,11 @@
       <c r="B915">
         <v>913</v>
       </c>
-      <c r="C915" s="2">
-        <v>45692.396527777782</v>
-      </c>
-      <c r="D915" s="2">
-        <v>45692.396527777782</v>
+      <c r="C915" s="3">
+        <v>45692.375</v>
+      </c>
+      <c r="D915" s="3">
+        <v>45692.375</v>
       </c>
       <c r="E915">
         <v>597.67999999999995</v>
@@ -26971,11 +26971,11 @@
       <c r="B916">
         <v>914</v>
       </c>
-      <c r="C916" s="2">
-        <v>45698.396527777782</v>
-      </c>
-      <c r="D916" s="2">
-        <v>45698.396527777782</v>
+      <c r="C916" s="3">
+        <v>45698.375</v>
+      </c>
+      <c r="D916" s="3">
+        <v>45698.375</v>
       </c>
       <c r="E916">
         <v>603.63</v>
@@ -27001,10 +27001,10 @@
         <v>915</v>
       </c>
       <c r="C917" s="2">
-        <v>45698.417361111111</v>
+        <v>45698.416666666664</v>
       </c>
       <c r="D917" s="2">
-        <v>45698.417361111111</v>
+        <v>45698.416666666664</v>
       </c>
       <c r="E917">
         <v>603.6</v>
@@ -27030,10 +27030,10 @@
         <v>916</v>
       </c>
       <c r="C918" s="2">
-        <v>45698.459027777782</v>
+        <v>45698.458333333336</v>
       </c>
       <c r="D918" s="2">
-        <v>45698.459027777782</v>
+        <v>45698.458333333336</v>
       </c>
       <c r="E918">
         <v>605.03</v>
@@ -27059,10 +27059,10 @@
         <v>917</v>
       </c>
       <c r="C919" s="2">
-        <v>45698.500694444447</v>
+        <v>45698.5</v>
       </c>
       <c r="D919" s="2">
-        <v>45698.500694444447</v>
+        <v>45698.5</v>
       </c>
       <c r="E919">
         <v>604.4</v>
@@ -27088,10 +27088,10 @@
         <v>918</v>
       </c>
       <c r="C920" s="2">
-        <v>45700.459027777782</v>
+        <v>45700.458333333336</v>
       </c>
       <c r="D920" s="2">
-        <v>45700.459027777782</v>
+        <v>45700.458333333336</v>
       </c>
       <c r="E920">
         <v>602.15</v>
@@ -27117,10 +27117,10 @@
         <v>919</v>
       </c>
       <c r="C921" s="2">
-        <v>45700.500694444447</v>
+        <v>45700.5</v>
       </c>
       <c r="D921" s="2">
-        <v>45700.500694444447</v>
+        <v>45700.5</v>
       </c>
       <c r="E921">
         <v>603.62</v>
@@ -27146,10 +27146,10 @@
         <v>920</v>
       </c>
       <c r="C922" s="2">
-        <v>45700.542361111111</v>
+        <v>45700.541666666664</v>
       </c>
       <c r="D922" s="2">
-        <v>45700.542361111111</v>
+        <v>45700.541666666664</v>
       </c>
       <c r="E922">
         <v>604.5</v>
@@ -27175,10 +27175,10 @@
         <v>921</v>
       </c>
       <c r="C923" s="2">
-        <v>45700.584027777782</v>
+        <v>45700.583333333336</v>
       </c>
       <c r="D923" s="2">
-        <v>45700.584027777782</v>
+        <v>45700.583333333336</v>
       </c>
       <c r="E923">
         <v>603.12</v>
@@ -27204,10 +27204,10 @@
         <v>922</v>
       </c>
       <c r="C924" s="2">
-        <v>45700.625694444447</v>
+        <v>45700.625</v>
       </c>
       <c r="D924" s="2">
-        <v>45700.625694444447</v>
+        <v>45700.625</v>
       </c>
       <c r="E924">
         <v>604.01</v>
@@ -27233,10 +27233,10 @@
         <v>923</v>
       </c>
       <c r="C925" s="2">
-        <v>45708.542361111111</v>
+        <v>45708.541666666664</v>
       </c>
       <c r="D925" s="2">
-        <v>45708.542361111111</v>
+        <v>45708.541666666664</v>
       </c>
       <c r="E925">
         <v>608.08000000000004</v>
@@ -27262,10 +27262,10 @@
         <v>924</v>
       </c>
       <c r="C926" s="2">
-        <v>45708.584027777782</v>
+        <v>45708.583333333336</v>
       </c>
       <c r="D926" s="2">
-        <v>45708.584027777782</v>
+        <v>45708.583333333336</v>
       </c>
       <c r="E926">
         <v>608.69000000000005</v>
@@ -27291,10 +27291,10 @@
         <v>925</v>
       </c>
       <c r="C927" s="2">
-        <v>45708.625694444447</v>
+        <v>45708.625</v>
       </c>
       <c r="D927" s="2">
-        <v>45708.625694444447</v>
+        <v>45708.625</v>
       </c>
       <c r="E927">
         <v>609.74</v>
@@ -27320,10 +27320,10 @@
         <v>926</v>
       </c>
       <c r="C928" s="2">
-        <v>45709.459027777782</v>
+        <v>45709.458333333336</v>
       </c>
       <c r="D928" s="2">
-        <v>45709.459027777782</v>
+        <v>45709.458333333336</v>
       </c>
       <c r="E928">
         <v>607.13</v>
@@ -27349,10 +27349,10 @@
         <v>927</v>
       </c>
       <c r="C929" s="2">
-        <v>45712.459027777782</v>
+        <v>45712.458333333336</v>
       </c>
       <c r="D929" s="2">
-        <v>45712.459027777782</v>
+        <v>45712.458333333336</v>
       </c>
       <c r="E929">
         <v>598.04</v>
@@ -27378,10 +27378,10 @@
         <v>928</v>
       </c>
       <c r="C930" s="2">
-        <v>45712.500694444447</v>
+        <v>45712.5</v>
       </c>
       <c r="D930" s="2">
-        <v>45712.500694444447</v>
+        <v>45712.5</v>
       </c>
       <c r="E930">
         <v>600.12</v>
@@ -27407,10 +27407,10 @@
         <v>929</v>
       </c>
       <c r="C931" s="2">
-        <v>45712.542361111111</v>
+        <v>45712.541666666664</v>
       </c>
       <c r="D931" s="2">
-        <v>45712.542361111111</v>
+        <v>45712.541666666664</v>
       </c>
       <c r="E931">
         <v>600.59</v>
@@ -27436,10 +27436,10 @@
         <v>930</v>
       </c>
       <c r="C932" s="2">
-        <v>45714.625694444447</v>
+        <v>45714.625</v>
       </c>
       <c r="D932" s="2">
-        <v>45714.625694444447</v>
+        <v>45714.625</v>
       </c>
       <c r="E932">
         <v>592.77</v>

--- a/Trades_M1.xlsx
+++ b/Trades_M1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF6CF07-6DDF-4776-BC06-72E48BE6BD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000340DE-68C4-46CD-BB9C-4E1CFDD19F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A813" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D836" sqref="D836"/>
+    <sheetView tabSelected="1" topLeftCell="A591" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D604" sqref="D604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11460,7 +11460,7 @@
         <v>45135.542361111111</v>
       </c>
       <c r="D381" s="2">
-        <v>45135.542361111111</v>
+        <v>45135.541666666664</v>
       </c>
       <c r="E381">
         <v>456.31</v>
@@ -11489,7 +11489,7 @@
         <v>45140.542361111111</v>
       </c>
       <c r="D382" s="2">
-        <v>45140.542361111111</v>
+        <v>45140.541666666664</v>
       </c>
       <c r="E382">
         <v>450.67</v>
@@ -11518,7 +11518,7 @@
         <v>45140.584027777782</v>
       </c>
       <c r="D383" s="2">
-        <v>45140.584027777782</v>
+        <v>45140.583333333336</v>
       </c>
       <c r="E383">
         <v>450.71</v>
@@ -11547,7 +11547,7 @@
         <v>45141.375694444447</v>
       </c>
       <c r="D384" s="2">
-        <v>45141.375694444447</v>
+        <v>45141.375</v>
       </c>
       <c r="E384">
         <v>448.9</v>
@@ -11576,7 +11576,7 @@
         <v>45141.417361111111</v>
       </c>
       <c r="D385" s="2">
-        <v>45141.417361111111</v>
+        <v>45141.416666666664</v>
       </c>
       <c r="E385">
         <v>448.54</v>
@@ -11605,7 +11605,7 @@
         <v>45141.459027777782</v>
       </c>
       <c r="D386" s="2">
-        <v>45141.459027777782</v>
+        <v>45141.458333333336</v>
       </c>
       <c r="E386">
         <v>449.14</v>
@@ -11634,7 +11634,7 @@
         <v>45141.500694444447</v>
       </c>
       <c r="D387" s="2">
-        <v>45141.500694444447</v>
+        <v>45141.5</v>
       </c>
       <c r="E387">
         <v>450.59</v>
@@ -11662,8 +11662,8 @@
       <c r="C388" s="2">
         <v>45145.354861111111</v>
       </c>
-      <c r="D388" s="2">
-        <v>45145.354861111111</v>
+      <c r="D388" s="3">
+        <v>45145.333333333336</v>
       </c>
       <c r="E388">
         <v>449.31</v>
@@ -11692,7 +11692,7 @@
         <v>45145.375694444447</v>
       </c>
       <c r="D389" s="2">
-        <v>45145.375694444447</v>
+        <v>45145.375</v>
       </c>
       <c r="E389">
         <v>448.25</v>
@@ -11721,7 +11721,7 @@
         <v>45145.417361111111</v>
       </c>
       <c r="D390" s="2">
-        <v>45145.417361111111</v>
+        <v>45145.416666666664</v>
       </c>
       <c r="E390">
         <v>448.98</v>
@@ -11750,7 +11750,7 @@
         <v>45145.459027777782</v>
       </c>
       <c r="D391" s="2">
-        <v>45145.459027777782</v>
+        <v>45145.458333333336</v>
       </c>
       <c r="E391">
         <v>449.43</v>
@@ -11779,7 +11779,7 @@
         <v>45145.500694444447</v>
       </c>
       <c r="D392" s="2">
-        <v>45145.500694444447</v>
+        <v>45145.5</v>
       </c>
       <c r="E392">
         <v>449.68</v>
@@ -11808,7 +11808,7 @@
         <v>45145.542361111111</v>
       </c>
       <c r="D393" s="2">
-        <v>45145.542361111111</v>
+        <v>45145.541666666664</v>
       </c>
       <c r="E393">
         <v>450.28</v>
@@ -11837,7 +11837,7 @@
         <v>45147.459027777782</v>
       </c>
       <c r="D394" s="2">
-        <v>45147.459027777782</v>
+        <v>45147.458333333336</v>
       </c>
       <c r="E394">
         <v>445.47</v>
@@ -11866,7 +11866,7 @@
         <v>45147.500694444447</v>
       </c>
       <c r="D395" s="2">
-        <v>45147.500694444447</v>
+        <v>45147.5</v>
       </c>
       <c r="E395">
         <v>446.16</v>
@@ -11895,7 +11895,7 @@
         <v>45147.542361111111</v>
       </c>
       <c r="D396" s="2">
-        <v>45147.542361111111</v>
+        <v>45147.541666666664</v>
       </c>
       <c r="E396">
         <v>447.4</v>
@@ -11924,7 +11924,7 @@
         <v>45147.584027777782</v>
       </c>
       <c r="D397" s="2">
-        <v>45147.584027777782</v>
+        <v>45147.583333333336</v>
       </c>
       <c r="E397">
         <v>448.16</v>
@@ -11953,7 +11953,7 @@
         <v>45148.542361111111</v>
       </c>
       <c r="D398" s="2">
-        <v>45148.542361111111</v>
+        <v>45148.541666666664</v>
       </c>
       <c r="E398">
         <v>444.99</v>
@@ -11982,7 +11982,7 @@
         <v>45148.584027777782</v>
       </c>
       <c r="D399" s="2">
-        <v>45148.584027777782</v>
+        <v>45148.583333333336</v>
       </c>
       <c r="E399">
         <v>447.06</v>
@@ -12011,7 +12011,7 @@
         <v>45149.375694444447</v>
       </c>
       <c r="D400" s="2">
-        <v>45149.375694444447</v>
+        <v>45149.375</v>
       </c>
       <c r="E400">
         <v>444.81</v>
@@ -12040,7 +12040,7 @@
         <v>45149.417361111111</v>
       </c>
       <c r="D401" s="2">
-        <v>45149.417361111111</v>
+        <v>45149.416666666664</v>
       </c>
       <c r="E401">
         <v>445.5</v>
@@ -12069,7 +12069,7 @@
         <v>45149.500694444447</v>
       </c>
       <c r="D402" s="2">
-        <v>45149.500694444447</v>
+        <v>45149.5</v>
       </c>
       <c r="E402">
         <v>444.85</v>
@@ -12098,7 +12098,7 @@
         <v>45149.542361111111</v>
       </c>
       <c r="D403" s="2">
-        <v>45149.542361111111</v>
+        <v>45149.541666666664</v>
       </c>
       <c r="E403">
         <v>445.04</v>
@@ -12127,7 +12127,7 @@
         <v>45153.417361111111</v>
       </c>
       <c r="D404" s="2">
-        <v>45153.417361111111</v>
+        <v>45153.416666666664</v>
       </c>
       <c r="E404">
         <v>444.19</v>
@@ -12156,7 +12156,7 @@
         <v>45153.459027777782</v>
       </c>
       <c r="D405" s="2">
-        <v>45153.459027777782</v>
+        <v>45153.458333333336</v>
       </c>
       <c r="E405">
         <v>445.27</v>
@@ -12184,8 +12184,8 @@
       <c r="C406" s="2">
         <v>45154.354861111111</v>
       </c>
-      <c r="D406" s="2">
-        <v>45154.354861111111</v>
+      <c r="D406" s="3">
+        <v>45154.333333333336</v>
       </c>
       <c r="E406">
         <v>442.64</v>
@@ -12214,7 +12214,7 @@
         <v>45154.417361111111</v>
       </c>
       <c r="D407" s="2">
-        <v>45154.417361111111</v>
+        <v>45154.416666666664</v>
       </c>
       <c r="E407">
         <v>443.99</v>
@@ -12243,7 +12243,7 @@
         <v>45155.459027777782</v>
       </c>
       <c r="D408" s="2">
-        <v>45155.459027777782</v>
+        <v>45155.458333333336</v>
       </c>
       <c r="E408">
         <v>439.43</v>
@@ -12272,7 +12272,7 @@
         <v>45156.375694444447</v>
       </c>
       <c r="D409" s="2">
-        <v>45156.375694444447</v>
+        <v>45156.375</v>
       </c>
       <c r="E409">
         <v>434.16</v>
@@ -12301,7 +12301,7 @@
         <v>45160.542361111111</v>
       </c>
       <c r="D410" s="2">
-        <v>45160.542361111111</v>
+        <v>45160.541666666664</v>
       </c>
       <c r="E410">
         <v>437.95</v>
@@ -12330,7 +12330,7 @@
         <v>45160.584027777782</v>
       </c>
       <c r="D411" s="2">
-        <v>45160.584027777782</v>
+        <v>45160.583333333336</v>
       </c>
       <c r="E411">
         <v>438.72</v>
@@ -12358,8 +12358,8 @@
       <c r="C412" s="2">
         <v>45161.354861111111</v>
       </c>
-      <c r="D412" s="2">
-        <v>45161.354861111111</v>
+      <c r="D412" s="3">
+        <v>45161.333333333336</v>
       </c>
       <c r="E412">
         <v>439.61</v>
@@ -12388,7 +12388,7 @@
         <v>45162.459027777782</v>
       </c>
       <c r="D413" s="2">
-        <v>45162.459027777782</v>
+        <v>45162.458333333336</v>
       </c>
       <c r="E413">
         <v>439.23</v>
@@ -12417,7 +12417,7 @@
         <v>45163.354861111111</v>
       </c>
       <c r="D414" s="2">
-        <v>45163.354861111111</v>
+        <v>45163.333333333336</v>
       </c>
       <c r="E414">
         <v>439</v>
@@ -12446,7 +12446,7 @@
         <v>45163.417361111111</v>
       </c>
       <c r="D415" s="2">
-        <v>45163.417361111111</v>
+        <v>45163.416666666664</v>
       </c>
       <c r="E415">
         <v>435.53</v>
@@ -12475,7 +12475,7 @@
         <v>45163.459027777782</v>
       </c>
       <c r="D416" s="2">
-        <v>45163.459027777782</v>
+        <v>45163.458333333336</v>
       </c>
       <c r="E416">
         <v>437.34</v>
@@ -12504,7 +12504,7 @@
         <v>45163.500694444447</v>
       </c>
       <c r="D417" s="2">
-        <v>45163.500694444447</v>
+        <v>45163.5</v>
       </c>
       <c r="E417">
         <v>438.73</v>
@@ -12533,7 +12533,7 @@
         <v>45169.500694444447</v>
       </c>
       <c r="D418" s="2">
-        <v>45169.500694444447</v>
+        <v>45169.5</v>
       </c>
       <c r="E418">
         <v>450.84</v>
@@ -12562,7 +12562,7 @@
         <v>45170.459027777782</v>
       </c>
       <c r="D419" s="2">
-        <v>45170.459027777782</v>
+        <v>45170.458333333336</v>
       </c>
       <c r="E419">
         <v>449.94</v>
@@ -12591,7 +12591,7 @@
         <v>45170.500694444447</v>
       </c>
       <c r="D420" s="2">
-        <v>45170.500694444447</v>
+        <v>45170.5</v>
       </c>
       <c r="E420">
         <v>450.85</v>
@@ -12620,7 +12620,7 @@
         <v>45170.542361111111</v>
       </c>
       <c r="D421" s="2">
-        <v>45170.542361111111</v>
+        <v>45170.541666666664</v>
       </c>
       <c r="E421">
         <v>450.64</v>
@@ -12649,7 +12649,7 @@
         <v>45170.584027777782</v>
       </c>
       <c r="D422" s="2">
-        <v>45170.584027777782</v>
+        <v>45170.583333333336</v>
       </c>
       <c r="E422">
         <v>450.57</v>
@@ -12678,7 +12678,7 @@
         <v>45174.375694444447</v>
       </c>
       <c r="D423" s="2">
-        <v>45174.375694444447</v>
+        <v>45174.375</v>
       </c>
       <c r="E423">
         <v>449.54</v>
@@ -12707,7 +12707,7 @@
         <v>45174.417361111111</v>
       </c>
       <c r="D424" s="2">
-        <v>45174.417361111111</v>
+        <v>45174.416666666664</v>
       </c>
       <c r="E424">
         <v>450.33</v>
@@ -12736,7 +12736,7 @@
         <v>45177.584027777782</v>
       </c>
       <c r="D425" s="2">
-        <v>45177.584027777782</v>
+        <v>45177.583333333336</v>
       </c>
       <c r="E425">
         <v>444.83</v>
@@ -12764,8 +12764,8 @@
       <c r="C426" s="2">
         <v>45182.354861111111</v>
       </c>
-      <c r="D426" s="2">
-        <v>45182.354861111111</v>
+      <c r="D426" s="3">
+        <v>45182.333333333336</v>
       </c>
       <c r="E426">
         <v>446.56</v>
@@ -12794,7 +12794,7 @@
         <v>45182.375694444447</v>
       </c>
       <c r="D427" s="2">
-        <v>45182.375694444447</v>
+        <v>45182.375</v>
       </c>
       <c r="E427">
         <v>446.7</v>
@@ -12823,7 +12823,7 @@
         <v>45182.417361111111</v>
       </c>
       <c r="D428" s="2">
-        <v>45182.417361111111</v>
+        <v>45182.416666666664</v>
       </c>
       <c r="E428">
         <v>447.11</v>
@@ -12852,7 +12852,7 @@
         <v>45182.459027777782</v>
       </c>
       <c r="D429" s="2">
-        <v>45182.459027777782</v>
+        <v>45182.458333333336</v>
       </c>
       <c r="E429">
         <v>447.16</v>
@@ -12881,7 +12881,7 @@
         <v>45182.500694444447</v>
       </c>
       <c r="D430" s="2">
-        <v>45182.500694444447</v>
+        <v>45182.5</v>
       </c>
       <c r="E430">
         <v>447.33</v>
@@ -12910,7 +12910,7 @@
         <v>45182.584027777782</v>
       </c>
       <c r="D431" s="2">
-        <v>45182.584027777782</v>
+        <v>45182.583333333336</v>
       </c>
       <c r="E431">
         <v>446.14</v>
@@ -12939,7 +12939,7 @@
         <v>45187.375694444447</v>
       </c>
       <c r="D432" s="2">
-        <v>45187.375694444447</v>
+        <v>45187.375</v>
       </c>
       <c r="E432">
         <v>443.1</v>
@@ -12968,7 +12968,7 @@
         <v>45187.417361111111</v>
       </c>
       <c r="D433" s="2">
-        <v>45187.417361111111</v>
+        <v>45187.416666666664</v>
       </c>
       <c r="E433">
         <v>443.63</v>
@@ -12997,7 +12997,7 @@
         <v>45187.459027777782</v>
       </c>
       <c r="D434" s="2">
-        <v>45187.459027777782</v>
+        <v>45187.458333333336</v>
       </c>
       <c r="E434">
         <v>444.64</v>
@@ -13026,7 +13026,7 @@
         <v>45187.500694444447</v>
       </c>
       <c r="D435" s="2">
-        <v>45187.500694444447</v>
+        <v>45187.5</v>
       </c>
       <c r="E435">
         <v>444.64</v>
@@ -13055,7 +13055,7 @@
         <v>45187.584027777782</v>
       </c>
       <c r="D436" s="2">
-        <v>45187.584027777782</v>
+        <v>45187.583333333336</v>
       </c>
       <c r="E436">
         <v>443.42</v>
@@ -13084,7 +13084,7 @@
         <v>45188.500694444447</v>
       </c>
       <c r="D437" s="2">
-        <v>45188.500694444447</v>
+        <v>45188.5</v>
       </c>
       <c r="E437">
         <v>440.53</v>
@@ -13113,7 +13113,7 @@
         <v>45190.542361111111</v>
       </c>
       <c r="D438" s="2">
-        <v>45190.542361111111</v>
+        <v>45190.541666666664</v>
       </c>
       <c r="E438">
         <v>434.3</v>
@@ -13142,7 +13142,7 @@
         <v>45191.375694444447</v>
       </c>
       <c r="D439" s="2">
-        <v>45191.375694444447</v>
+        <v>45191.375</v>
       </c>
       <c r="E439">
         <v>432.21</v>
@@ -13171,7 +13171,7 @@
         <v>45191.417361111111</v>
       </c>
       <c r="D440" s="2">
-        <v>45191.417361111111</v>
+        <v>45191.416666666664</v>
       </c>
       <c r="E440">
         <v>433.46</v>
@@ -13200,7 +13200,7 @@
         <v>45191.459027777782</v>
       </c>
       <c r="D441" s="2">
-        <v>45191.459027777782</v>
+        <v>45191.458333333336</v>
       </c>
       <c r="E441">
         <v>432.8</v>
@@ -13228,8 +13228,8 @@
       <c r="C442" s="2">
         <v>45194.354861111111</v>
       </c>
-      <c r="D442" s="2">
-        <v>45194.354861111111</v>
+      <c r="D442" s="3">
+        <v>45194.333333333336</v>
       </c>
       <c r="E442">
         <v>429.3</v>
@@ -13258,7 +13258,7 @@
         <v>45194.375694444447</v>
       </c>
       <c r="D443" s="2">
-        <v>45194.375694444447</v>
+        <v>45194.375</v>
       </c>
       <c r="E443">
         <v>430.62</v>
@@ -13287,7 +13287,7 @@
         <v>45198.542361111111</v>
       </c>
       <c r="D444" s="2">
-        <v>45198.542361111111</v>
+        <v>45198.541666666664</v>
       </c>
       <c r="E444">
         <v>426.21</v>
@@ -13316,7 +13316,7 @@
         <v>45198.584027777782</v>
       </c>
       <c r="D445" s="2">
-        <v>45198.584027777782</v>
+        <v>45198.583333333336</v>
       </c>
       <c r="E445">
         <v>428.3</v>
@@ -13345,7 +13345,7 @@
         <v>45201.584027777782</v>
       </c>
       <c r="D446" s="2">
-        <v>45201.584027777782</v>
+        <v>45201.583333333336</v>
       </c>
       <c r="E446">
         <v>425.13</v>
@@ -13373,8 +13373,8 @@
       <c r="C447" s="2">
         <v>45202.354861111111</v>
       </c>
-      <c r="D447" s="2">
-        <v>45202.354861111111</v>
+      <c r="D447" s="3">
+        <v>45202.333333333336</v>
       </c>
       <c r="E447">
         <v>425.3</v>
@@ -13403,7 +13403,7 @@
         <v>45202.542361111111</v>
       </c>
       <c r="D448" s="2">
-        <v>45202.542361111111</v>
+        <v>45202.541666666664</v>
       </c>
       <c r="E448">
         <v>421.01</v>
@@ -13432,7 +13432,7 @@
         <v>45202.584027777782</v>
       </c>
       <c r="D449" s="2">
-        <v>45202.584027777782</v>
+        <v>45202.583333333336</v>
       </c>
       <c r="E449">
         <v>420.99</v>
@@ -13461,7 +13461,7 @@
         <v>45204.417361111111</v>
       </c>
       <c r="D450" s="2">
-        <v>45204.417361111111</v>
+        <v>45204.416666666664</v>
       </c>
       <c r="E450">
         <v>421.66</v>
@@ -13490,7 +13490,7 @@
         <v>45204.459027777782</v>
       </c>
       <c r="D451" s="2">
-        <v>45204.459027777782</v>
+        <v>45204.458333333336</v>
       </c>
       <c r="E451">
         <v>422.12</v>
@@ -13519,7 +13519,7 @@
         <v>45204.500694444447</v>
       </c>
       <c r="D452" s="2">
-        <v>45204.500694444447</v>
+        <v>45204.5</v>
       </c>
       <c r="E452">
         <v>422.65</v>
@@ -13548,7 +13548,7 @@
         <v>45205.375694444447</v>
       </c>
       <c r="D453" s="2">
-        <v>45205.375694444447</v>
+        <v>45205.375</v>
       </c>
       <c r="E453">
         <v>421.74</v>
@@ -13577,7 +13577,7 @@
         <v>45210.542361111111</v>
       </c>
       <c r="D454" s="2">
-        <v>45210.542361111111</v>
+        <v>45210.541666666664</v>
       </c>
       <c r="E454">
         <v>434.2</v>
@@ -13606,7 +13606,7 @@
         <v>45211.542361111111</v>
       </c>
       <c r="D455" s="2">
-        <v>45211.542361111111</v>
+        <v>45211.541666666664</v>
       </c>
       <c r="E455">
         <v>432.5</v>
@@ -13635,7 +13635,7 @@
         <v>45211.584027777782</v>
       </c>
       <c r="D456" s="2">
-        <v>45211.584027777782</v>
+        <v>45211.583333333336</v>
       </c>
       <c r="E456">
         <v>433.26</v>
@@ -13663,8 +13663,8 @@
       <c r="C457" s="2">
         <v>45212.354861111111</v>
       </c>
-      <c r="D457" s="2">
-        <v>45212.354861111111</v>
+      <c r="D457" s="3">
+        <v>45212.333333333336</v>
       </c>
       <c r="E457">
         <v>435.71</v>
@@ -13693,7 +13693,7 @@
         <v>45212.375694444447</v>
       </c>
       <c r="D458" s="2">
-        <v>45212.375694444447</v>
+        <v>45212.375</v>
       </c>
       <c r="E458">
         <v>435.12</v>
@@ -13722,7 +13722,7 @@
         <v>45212.584027777782</v>
       </c>
       <c r="D459" s="2">
-        <v>45212.584027777782</v>
+        <v>45212.583333333336</v>
       </c>
       <c r="E459">
         <v>431.38</v>
@@ -13751,7 +13751,7 @@
         <v>45217.500694444447</v>
       </c>
       <c r="D460" s="2">
-        <v>45217.500694444447</v>
+        <v>45217.5</v>
       </c>
       <c r="E460">
         <v>431.31</v>
@@ -13779,8 +13779,8 @@
       <c r="C461" s="2">
         <v>45218.354861111111</v>
       </c>
-      <c r="D461" s="2">
-        <v>45218.354861111111</v>
+      <c r="D461" s="3">
+        <v>45218.333333333336</v>
       </c>
       <c r="E461">
         <v>431.18</v>
@@ -13809,7 +13809,7 @@
         <v>45219.417361111111</v>
       </c>
       <c r="D462" s="2">
-        <v>45219.417361111111</v>
+        <v>45219.416666666664</v>
       </c>
       <c r="E462">
         <v>422.7</v>
@@ -13838,7 +13838,7 @@
         <v>45219.459027777782</v>
       </c>
       <c r="D463" s="2">
-        <v>45219.459027777782</v>
+        <v>45219.458333333336</v>
       </c>
       <c r="E463">
         <v>423.42</v>
@@ -13867,7 +13867,7 @@
         <v>45219.500694444447</v>
       </c>
       <c r="D464" s="2">
-        <v>45219.500694444447</v>
+        <v>45219.5</v>
       </c>
       <c r="E464">
         <v>424.16</v>
@@ -13896,7 +13896,7 @@
         <v>45219.542361111111</v>
       </c>
       <c r="D465" s="2">
-        <v>45219.542361111111</v>
+        <v>45219.541666666664</v>
       </c>
       <c r="E465">
         <v>424.16</v>
@@ -13925,7 +13925,7 @@
         <v>45224.584027777782</v>
       </c>
       <c r="D466" s="2">
-        <v>45224.584027777782</v>
+        <v>45224.583333333336</v>
       </c>
       <c r="E466">
         <v>417.52</v>
@@ -13954,7 +13954,7 @@
         <v>45225.500694444447</v>
       </c>
       <c r="D467" s="2">
-        <v>45225.500694444447</v>
+        <v>45225.5</v>
       </c>
       <c r="E467">
         <v>412.11</v>
@@ -13983,7 +13983,7 @@
         <v>45225.542361111111</v>
       </c>
       <c r="D468" s="2">
-        <v>45225.542361111111</v>
+        <v>45225.541666666664</v>
       </c>
       <c r="E468">
         <v>413.57</v>
@@ -14011,8 +14011,8 @@
       <c r="C469" s="2">
         <v>45226.354861111111</v>
       </c>
-      <c r="D469" s="2">
-        <v>45226.354861111111</v>
+      <c r="D469" s="3">
+        <v>45226.333333333336</v>
       </c>
       <c r="E469">
         <v>414.18</v>
@@ -14041,7 +14041,7 @@
         <v>45226.375694444447</v>
       </c>
       <c r="D470" s="2">
-        <v>45226.375694444447</v>
+        <v>45226.375</v>
       </c>
       <c r="E470">
         <v>412.79</v>
@@ -14070,7 +14070,7 @@
         <v>45226.417361111111</v>
       </c>
       <c r="D471" s="2">
-        <v>45226.417361111111</v>
+        <v>45226.416666666664</v>
       </c>
       <c r="E471">
         <v>413.31</v>
@@ -14099,7 +14099,7 @@
         <v>45231.542361111111</v>
       </c>
       <c r="D472" s="2">
-        <v>45231.542361111111</v>
+        <v>45231.541666666664</v>
       </c>
       <c r="E472">
         <v>420.72</v>
@@ -14128,7 +14128,7 @@
         <v>45236.584027777782</v>
       </c>
       <c r="D473" s="2">
-        <v>45236.584027777782</v>
+        <v>45236.583333333336</v>
       </c>
       <c r="E473">
         <v>434.4</v>
@@ -14157,7 +14157,7 @@
         <v>45236.625694444447</v>
       </c>
       <c r="D474" s="2">
-        <v>45236.625694444447</v>
+        <v>45236.625</v>
       </c>
       <c r="E474">
         <v>435.13</v>
@@ -14185,8 +14185,8 @@
       <c r="C475" s="2">
         <v>45237.396527777782</v>
       </c>
-      <c r="D475" s="2">
-        <v>45237.396527777782</v>
+      <c r="D475" s="3">
+        <v>45237.375</v>
       </c>
       <c r="E475">
         <v>435.53</v>
@@ -14215,7 +14215,7 @@
         <v>45238.542361111111</v>
       </c>
       <c r="D476" s="2">
-        <v>45238.542361111111</v>
+        <v>45238.541666666664</v>
       </c>
       <c r="E476">
         <v>435.85</v>
@@ -14244,7 +14244,7 @@
         <v>45238.584027777782</v>
       </c>
       <c r="D477" s="2">
-        <v>45238.584027777782</v>
+        <v>45238.583333333336</v>
       </c>
       <c r="E477">
         <v>436.48</v>
@@ -14273,7 +14273,7 @@
         <v>45238.625694444447</v>
       </c>
       <c r="D478" s="2">
-        <v>45238.625694444447</v>
+        <v>45238.625</v>
       </c>
       <c r="E478">
         <v>436.62</v>
@@ -14301,8 +14301,8 @@
       <c r="C479" s="2">
         <v>45240.396527777782</v>
       </c>
-      <c r="D479" s="2">
-        <v>45240.396527777782</v>
+      <c r="D479" s="3">
+        <v>45240.375</v>
       </c>
       <c r="E479">
         <v>435.59</v>
@@ -14331,7 +14331,7 @@
         <v>45240.417361111111</v>
       </c>
       <c r="D480" s="2">
-        <v>45240.417361111111</v>
+        <v>45240.416666666664</v>
       </c>
       <c r="E480">
         <v>435.56</v>
@@ -14360,7 +14360,7 @@
         <v>45240.459027777782</v>
       </c>
       <c r="D481" s="2">
-        <v>45240.459027777782</v>
+        <v>45240.458333333336</v>
       </c>
       <c r="E481">
         <v>435.73</v>
@@ -14389,7 +14389,7 @@
         <v>45245.542361111111</v>
       </c>
       <c r="D482" s="2">
-        <v>45245.542361111111</v>
+        <v>45245.541666666664</v>
       </c>
       <c r="E482">
         <v>449.72</v>
@@ -14418,7 +14418,7 @@
         <v>45245.584027777782</v>
       </c>
       <c r="D483" s="2">
-        <v>45245.584027777782</v>
+        <v>45245.583333333336</v>
       </c>
       <c r="E483">
         <v>450.26</v>
@@ -14447,7 +14447,7 @@
         <v>45245.625694444447</v>
       </c>
       <c r="D484" s="2">
-        <v>45245.625694444447</v>
+        <v>45245.625</v>
       </c>
       <c r="E484">
         <v>450.21</v>
@@ -14475,8 +14475,8 @@
       <c r="C485" s="2">
         <v>45246.396527777782</v>
       </c>
-      <c r="D485" s="2">
-        <v>45246.396527777782</v>
+      <c r="D485" s="3">
+        <v>45246.375</v>
       </c>
       <c r="E485">
         <v>449.48</v>
@@ -14505,7 +14505,7 @@
         <v>45246.417361111111</v>
       </c>
       <c r="D486" s="2">
-        <v>45246.417361111111</v>
+        <v>45246.416666666664</v>
       </c>
       <c r="E486">
         <v>450.5</v>
@@ -14534,7 +14534,7 @@
         <v>45246.500694444447</v>
       </c>
       <c r="D487" s="2">
-        <v>45246.500694444447</v>
+        <v>45246.5</v>
       </c>
       <c r="E487">
         <v>448.67</v>
@@ -14563,7 +14563,7 @@
         <v>45251.459027777782</v>
       </c>
       <c r="D488" s="2">
-        <v>45251.459027777782</v>
+        <v>45251.458333333336</v>
       </c>
       <c r="E488">
         <v>452.69</v>
@@ -14592,7 +14592,7 @@
         <v>45251.500694444447</v>
       </c>
       <c r="D489" s="2">
-        <v>45251.500694444447</v>
+        <v>45251.5</v>
       </c>
       <c r="E489">
         <v>452.91</v>
@@ -14621,7 +14621,7 @@
         <v>45251.542361111111</v>
       </c>
       <c r="D490" s="2">
-        <v>45251.542361111111</v>
+        <v>45251.541666666664</v>
       </c>
       <c r="E490">
         <v>453.39</v>
@@ -14650,7 +14650,7 @@
         <v>45251.584027777782</v>
       </c>
       <c r="D491" s="2">
-        <v>45251.584027777782</v>
+        <v>45251.583333333336</v>
       </c>
       <c r="E491">
         <v>453.15</v>
@@ -14679,7 +14679,7 @@
         <v>45251.625694444447</v>
       </c>
       <c r="D492" s="2">
-        <v>45251.625694444447</v>
+        <v>45251.625</v>
       </c>
       <c r="E492">
         <v>453.36</v>
@@ -14707,8 +14707,8 @@
       <c r="C493" s="2">
         <v>45260.396527777782</v>
       </c>
-      <c r="D493" s="2">
-        <v>45260.396527777782</v>
+      <c r="D493" s="3">
+        <v>45260.375</v>
       </c>
       <c r="E493">
         <v>455.33</v>
@@ -14737,7 +14737,7 @@
         <v>45260.500694444447</v>
       </c>
       <c r="D494" s="2">
-        <v>45260.500694444447</v>
+        <v>45260.5</v>
       </c>
       <c r="E494">
         <v>453.78</v>
@@ -14766,7 +14766,7 @@
         <v>45260.542361111111</v>
       </c>
       <c r="D495" s="2">
-        <v>45260.542361111111</v>
+        <v>45260.541666666664</v>
       </c>
       <c r="E495">
         <v>454</v>
@@ -14795,7 +14795,7 @@
         <v>45260.584027777782</v>
       </c>
       <c r="D496" s="2">
-        <v>45260.584027777782</v>
+        <v>45260.583333333336</v>
       </c>
       <c r="E496">
         <v>453.96</v>
@@ -14824,7 +14824,7 @@
         <v>45264.417361111111</v>
       </c>
       <c r="D497" s="2">
-        <v>45264.417361111111</v>
+        <v>45264.416666666664</v>
       </c>
       <c r="E497">
         <v>456.12</v>
@@ -14853,7 +14853,7 @@
         <v>45264.459027777782</v>
       </c>
       <c r="D498" s="2">
-        <v>45264.459027777782</v>
+        <v>45264.458333333336</v>
       </c>
       <c r="E498">
         <v>454.46</v>
@@ -14882,7 +14882,7 @@
         <v>45264.500694444447</v>
       </c>
       <c r="D499" s="2">
-        <v>45264.500694444447</v>
+        <v>45264.5</v>
       </c>
       <c r="E499">
         <v>455.85</v>
@@ -14911,7 +14911,7 @@
         <v>45264.542361111111</v>
       </c>
       <c r="D500" s="2">
-        <v>45264.542361111111</v>
+        <v>45264.541666666664</v>
       </c>
       <c r="E500">
         <v>456.55</v>
@@ -14940,7 +14940,7 @@
         <v>45264.584027777782</v>
       </c>
       <c r="D501" s="2">
-        <v>45264.584027777782</v>
+        <v>45264.583333333336</v>
       </c>
       <c r="E501">
         <v>455.99</v>
@@ -14969,7 +14969,7 @@
         <v>45264.625694444447</v>
       </c>
       <c r="D502" s="2">
-        <v>45264.625694444447</v>
+        <v>45264.625</v>
       </c>
       <c r="E502">
         <v>456.07</v>
@@ -14997,8 +14997,8 @@
       <c r="C503" s="2">
         <v>45267.396527777782</v>
       </c>
-      <c r="D503" s="2">
-        <v>45267.396527777782</v>
+      <c r="D503" s="3">
+        <v>45267.375</v>
       </c>
       <c r="E503">
         <v>456.96</v>
@@ -15027,7 +15027,7 @@
         <v>45267.417361111111</v>
       </c>
       <c r="D504" s="2">
-        <v>45267.417361111111</v>
+        <v>45267.416666666664</v>
       </c>
       <c r="E504">
         <v>456.63</v>
@@ -15056,7 +15056,7 @@
         <v>45267.459027777782</v>
       </c>
       <c r="D505" s="2">
-        <v>45267.459027777782</v>
+        <v>45267.458333333336</v>
       </c>
       <c r="E505">
         <v>457.96</v>
@@ -15085,7 +15085,7 @@
         <v>45267.500694444447</v>
       </c>
       <c r="D506" s="2">
-        <v>45267.500694444447</v>
+        <v>45267.5</v>
       </c>
       <c r="E506">
         <v>458.14</v>
@@ -15114,7 +15114,7 @@
         <v>45275.625694444447</v>
       </c>
       <c r="D507" s="2">
-        <v>45275.625694444447</v>
+        <v>45275.625</v>
       </c>
       <c r="E507">
         <v>469.14</v>
@@ -15142,8 +15142,8 @@
       <c r="C508" s="2">
         <v>45278.396527777782</v>
       </c>
-      <c r="D508" s="2">
-        <v>45278.396527777782</v>
+      <c r="D508" s="3">
+        <v>45278.375</v>
       </c>
       <c r="E508">
         <v>471.05</v>
@@ -15172,7 +15172,7 @@
         <v>45278.417361111111</v>
       </c>
       <c r="D509" s="2">
-        <v>45278.417361111111</v>
+        <v>45278.416666666664</v>
       </c>
       <c r="E509">
         <v>471.55</v>
@@ -15201,7 +15201,7 @@
         <v>45278.459027777782</v>
       </c>
       <c r="D510" s="2">
-        <v>45278.459027777782</v>
+        <v>45278.458333333336</v>
       </c>
       <c r="E510">
         <v>471.18</v>
@@ -15230,7 +15230,7 @@
         <v>45278.500694444447</v>
       </c>
       <c r="D511" s="2">
-        <v>45278.500694444447</v>
+        <v>45278.5</v>
       </c>
       <c r="E511">
         <v>472.08</v>
@@ -15259,7 +15259,7 @@
         <v>45278.542361111111</v>
       </c>
       <c r="D512" s="2">
-        <v>45278.542361111111</v>
+        <v>45278.541666666664</v>
       </c>
       <c r="E512">
         <v>472.45</v>
@@ -15287,8 +15287,8 @@
       <c r="C513" s="2">
         <v>45281.396527777782</v>
       </c>
-      <c r="D513" s="2">
-        <v>45281.396527777782</v>
+      <c r="D513" s="3">
+        <v>45281.375</v>
       </c>
       <c r="E513">
         <v>471.82</v>
@@ -15317,7 +15317,7 @@
         <v>45281.417361111111</v>
       </c>
       <c r="D514" s="2">
-        <v>45281.417361111111</v>
+        <v>45281.416666666664</v>
       </c>
       <c r="E514">
         <v>471.37</v>
@@ -15346,7 +15346,7 @@
         <v>45281.459027777782</v>
       </c>
       <c r="D515" s="2">
-        <v>45281.459027777782</v>
+        <v>45281.458333333336</v>
       </c>
       <c r="E515">
         <v>471.21</v>
@@ -15375,7 +15375,7 @@
         <v>45281.500694444447</v>
       </c>
       <c r="D516" s="2">
-        <v>45281.500694444447</v>
+        <v>45281.5</v>
       </c>
       <c r="E516">
         <v>470.06</v>
@@ -15404,7 +15404,7 @@
         <v>45281.542361111111</v>
       </c>
       <c r="D517" s="2">
-        <v>45281.542361111111</v>
+        <v>45281.541666666664</v>
       </c>
       <c r="E517">
         <v>469.64</v>
@@ -15433,7 +15433,7 @@
         <v>45281.625694444447</v>
       </c>
       <c r="D518" s="2">
-        <v>45281.625694444447</v>
+        <v>45281.625</v>
       </c>
       <c r="E518">
         <v>470.49</v>
@@ -15461,8 +15461,8 @@
       <c r="C519" s="2">
         <v>45289.396527777782</v>
       </c>
-      <c r="D519" s="2">
-        <v>45289.396527777782</v>
+      <c r="D519" s="3">
+        <v>45289.375</v>
       </c>
       <c r="E519">
         <v>476.72</v>
@@ -15491,7 +15491,7 @@
         <v>45289.542361111111</v>
       </c>
       <c r="D520" s="2">
-        <v>45289.542361111111</v>
+        <v>45289.541666666664</v>
       </c>
       <c r="E520">
         <v>474.38</v>
@@ -15520,7 +15520,7 @@
         <v>45289.584027777782</v>
       </c>
       <c r="D521" s="2">
-        <v>45289.584027777782</v>
+        <v>45289.583333333336</v>
       </c>
       <c r="E521">
         <v>475.13</v>
@@ -15549,7 +15549,7 @@
         <v>45289.625694444447</v>
       </c>
       <c r="D522" s="2">
-        <v>45289.625694444447</v>
+        <v>45289.625</v>
       </c>
       <c r="E522">
         <v>475.56</v>
@@ -15578,7 +15578,7 @@
         <v>45293.459027777782</v>
       </c>
       <c r="D523" s="2">
-        <v>45293.459027777782</v>
+        <v>45293.458333333336</v>
       </c>
       <c r="E523">
         <v>471.85</v>
@@ -15607,7 +15607,7 @@
         <v>45293.625694444447</v>
       </c>
       <c r="D524" s="2">
-        <v>45293.625694444447</v>
+        <v>45293.625</v>
       </c>
       <c r="E524">
         <v>470.89</v>
@@ -15636,7 +15636,7 @@
         <v>45295.417361111111</v>
       </c>
       <c r="D525" s="2">
-        <v>45295.417361111111</v>
+        <v>45295.416666666664</v>
       </c>
       <c r="E525">
         <v>469.17</v>
@@ -15664,8 +15664,8 @@
       <c r="C526" s="2">
         <v>45296.396527777782</v>
       </c>
-      <c r="D526" s="2">
-        <v>45296.396527777782</v>
+      <c r="D526" s="3">
+        <v>45296.375</v>
       </c>
       <c r="E526">
         <v>467.42</v>
@@ -15694,7 +15694,7 @@
         <v>45296.417361111111</v>
       </c>
       <c r="D527" s="2">
-        <v>45296.417361111111</v>
+        <v>45296.416666666664</v>
       </c>
       <c r="E527">
         <v>468.79</v>
@@ -15723,7 +15723,7 @@
         <v>45296.459027777782</v>
       </c>
       <c r="D528" s="2">
-        <v>45296.459027777782</v>
+        <v>45296.458333333336</v>
       </c>
       <c r="E528">
         <v>470.16</v>
@@ -15752,7 +15752,7 @@
         <v>45296.542361111111</v>
       </c>
       <c r="D529" s="2">
-        <v>45296.542361111111</v>
+        <v>45296.541666666664</v>
       </c>
       <c r="E529">
         <v>467.46</v>
@@ -15781,7 +15781,7 @@
         <v>45296.584027777782</v>
       </c>
       <c r="D530" s="2">
-        <v>45296.584027777782</v>
+        <v>45296.583333333336</v>
       </c>
       <c r="E530">
         <v>468.53</v>
@@ -15810,7 +15810,7 @@
         <v>45296.625694444447</v>
       </c>
       <c r="D531" s="2">
-        <v>45296.625694444447</v>
+        <v>45296.625</v>
       </c>
       <c r="E531">
         <v>466.85</v>
@@ -15839,7 +15839,7 @@
         <v>45302.500694444447</v>
       </c>
       <c r="D532" s="2">
-        <v>45302.500694444447</v>
+        <v>45302.5</v>
       </c>
       <c r="E532">
         <v>472.58</v>
@@ -15868,7 +15868,7 @@
         <v>45302.542361111111</v>
       </c>
       <c r="D533" s="2">
-        <v>45302.542361111111</v>
+        <v>45302.541666666664</v>
       </c>
       <c r="E533">
         <v>473.99</v>
@@ -15897,7 +15897,7 @@
         <v>45302.584027777782</v>
       </c>
       <c r="D534" s="2">
-        <v>45302.584027777782</v>
+        <v>45302.583333333336</v>
       </c>
       <c r="E534">
         <v>475.92</v>
@@ -15926,7 +15926,7 @@
         <v>45302.625694444447</v>
       </c>
       <c r="D535" s="2">
-        <v>45302.625694444447</v>
+        <v>45302.625</v>
       </c>
       <c r="E535">
         <v>476.65</v>
@@ -15955,7 +15955,7 @@
         <v>45307.584027777782</v>
       </c>
       <c r="D536" s="2">
-        <v>45307.584027777782</v>
+        <v>45307.583333333336</v>
       </c>
       <c r="E536">
         <v>474.13</v>
@@ -15984,7 +15984,7 @@
         <v>45307.625694444447</v>
       </c>
       <c r="D537" s="2">
-        <v>45307.625694444447</v>
+        <v>45307.625</v>
       </c>
       <c r="E537">
         <v>474.41</v>
@@ -16013,7 +16013,7 @@
         <v>45308.625694444447</v>
       </c>
       <c r="D538" s="2">
-        <v>45308.625694444447</v>
+        <v>45308.625</v>
       </c>
       <c r="E538">
         <v>471.37</v>
@@ -16041,8 +16041,8 @@
       <c r="C539" s="2">
         <v>45309.396527777782</v>
       </c>
-      <c r="D539" s="2">
-        <v>45309.396527777782</v>
+      <c r="D539" s="3">
+        <v>45309.375</v>
       </c>
       <c r="E539">
         <v>474.06</v>
@@ -16071,7 +16071,7 @@
         <v>45309.417361111111</v>
       </c>
       <c r="D540" s="2">
-        <v>45309.417361111111</v>
+        <v>45309.416666666664</v>
       </c>
       <c r="E540">
         <v>473.96</v>
@@ -16100,7 +16100,7 @@
         <v>45309.459027777782</v>
       </c>
       <c r="D541" s="2">
-        <v>45309.459027777782</v>
+        <v>45309.458333333336</v>
       </c>
       <c r="E541">
         <v>473.85</v>
@@ -16129,7 +16129,7 @@
         <v>45314.500694444447</v>
       </c>
       <c r="D542" s="2">
-        <v>45314.500694444447</v>
+        <v>45314.5</v>
       </c>
       <c r="E542">
         <v>483.51</v>
@@ -16158,7 +16158,7 @@
         <v>45314.542361111111</v>
       </c>
       <c r="D543" s="2">
-        <v>45314.542361111111</v>
+        <v>45314.541666666664</v>
       </c>
       <c r="E543">
         <v>483.83</v>
@@ -16187,7 +16187,7 @@
         <v>45314.584027777782</v>
       </c>
       <c r="D544" s="2">
-        <v>45314.584027777782</v>
+        <v>45314.583333333336</v>
       </c>
       <c r="E544">
         <v>484.03</v>
@@ -16216,7 +16216,7 @@
         <v>45316.584027777782</v>
       </c>
       <c r="D545" s="2">
-        <v>45316.584027777782</v>
+        <v>45316.583333333336</v>
       </c>
       <c r="E545">
         <v>485.81</v>
@@ -16245,7 +16245,7 @@
         <v>45316.625694444447</v>
       </c>
       <c r="D546" s="2">
-        <v>45316.625694444447</v>
+        <v>45316.625</v>
       </c>
       <c r="E546">
         <v>486.58</v>
@@ -16273,8 +16273,8 @@
       <c r="C547" s="2">
         <v>45317.396527777782</v>
       </c>
-      <c r="D547" s="2">
-        <v>45317.396527777782</v>
+      <c r="D547" s="3">
+        <v>45317.375</v>
       </c>
       <c r="E547">
         <v>487.74</v>
@@ -16303,7 +16303,7 @@
         <v>45322.542361111111</v>
       </c>
       <c r="D548" s="2">
-        <v>45322.542361111111</v>
+        <v>45322.541666666664</v>
       </c>
       <c r="E548">
         <v>487.35</v>
@@ -16331,8 +16331,8 @@
       <c r="C549" s="2">
         <v>45323.396527777782</v>
       </c>
-      <c r="D549" s="2">
-        <v>45323.396527777782</v>
+      <c r="D549" s="3">
+        <v>45323.375</v>
       </c>
       <c r="E549">
         <v>485.3</v>
@@ -16361,7 +16361,7 @@
         <v>45323.459027777782</v>
       </c>
       <c r="D550" s="2">
-        <v>45323.459027777782</v>
+        <v>45323.458333333336</v>
       </c>
       <c r="E550">
         <v>484.2</v>
@@ -16390,7 +16390,7 @@
         <v>45327.459027777782</v>
       </c>
       <c r="D551" s="2">
-        <v>45327.459027777782</v>
+        <v>45327.458333333336</v>
       </c>
       <c r="E551">
         <v>490.82</v>
@@ -16419,7 +16419,7 @@
         <v>45327.500694444447</v>
       </c>
       <c r="D552" s="2">
-        <v>45327.500694444447</v>
+        <v>45327.5</v>
       </c>
       <c r="E552">
         <v>492.06</v>
@@ -16448,7 +16448,7 @@
         <v>45327.542361111111</v>
       </c>
       <c r="D553" s="2">
-        <v>45327.542361111111</v>
+        <v>45327.541666666664</v>
       </c>
       <c r="E553">
         <v>493</v>
@@ -16477,7 +16477,7 @@
         <v>45327.584027777782</v>
       </c>
       <c r="D554" s="2">
-        <v>45327.584027777782</v>
+        <v>45327.583333333336</v>
       </c>
       <c r="E554">
         <v>493</v>
@@ -16506,7 +16506,7 @@
         <v>45327.625694444447</v>
       </c>
       <c r="D555" s="2">
-        <v>45327.625694444447</v>
+        <v>45327.625</v>
       </c>
       <c r="E555">
         <v>493.99</v>
@@ -16534,8 +16534,8 @@
       <c r="C556" s="2">
         <v>45328.396527777782</v>
       </c>
-      <c r="D556" s="2">
-        <v>45328.396527777782</v>
+      <c r="D556" s="3">
+        <v>45328.375</v>
       </c>
       <c r="E556">
         <v>493.92</v>
@@ -16564,7 +16564,7 @@
         <v>45334.625694444447</v>
       </c>
       <c r="D557" s="2">
-        <v>45334.625694444447</v>
+        <v>45334.625</v>
       </c>
       <c r="E557">
         <v>500.61</v>
@@ -16593,7 +16593,7 @@
         <v>45335.625694444447</v>
       </c>
       <c r="D558" s="2">
-        <v>45335.625694444447</v>
+        <v>45335.625</v>
       </c>
       <c r="E558">
         <v>491.49</v>
@@ -16622,7 +16622,7 @@
         <v>45336.396527777782</v>
       </c>
       <c r="D559" s="2">
-        <v>45336.396527777782</v>
+        <v>45336.375</v>
       </c>
       <c r="E559">
         <v>496.95</v>
@@ -16651,7 +16651,7 @@
         <v>45336.417361111111</v>
       </c>
       <c r="D560" s="2">
-        <v>45336.417361111111</v>
+        <v>45336.416666666664</v>
       </c>
       <c r="E560">
         <v>496.9</v>
@@ -16680,7 +16680,7 @@
         <v>45336.459027777782</v>
       </c>
       <c r="D561" s="2">
-        <v>45336.459027777782</v>
+        <v>45336.458333333336</v>
       </c>
       <c r="E561">
         <v>495.51</v>
@@ -16709,7 +16709,7 @@
         <v>45336.500694444447</v>
       </c>
       <c r="D562" s="2">
-        <v>45336.500694444447</v>
+        <v>45336.5</v>
       </c>
       <c r="E562">
         <v>494.93</v>
@@ -16738,7 +16738,7 @@
         <v>45342.542361111111</v>
       </c>
       <c r="D563" s="2">
-        <v>45342.542361111111</v>
+        <v>45342.541666666664</v>
       </c>
       <c r="E563">
         <v>495.52</v>
@@ -16767,7 +16767,7 @@
         <v>45342.584027777782</v>
       </c>
       <c r="D564" s="2">
-        <v>45342.584027777782</v>
+        <v>45342.583333333336</v>
       </c>
       <c r="E564">
         <v>495.84</v>
@@ -16796,7 +16796,7 @@
         <v>45342.625694444447</v>
       </c>
       <c r="D565" s="2">
-        <v>45342.625694444447</v>
+        <v>45342.625</v>
       </c>
       <c r="E565">
         <v>496.65</v>
@@ -16824,8 +16824,8 @@
       <c r="C566" s="2">
         <v>45343.396527777782</v>
       </c>
-      <c r="D566" s="2">
-        <v>45343.396527777782</v>
+      <c r="D566" s="3">
+        <v>45343.375</v>
       </c>
       <c r="E566">
         <v>495.56</v>
@@ -16854,7 +16854,7 @@
         <v>45343.417361111111</v>
       </c>
       <c r="D567" s="2">
-        <v>45343.417361111111</v>
+        <v>45343.416666666664</v>
       </c>
       <c r="E567">
         <v>495.33</v>
@@ -16883,7 +16883,7 @@
         <v>45348.459027777782</v>
       </c>
       <c r="D568" s="2">
-        <v>45348.459027777782</v>
+        <v>45348.458333333336</v>
       </c>
       <c r="E568">
         <v>507.52</v>
@@ -16912,7 +16912,7 @@
         <v>45349.542361111111</v>
       </c>
       <c r="D569" s="2">
-        <v>45349.542361111111</v>
+        <v>45349.541666666664</v>
       </c>
       <c r="E569">
         <v>505.02</v>
@@ -16941,7 +16941,7 @@
         <v>45349.584027777782</v>
       </c>
       <c r="D570" s="2">
-        <v>45349.584027777782</v>
+        <v>45349.583333333336</v>
       </c>
       <c r="E570">
         <v>505.88</v>
@@ -16970,7 +16970,7 @@
         <v>45351.500694444447</v>
       </c>
       <c r="D571" s="2">
-        <v>45351.500694444447</v>
+        <v>45351.5</v>
       </c>
       <c r="E571">
         <v>506.61</v>
@@ -16999,7 +16999,7 @@
         <v>45351.542361111111</v>
       </c>
       <c r="D572" s="2">
-        <v>45351.542361111111</v>
+        <v>45351.541666666664</v>
       </c>
       <c r="E572">
         <v>507.38</v>
@@ -17028,7 +17028,7 @@
         <v>45351.584027777782</v>
       </c>
       <c r="D573" s="2">
-        <v>45351.584027777782</v>
+        <v>45351.583333333336</v>
       </c>
       <c r="E573">
         <v>507.77</v>
@@ -17057,7 +17057,7 @@
         <v>45356.625694444447</v>
       </c>
       <c r="D574" s="2">
-        <v>45356.625694444447</v>
+        <v>45356.625</v>
       </c>
       <c r="E574">
         <v>505.76</v>
@@ -17085,8 +17085,8 @@
       <c r="C575" s="2">
         <v>45357.396527777782</v>
       </c>
-      <c r="D575" s="2">
-        <v>45357.396527777782</v>
+      <c r="D575" s="3">
+        <v>45357.375</v>
       </c>
       <c r="E575">
         <v>510.47</v>
@@ -17115,7 +17115,7 @@
         <v>45357.417361111111</v>
       </c>
       <c r="D576" s="2">
-        <v>45357.417361111111</v>
+        <v>45357.416666666664</v>
       </c>
       <c r="E576">
         <v>509.83</v>
@@ -17144,7 +17144,7 @@
         <v>45359.584027777782</v>
       </c>
       <c r="D577" s="2">
-        <v>45359.584027777782</v>
+        <v>45359.583333333336</v>
       </c>
       <c r="E577">
         <v>511.9</v>
@@ -17173,7 +17173,7 @@
         <v>45362.417361111111</v>
       </c>
       <c r="D578" s="2">
-        <v>45362.417361111111</v>
+        <v>45362.416666666664</v>
       </c>
       <c r="E578">
         <v>510.64</v>
@@ -17202,7 +17202,7 @@
         <v>45362.459027777782</v>
       </c>
       <c r="D579" s="2">
-        <v>45362.459027777782</v>
+        <v>45362.458333333336</v>
       </c>
       <c r="E579">
         <v>510.7</v>
@@ -17231,7 +17231,7 @@
         <v>45362.500694444447</v>
       </c>
       <c r="D580" s="2">
-        <v>45362.500694444447</v>
+        <v>45362.5</v>
       </c>
       <c r="E580">
         <v>510.88</v>
@@ -17260,7 +17260,7 @@
         <v>45362.542361111111</v>
       </c>
       <c r="D581" s="2">
-        <v>45362.542361111111</v>
+        <v>45362.541666666664</v>
       </c>
       <c r="E581">
         <v>510.97</v>
@@ -17289,7 +17289,7 @@
         <v>45362.584027777782</v>
       </c>
       <c r="D582" s="2">
-        <v>45362.584027777782</v>
+        <v>45362.583333333336</v>
       </c>
       <c r="E582">
         <v>511.48</v>
@@ -17318,7 +17318,7 @@
         <v>45365.375694444447</v>
       </c>
       <c r="D583" s="2">
-        <v>45365.375694444447</v>
+        <v>45365.375</v>
       </c>
       <c r="E583">
         <v>513.61</v>
@@ -17347,7 +17347,7 @@
         <v>45365.417361111111</v>
       </c>
       <c r="D584" s="2">
-        <v>45365.417361111111</v>
+        <v>45365.416666666664</v>
       </c>
       <c r="E584">
         <v>514.91999999999996</v>
@@ -17376,7 +17376,7 @@
         <v>45365.500694444447</v>
       </c>
       <c r="D585" s="2">
-        <v>45365.500694444447</v>
+        <v>45365.5</v>
       </c>
       <c r="E585">
         <v>513.79</v>
@@ -17405,7 +17405,7 @@
         <v>45365.584027777782</v>
       </c>
       <c r="D586" s="2">
-        <v>45365.584027777782</v>
+        <v>45365.583333333336</v>
       </c>
       <c r="E586">
         <v>513.58000000000004</v>
@@ -17434,7 +17434,7 @@
         <v>45366.500694444447</v>
       </c>
       <c r="D587" s="2">
-        <v>45366.500694444447</v>
+        <v>45366.5</v>
       </c>
       <c r="E587">
         <v>508.6</v>
@@ -17463,7 +17463,7 @@
         <v>45366.542361111111</v>
       </c>
       <c r="D588" s="2">
-        <v>45366.542361111111</v>
+        <v>45366.541666666664</v>
       </c>
       <c r="E588">
         <v>510.01</v>
@@ -17492,7 +17492,7 @@
         <v>45373.417361111111</v>
       </c>
       <c r="D589" s="2">
-        <v>45373.417361111111</v>
+        <v>45373.416666666664</v>
       </c>
       <c r="E589">
         <v>521.13</v>
@@ -17521,7 +17521,7 @@
         <v>45373.500694444447</v>
       </c>
       <c r="D590" s="2">
-        <v>45373.500694444447</v>
+        <v>45373.5</v>
       </c>
       <c r="E590">
         <v>521.87</v>
@@ -17550,7 +17550,7 @@
         <v>45373.542361111111</v>
       </c>
       <c r="D591" s="2">
-        <v>45373.542361111111</v>
+        <v>45373.541666666664</v>
       </c>
       <c r="E591">
         <v>522.42999999999995</v>
@@ -17578,8 +17578,8 @@
       <c r="C592" s="2">
         <v>45376.354861111111</v>
       </c>
-      <c r="D592" s="2">
-        <v>45376.354861111111</v>
+      <c r="D592" s="3">
+        <v>45376.333333333336</v>
       </c>
       <c r="E592">
         <v>519.97</v>
@@ -17608,7 +17608,7 @@
         <v>45376.375694444447</v>
       </c>
       <c r="D593" s="2">
-        <v>45376.375694444447</v>
+        <v>45376.375</v>
       </c>
       <c r="E593">
         <v>520.24</v>
@@ -17637,7 +17637,7 @@
         <v>45376.417361111111</v>
       </c>
       <c r="D594" s="2">
-        <v>45376.417361111111</v>
+        <v>45376.416666666664</v>
       </c>
       <c r="E594">
         <v>520.66999999999996</v>
@@ -17666,7 +17666,7 @@
         <v>45376.500694444447</v>
       </c>
       <c r="D595" s="2">
-        <v>45376.500694444447</v>
+        <v>45376.5</v>
       </c>
       <c r="E595">
         <v>520.46</v>
@@ -17695,7 +17695,7 @@
         <v>45383.459027777782</v>
       </c>
       <c r="D596" s="2">
-        <v>45383.459027777782</v>
+        <v>45383.458333333336</v>
       </c>
       <c r="E596">
         <v>521.04999999999995</v>
@@ -17724,7 +17724,7 @@
         <v>45383.584027777782</v>
       </c>
       <c r="D597" s="2">
-        <v>45383.584027777782</v>
+        <v>45383.583333333336</v>
       </c>
       <c r="E597">
         <v>521.75</v>
@@ -17753,7 +17753,7 @@
         <v>45384.542361111111</v>
       </c>
       <c r="D598" s="2">
-        <v>45384.542361111111</v>
+        <v>45384.541666666664</v>
       </c>
       <c r="E598">
         <v>517.84</v>
@@ -17782,7 +17782,7 @@
         <v>45384.584027777782</v>
       </c>
       <c r="D599" s="2">
-        <v>45384.584027777782</v>
+        <v>45384.583333333336</v>
       </c>
       <c r="E599">
         <v>517.74</v>
@@ -17810,8 +17810,8 @@
       <c r="C600" s="2">
         <v>45385.354861111111</v>
       </c>
-      <c r="D600" s="2">
-        <v>45385.354861111111</v>
+      <c r="D600" s="3">
+        <v>45385.333333333336</v>
       </c>
       <c r="E600">
         <v>517.75</v>
@@ -17840,7 +17840,7 @@
         <v>45387.375694444447</v>
       </c>
       <c r="D601" s="2">
-        <v>45387.375694444447</v>
+        <v>45387.375</v>
       </c>
       <c r="E601">
         <v>515.94000000000005</v>
@@ -23669,7 +23669,7 @@
         <v>45568.500694444447</v>
       </c>
       <c r="D802" s="2">
-        <v>45568.500694444447</v>
+        <v>45568.5</v>
       </c>
       <c r="E802">
         <v>565.77</v>
@@ -23698,7 +23698,7 @@
         <v>45568.542361111111</v>
       </c>
       <c r="D803" s="2">
-        <v>45568.542361111111</v>
+        <v>45568.541666666664</v>
       </c>
       <c r="E803">
         <v>567.07000000000005</v>
@@ -23727,7 +23727,7 @@
         <v>45573.354861111111</v>
       </c>
       <c r="D804" s="2">
-        <v>45573.354861111111</v>
+        <v>45573.333333333336</v>
       </c>
       <c r="E804">
         <v>570.22</v>
@@ -23756,7 +23756,7 @@
         <v>45573.375694444447</v>
       </c>
       <c r="D805" s="2">
-        <v>45573.375694444447</v>
+        <v>45573.375</v>
       </c>
       <c r="E805">
         <v>571.26</v>
@@ -23785,7 +23785,7 @@
         <v>45573.417361111111</v>
       </c>
       <c r="D806" s="2">
-        <v>45573.417361111111</v>
+        <v>45573.416666666664</v>
       </c>
       <c r="E806">
         <v>572.05999999999995</v>
@@ -23814,7 +23814,7 @@
         <v>45573.459027777782</v>
       </c>
       <c r="D807" s="2">
-        <v>45573.459027777782</v>
+        <v>45573.458333333336</v>
       </c>
       <c r="E807">
         <v>572.16999999999996</v>
@@ -23843,7 +23843,7 @@
         <v>45573.500694444447</v>
       </c>
       <c r="D808" s="2">
-        <v>45573.500694444447</v>
+        <v>45573.5</v>
       </c>
       <c r="E808">
         <v>571.91</v>
@@ -23872,7 +23872,7 @@
         <v>45575.584027777782</v>
       </c>
       <c r="D809" s="2">
-        <v>45575.584027777782</v>
+        <v>45575.583333333336</v>
       </c>
       <c r="E809">
         <v>575.33000000000004</v>
@@ -23900,8 +23900,8 @@
       <c r="C810" s="2">
         <v>45576.354861111111</v>
       </c>
-      <c r="D810" s="2">
-        <v>45576.354861111111</v>
+      <c r="D810" s="3">
+        <v>45576.333333333336</v>
       </c>
       <c r="E810">
         <v>576.04999999999995</v>
@@ -23930,7 +23930,7 @@
         <v>45581.417361111111</v>
       </c>
       <c r="D811" s="2">
-        <v>45581.417361111111</v>
+        <v>45581.416666666664</v>
       </c>
       <c r="E811">
         <v>580.16999999999996</v>
@@ -23959,7 +23959,7 @@
         <v>45581.459027777782</v>
       </c>
       <c r="D812" s="2">
-        <v>45581.459027777782</v>
+        <v>45581.458333333336</v>
       </c>
       <c r="E812">
         <v>580.35</v>
@@ -23988,7 +23988,7 @@
         <v>45581.500694444447</v>
       </c>
       <c r="D813" s="2">
-        <v>45581.500694444447</v>
+        <v>45581.5</v>
       </c>
       <c r="E813">
         <v>581.37</v>
@@ -24017,7 +24017,7 @@
         <v>45586.459027777782</v>
       </c>
       <c r="D814" s="2">
-        <v>45586.459027777782</v>
+        <v>45586.458333333336</v>
       </c>
       <c r="E814">
         <v>582.41999999999996</v>
@@ -24046,7 +24046,7 @@
         <v>45586.500694444447</v>
       </c>
       <c r="D815" s="2">
-        <v>45586.500694444447</v>
+        <v>45586.5</v>
       </c>
       <c r="E815">
         <v>582.86</v>
@@ -24075,7 +24075,7 @@
         <v>45586.542361111111</v>
       </c>
       <c r="D816" s="2">
-        <v>45586.542361111111</v>
+        <v>45586.541666666664</v>
       </c>
       <c r="E816">
         <v>583.23</v>
@@ -24104,7 +24104,7 @@
         <v>45586.584027777782</v>
       </c>
       <c r="D817" s="2">
-        <v>45586.584027777782</v>
+        <v>45586.583333333336</v>
       </c>
       <c r="E817">
         <v>582.4</v>
@@ -24133,7 +24133,7 @@
         <v>45587.375694444447</v>
       </c>
       <c r="D818" s="2">
-        <v>45587.375694444447</v>
+        <v>45587.375</v>
       </c>
       <c r="E818">
         <v>581.35</v>
@@ -24162,7 +24162,7 @@
         <v>45587.417361111111</v>
       </c>
       <c r="D819" s="2">
-        <v>45587.417361111111</v>
+        <v>45587.416666666664</v>
       </c>
       <c r="E819">
         <v>582.04999999999995</v>
@@ -24191,7 +24191,7 @@
         <v>45587.459027777782</v>
       </c>
       <c r="D820" s="2">
-        <v>45587.459027777782</v>
+        <v>45587.458333333336</v>
       </c>
       <c r="E820">
         <v>581.98</v>
@@ -24220,7 +24220,7 @@
         <v>45588.584027777782</v>
       </c>
       <c r="D821" s="2">
-        <v>45588.584027777782</v>
+        <v>45588.583333333336</v>
       </c>
       <c r="E821">
         <v>577.01</v>
@@ -24248,8 +24248,8 @@
       <c r="C822" s="2">
         <v>45589.354861111111</v>
       </c>
-      <c r="D822" s="2">
-        <v>45589.354861111111</v>
+      <c r="D822" s="3">
+        <v>45589.333333333336</v>
       </c>
       <c r="E822">
         <v>579.48</v>
@@ -24278,7 +24278,7 @@
         <v>45589.375694444447</v>
       </c>
       <c r="D823" s="2">
-        <v>45589.375694444447</v>
+        <v>45589.375</v>
       </c>
       <c r="E823">
         <v>579.39</v>
@@ -24307,7 +24307,7 @@
         <v>45589.417361111111</v>
       </c>
       <c r="D824" s="2">
-        <v>45589.417361111111</v>
+        <v>45589.416666666664</v>
       </c>
       <c r="E824">
         <v>578.67999999999995</v>
@@ -24336,7 +24336,7 @@
         <v>45589.459027777782</v>
       </c>
       <c r="D825" s="2">
-        <v>45589.459027777782</v>
+        <v>45589.458333333336</v>
       </c>
       <c r="E825">
         <v>578</v>
@@ -24365,7 +24365,7 @@
         <v>45594.375694444447</v>
       </c>
       <c r="D826" s="2">
-        <v>45594.375694444447</v>
+        <v>45594.375</v>
       </c>
       <c r="E826">
         <v>579.72</v>
@@ -24394,7 +24394,7 @@
         <v>45594.417361111111</v>
       </c>
       <c r="D827" s="2">
-        <v>45594.417361111111</v>
+        <v>45594.416666666664</v>
       </c>
       <c r="E827">
         <v>581.38</v>
@@ -24423,7 +24423,7 @@
         <v>45594.459027777782</v>
       </c>
       <c r="D828" s="2">
-        <v>45594.459027777782</v>
+        <v>45594.458333333336</v>
       </c>
       <c r="E828">
         <v>581.85</v>
@@ -24452,7 +24452,7 @@
         <v>45594.500694444447</v>
       </c>
       <c r="D829" s="2">
-        <v>45594.500694444447</v>
+        <v>45594.5</v>
       </c>
       <c r="E829">
         <v>582.12</v>
@@ -24481,7 +24481,7 @@
         <v>45594.542361111111</v>
       </c>
       <c r="D830" s="2">
-        <v>45594.542361111111</v>
+        <v>45594.541666666664</v>
       </c>
       <c r="E830">
         <v>582.04999999999995</v>
@@ -24510,7 +24510,7 @@
         <v>45594.584027777782</v>
       </c>
       <c r="D831" s="2">
-        <v>45594.584027777782</v>
+        <v>45594.583333333336</v>
       </c>
       <c r="E831">
         <v>582.49</v>

--- a/Trades_M1.xlsx
+++ b/Trades_M1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000340DE-68C4-46CD-BB9C-4E1CFDD19F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F1B984-CF53-46F1-96EB-EF1A3EE8141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A591" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D604" sqref="D604"/>
+    <sheetView tabSelected="1" topLeftCell="A371" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D383" sqref="D383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11431,7 +11431,7 @@
         <v>45135.500694444447</v>
       </c>
       <c r="D380" s="2">
-        <v>45135.500694444447</v>
+        <v>45135.5</v>
       </c>
       <c r="E380">
         <v>456.87</v>
@@ -11457,7 +11457,7 @@
         <v>379</v>
       </c>
       <c r="C381" s="2">
-        <v>45135.542361111111</v>
+        <v>45135.541666666664</v>
       </c>
       <c r="D381" s="2">
         <v>45135.541666666664</v>
@@ -11486,7 +11486,7 @@
         <v>380</v>
       </c>
       <c r="C382" s="2">
-        <v>45140.542361111111</v>
+        <v>45140.541666666664</v>
       </c>
       <c r="D382" s="2">
         <v>45140.541666666664</v>
@@ -11515,7 +11515,7 @@
         <v>381</v>
       </c>
       <c r="C383" s="2">
-        <v>45140.584027777782</v>
+        <v>45140.583333333336</v>
       </c>
       <c r="D383" s="2">
         <v>45140.583333333336</v>
@@ -11544,7 +11544,7 @@
         <v>382</v>
       </c>
       <c r="C384" s="2">
-        <v>45141.375694444447</v>
+        <v>45141.375</v>
       </c>
       <c r="D384" s="2">
         <v>45141.375</v>
@@ -11573,7 +11573,7 @@
         <v>383</v>
       </c>
       <c r="C385" s="2">
-        <v>45141.417361111111</v>
+        <v>45141.416666666664</v>
       </c>
       <c r="D385" s="2">
         <v>45141.416666666664</v>
@@ -11602,7 +11602,7 @@
         <v>384</v>
       </c>
       <c r="C386" s="2">
-        <v>45141.459027777782</v>
+        <v>45141.458333333336</v>
       </c>
       <c r="D386" s="2">
         <v>45141.458333333336</v>
@@ -11631,7 +11631,7 @@
         <v>385</v>
       </c>
       <c r="C387" s="2">
-        <v>45141.500694444447</v>
+        <v>45141.5</v>
       </c>
       <c r="D387" s="2">
         <v>45141.5</v>
@@ -11659,8 +11659,8 @@
       <c r="B388">
         <v>386</v>
       </c>
-      <c r="C388" s="2">
-        <v>45145.354861111111</v>
+      <c r="C388" s="3">
+        <v>45145.333333333336</v>
       </c>
       <c r="D388" s="3">
         <v>45145.333333333336</v>
@@ -11689,7 +11689,7 @@
         <v>387</v>
       </c>
       <c r="C389" s="2">
-        <v>45145.375694444447</v>
+        <v>45145.375</v>
       </c>
       <c r="D389" s="2">
         <v>45145.375</v>
@@ -11718,7 +11718,7 @@
         <v>388</v>
       </c>
       <c r="C390" s="2">
-        <v>45145.417361111111</v>
+        <v>45145.416666666664</v>
       </c>
       <c r="D390" s="2">
         <v>45145.416666666664</v>
@@ -11747,7 +11747,7 @@
         <v>389</v>
       </c>
       <c r="C391" s="2">
-        <v>45145.459027777782</v>
+        <v>45145.458333333336</v>
       </c>
       <c r="D391" s="2">
         <v>45145.458333333336</v>
@@ -11776,7 +11776,7 @@
         <v>390</v>
       </c>
       <c r="C392" s="2">
-        <v>45145.500694444447</v>
+        <v>45145.5</v>
       </c>
       <c r="D392" s="2">
         <v>45145.5</v>
@@ -11805,7 +11805,7 @@
         <v>391</v>
       </c>
       <c r="C393" s="2">
-        <v>45145.542361111111</v>
+        <v>45145.541666666664</v>
       </c>
       <c r="D393" s="2">
         <v>45145.541666666664</v>
@@ -11834,7 +11834,7 @@
         <v>392</v>
       </c>
       <c r="C394" s="2">
-        <v>45147.459027777782</v>
+        <v>45147.458333333336</v>
       </c>
       <c r="D394" s="2">
         <v>45147.458333333336</v>
@@ -11863,7 +11863,7 @@
         <v>393</v>
       </c>
       <c r="C395" s="2">
-        <v>45147.500694444447</v>
+        <v>45147.5</v>
       </c>
       <c r="D395" s="2">
         <v>45147.5</v>
@@ -11892,7 +11892,7 @@
         <v>394</v>
       </c>
       <c r="C396" s="2">
-        <v>45147.542361111111</v>
+        <v>45147.541666666664</v>
       </c>
       <c r="D396" s="2">
         <v>45147.541666666664</v>
@@ -11921,7 +11921,7 @@
         <v>395</v>
       </c>
       <c r="C397" s="2">
-        <v>45147.584027777782</v>
+        <v>45147.583333333336</v>
       </c>
       <c r="D397" s="2">
         <v>45147.583333333336</v>
@@ -11950,7 +11950,7 @@
         <v>396</v>
       </c>
       <c r="C398" s="2">
-        <v>45148.542361111111</v>
+        <v>45148.541666666664</v>
       </c>
       <c r="D398" s="2">
         <v>45148.541666666664</v>
@@ -11979,7 +11979,7 @@
         <v>397</v>
       </c>
       <c r="C399" s="2">
-        <v>45148.584027777782</v>
+        <v>45148.583333333336</v>
       </c>
       <c r="D399" s="2">
         <v>45148.583333333336</v>
@@ -12008,7 +12008,7 @@
         <v>398</v>
       </c>
       <c r="C400" s="2">
-        <v>45149.375694444447</v>
+        <v>45149.375</v>
       </c>
       <c r="D400" s="2">
         <v>45149.375</v>
@@ -12037,7 +12037,7 @@
         <v>399</v>
       </c>
       <c r="C401" s="2">
-        <v>45149.417361111111</v>
+        <v>45149.416666666664</v>
       </c>
       <c r="D401" s="2">
         <v>45149.416666666664</v>
@@ -12066,7 +12066,7 @@
         <v>400</v>
       </c>
       <c r="C402" s="2">
-        <v>45149.500694444447</v>
+        <v>45149.5</v>
       </c>
       <c r="D402" s="2">
         <v>45149.5</v>
@@ -12095,7 +12095,7 @@
         <v>401</v>
       </c>
       <c r="C403" s="2">
-        <v>45149.542361111111</v>
+        <v>45149.541666666664</v>
       </c>
       <c r="D403" s="2">
         <v>45149.541666666664</v>
@@ -12124,7 +12124,7 @@
         <v>402</v>
       </c>
       <c r="C404" s="2">
-        <v>45153.417361111111</v>
+        <v>45153.416666666664</v>
       </c>
       <c r="D404" s="2">
         <v>45153.416666666664</v>
@@ -12153,7 +12153,7 @@
         <v>403</v>
       </c>
       <c r="C405" s="2">
-        <v>45153.459027777782</v>
+        <v>45153.458333333336</v>
       </c>
       <c r="D405" s="2">
         <v>45153.458333333336</v>
@@ -12181,8 +12181,8 @@
       <c r="B406">
         <v>404</v>
       </c>
-      <c r="C406" s="2">
-        <v>45154.354861111111</v>
+      <c r="C406" s="3">
+        <v>45154.333333333336</v>
       </c>
       <c r="D406" s="3">
         <v>45154.333333333336</v>
@@ -12211,7 +12211,7 @@
         <v>405</v>
       </c>
       <c r="C407" s="2">
-        <v>45154.417361111111</v>
+        <v>45154.416666666664</v>
       </c>
       <c r="D407" s="2">
         <v>45154.416666666664</v>
@@ -12240,7 +12240,7 @@
         <v>406</v>
       </c>
       <c r="C408" s="2">
-        <v>45155.459027777782</v>
+        <v>45155.458333333336</v>
       </c>
       <c r="D408" s="2">
         <v>45155.458333333336</v>
@@ -12269,7 +12269,7 @@
         <v>407</v>
       </c>
       <c r="C409" s="2">
-        <v>45156.375694444447</v>
+        <v>45156.375</v>
       </c>
       <c r="D409" s="2">
         <v>45156.375</v>
@@ -12298,7 +12298,7 @@
         <v>408</v>
       </c>
       <c r="C410" s="2">
-        <v>45160.542361111111</v>
+        <v>45160.541666666664</v>
       </c>
       <c r="D410" s="2">
         <v>45160.541666666664</v>
@@ -12327,7 +12327,7 @@
         <v>409</v>
       </c>
       <c r="C411" s="2">
-        <v>45160.584027777782</v>
+        <v>45160.583333333336</v>
       </c>
       <c r="D411" s="2">
         <v>45160.583333333336</v>
@@ -12355,8 +12355,8 @@
       <c r="B412">
         <v>410</v>
       </c>
-      <c r="C412" s="2">
-        <v>45161.354861111111</v>
+      <c r="C412" s="3">
+        <v>45161.333333333336</v>
       </c>
       <c r="D412" s="3">
         <v>45161.333333333336</v>
@@ -12385,7 +12385,7 @@
         <v>411</v>
       </c>
       <c r="C413" s="2">
-        <v>45162.459027777782</v>
+        <v>45162.458333333336</v>
       </c>
       <c r="D413" s="2">
         <v>45162.458333333336</v>
@@ -12414,7 +12414,7 @@
         <v>412</v>
       </c>
       <c r="C414" s="2">
-        <v>45163.354861111111</v>
+        <v>45163.333333333336</v>
       </c>
       <c r="D414" s="2">
         <v>45163.333333333336</v>
@@ -12443,7 +12443,7 @@
         <v>413</v>
       </c>
       <c r="C415" s="2">
-        <v>45163.417361111111</v>
+        <v>45163.416666666664</v>
       </c>
       <c r="D415" s="2">
         <v>45163.416666666664</v>
@@ -12472,7 +12472,7 @@
         <v>414</v>
       </c>
       <c r="C416" s="2">
-        <v>45163.459027777782</v>
+        <v>45163.458333333336</v>
       </c>
       <c r="D416" s="2">
         <v>45163.458333333336</v>
@@ -12501,7 +12501,7 @@
         <v>415</v>
       </c>
       <c r="C417" s="2">
-        <v>45163.500694444447</v>
+        <v>45163.5</v>
       </c>
       <c r="D417" s="2">
         <v>45163.5</v>
@@ -12530,7 +12530,7 @@
         <v>416</v>
       </c>
       <c r="C418" s="2">
-        <v>45169.500694444447</v>
+        <v>45169.5</v>
       </c>
       <c r="D418" s="2">
         <v>45169.5</v>
@@ -12559,7 +12559,7 @@
         <v>417</v>
       </c>
       <c r="C419" s="2">
-        <v>45170.459027777782</v>
+        <v>45170.458333333336</v>
       </c>
       <c r="D419" s="2">
         <v>45170.458333333336</v>
@@ -12588,7 +12588,7 @@
         <v>418</v>
       </c>
       <c r="C420" s="2">
-        <v>45170.500694444447</v>
+        <v>45170.5</v>
       </c>
       <c r="D420" s="2">
         <v>45170.5</v>
@@ -12617,7 +12617,7 @@
         <v>419</v>
       </c>
       <c r="C421" s="2">
-        <v>45170.542361111111</v>
+        <v>45170.541666666664</v>
       </c>
       <c r="D421" s="2">
         <v>45170.541666666664</v>
@@ -12646,7 +12646,7 @@
         <v>420</v>
       </c>
       <c r="C422" s="2">
-        <v>45170.584027777782</v>
+        <v>45170.583333333336</v>
       </c>
       <c r="D422" s="2">
         <v>45170.583333333336</v>
@@ -12675,7 +12675,7 @@
         <v>421</v>
       </c>
       <c r="C423" s="2">
-        <v>45174.375694444447</v>
+        <v>45174.375</v>
       </c>
       <c r="D423" s="2">
         <v>45174.375</v>
@@ -12704,7 +12704,7 @@
         <v>422</v>
       </c>
       <c r="C424" s="2">
-        <v>45174.417361111111</v>
+        <v>45174.416666666664</v>
       </c>
       <c r="D424" s="2">
         <v>45174.416666666664</v>
@@ -12733,7 +12733,7 @@
         <v>423</v>
       </c>
       <c r="C425" s="2">
-        <v>45177.584027777782</v>
+        <v>45177.583333333336</v>
       </c>
       <c r="D425" s="2">
         <v>45177.583333333336</v>
@@ -12761,8 +12761,8 @@
       <c r="B426">
         <v>424</v>
       </c>
-      <c r="C426" s="2">
-        <v>45182.354861111111</v>
+      <c r="C426" s="3">
+        <v>45182.333333333336</v>
       </c>
       <c r="D426" s="3">
         <v>45182.333333333336</v>
@@ -12791,7 +12791,7 @@
         <v>425</v>
       </c>
       <c r="C427" s="2">
-        <v>45182.375694444447</v>
+        <v>45182.375</v>
       </c>
       <c r="D427" s="2">
         <v>45182.375</v>
@@ -12820,7 +12820,7 @@
         <v>426</v>
       </c>
       <c r="C428" s="2">
-        <v>45182.417361111111</v>
+        <v>45182.416666666664</v>
       </c>
       <c r="D428" s="2">
         <v>45182.416666666664</v>
@@ -12849,7 +12849,7 @@
         <v>427</v>
       </c>
       <c r="C429" s="2">
-        <v>45182.459027777782</v>
+        <v>45182.458333333336</v>
       </c>
       <c r="D429" s="2">
         <v>45182.458333333336</v>
@@ -12878,7 +12878,7 @@
         <v>428</v>
       </c>
       <c r="C430" s="2">
-        <v>45182.500694444447</v>
+        <v>45182.5</v>
       </c>
       <c r="D430" s="2">
         <v>45182.5</v>
@@ -12907,7 +12907,7 @@
         <v>429</v>
       </c>
       <c r="C431" s="2">
-        <v>45182.584027777782</v>
+        <v>45182.583333333336</v>
       </c>
       <c r="D431" s="2">
         <v>45182.583333333336</v>
@@ -12936,7 +12936,7 @@
         <v>430</v>
       </c>
       <c r="C432" s="2">
-        <v>45187.375694444447</v>
+        <v>45187.375</v>
       </c>
       <c r="D432" s="2">
         <v>45187.375</v>
@@ -12965,7 +12965,7 @@
         <v>431</v>
       </c>
       <c r="C433" s="2">
-        <v>45187.417361111111</v>
+        <v>45187.416666666664</v>
       </c>
       <c r="D433" s="2">
         <v>45187.416666666664</v>
@@ -12994,7 +12994,7 @@
         <v>432</v>
       </c>
       <c r="C434" s="2">
-        <v>45187.459027777782</v>
+        <v>45187.458333333336</v>
       </c>
       <c r="D434" s="2">
         <v>45187.458333333336</v>
@@ -13023,7 +13023,7 @@
         <v>433</v>
       </c>
       <c r="C435" s="2">
-        <v>45187.500694444447</v>
+        <v>45187.5</v>
       </c>
       <c r="D435" s="2">
         <v>45187.5</v>
@@ -13052,7 +13052,7 @@
         <v>434</v>
       </c>
       <c r="C436" s="2">
-        <v>45187.584027777782</v>
+        <v>45187.583333333336</v>
       </c>
       <c r="D436" s="2">
         <v>45187.583333333336</v>
@@ -13081,7 +13081,7 @@
         <v>435</v>
       </c>
       <c r="C437" s="2">
-        <v>45188.500694444447</v>
+        <v>45188.5</v>
       </c>
       <c r="D437" s="2">
         <v>45188.5</v>
@@ -13110,7 +13110,7 @@
         <v>436</v>
       </c>
       <c r="C438" s="2">
-        <v>45190.542361111111</v>
+        <v>45190.541666666664</v>
       </c>
       <c r="D438" s="2">
         <v>45190.541666666664</v>
@@ -13139,7 +13139,7 @@
         <v>437</v>
       </c>
       <c r="C439" s="2">
-        <v>45191.375694444447</v>
+        <v>45191.375</v>
       </c>
       <c r="D439" s="2">
         <v>45191.375</v>
@@ -13168,7 +13168,7 @@
         <v>438</v>
       </c>
       <c r="C440" s="2">
-        <v>45191.417361111111</v>
+        <v>45191.416666666664</v>
       </c>
       <c r="D440" s="2">
         <v>45191.416666666664</v>
@@ -13197,7 +13197,7 @@
         <v>439</v>
       </c>
       <c r="C441" s="2">
-        <v>45191.459027777782</v>
+        <v>45191.458333333336</v>
       </c>
       <c r="D441" s="2">
         <v>45191.458333333336</v>
@@ -13225,8 +13225,8 @@
       <c r="B442">
         <v>440</v>
       </c>
-      <c r="C442" s="2">
-        <v>45194.354861111111</v>
+      <c r="C442" s="3">
+        <v>45194.333333333336</v>
       </c>
       <c r="D442" s="3">
         <v>45194.333333333336</v>
@@ -13255,7 +13255,7 @@
         <v>441</v>
       </c>
       <c r="C443" s="2">
-        <v>45194.375694444447</v>
+        <v>45194.375</v>
       </c>
       <c r="D443" s="2">
         <v>45194.375</v>
@@ -13284,7 +13284,7 @@
         <v>442</v>
       </c>
       <c r="C444" s="2">
-        <v>45198.542361111111</v>
+        <v>45198.541666666664</v>
       </c>
       <c r="D444" s="2">
         <v>45198.541666666664</v>
@@ -13313,7 +13313,7 @@
         <v>443</v>
       </c>
       <c r="C445" s="2">
-        <v>45198.584027777782</v>
+        <v>45198.583333333336</v>
       </c>
       <c r="D445" s="2">
         <v>45198.583333333336</v>
@@ -13342,7 +13342,7 @@
         <v>444</v>
       </c>
       <c r="C446" s="2">
-        <v>45201.584027777782</v>
+        <v>45201.583333333336</v>
       </c>
       <c r="D446" s="2">
         <v>45201.583333333336</v>
@@ -13370,8 +13370,8 @@
       <c r="B447">
         <v>445</v>
       </c>
-      <c r="C447" s="2">
-        <v>45202.354861111111</v>
+      <c r="C447" s="3">
+        <v>45202.333333333336</v>
       </c>
       <c r="D447" s="3">
         <v>45202.333333333336</v>
@@ -13400,7 +13400,7 @@
         <v>446</v>
       </c>
       <c r="C448" s="2">
-        <v>45202.542361111111</v>
+        <v>45202.541666666664</v>
       </c>
       <c r="D448" s="2">
         <v>45202.541666666664</v>
@@ -13429,7 +13429,7 @@
         <v>447</v>
       </c>
       <c r="C449" s="2">
-        <v>45202.584027777782</v>
+        <v>45202.583333333336</v>
       </c>
       <c r="D449" s="2">
         <v>45202.583333333336</v>
@@ -13458,7 +13458,7 @@
         <v>448</v>
       </c>
       <c r="C450" s="2">
-        <v>45204.417361111111</v>
+        <v>45204.416666666664</v>
       </c>
       <c r="D450" s="2">
         <v>45204.416666666664</v>
@@ -13487,7 +13487,7 @@
         <v>449</v>
       </c>
       <c r="C451" s="2">
-        <v>45204.459027777782</v>
+        <v>45204.458333333336</v>
       </c>
       <c r="D451" s="2">
         <v>45204.458333333336</v>
@@ -13516,7 +13516,7 @@
         <v>450</v>
       </c>
       <c r="C452" s="2">
-        <v>45204.500694444447</v>
+        <v>45204.5</v>
       </c>
       <c r="D452" s="2">
         <v>45204.5</v>
@@ -13545,7 +13545,7 @@
         <v>451</v>
       </c>
       <c r="C453" s="2">
-        <v>45205.375694444447</v>
+        <v>45205.375</v>
       </c>
       <c r="D453" s="2">
         <v>45205.375</v>
@@ -13574,7 +13574,7 @@
         <v>452</v>
       </c>
       <c r="C454" s="2">
-        <v>45210.542361111111</v>
+        <v>45210.541666666664</v>
       </c>
       <c r="D454" s="2">
         <v>45210.541666666664</v>
@@ -13603,7 +13603,7 @@
         <v>453</v>
       </c>
       <c r="C455" s="2">
-        <v>45211.542361111111</v>
+        <v>45211.541666666664</v>
       </c>
       <c r="D455" s="2">
         <v>45211.541666666664</v>
@@ -13632,7 +13632,7 @@
         <v>454</v>
       </c>
       <c r="C456" s="2">
-        <v>45211.584027777782</v>
+        <v>45211.583333333336</v>
       </c>
       <c r="D456" s="2">
         <v>45211.583333333336</v>
@@ -13660,8 +13660,8 @@
       <c r="B457">
         <v>455</v>
       </c>
-      <c r="C457" s="2">
-        <v>45212.354861111111</v>
+      <c r="C457" s="3">
+        <v>45212.333333333336</v>
       </c>
       <c r="D457" s="3">
         <v>45212.333333333336</v>
@@ -13690,7 +13690,7 @@
         <v>456</v>
       </c>
       <c r="C458" s="2">
-        <v>45212.375694444447</v>
+        <v>45212.375</v>
       </c>
       <c r="D458" s="2">
         <v>45212.375</v>
@@ -13719,7 +13719,7 @@
         <v>457</v>
       </c>
       <c r="C459" s="2">
-        <v>45212.584027777782</v>
+        <v>45212.583333333336</v>
       </c>
       <c r="D459" s="2">
         <v>45212.583333333336</v>
@@ -13748,7 +13748,7 @@
         <v>458</v>
       </c>
       <c r="C460" s="2">
-        <v>45217.500694444447</v>
+        <v>45217.5</v>
       </c>
       <c r="D460" s="2">
         <v>45217.5</v>
@@ -13776,8 +13776,8 @@
       <c r="B461">
         <v>459</v>
       </c>
-      <c r="C461" s="2">
-        <v>45218.354861111111</v>
+      <c r="C461" s="3">
+        <v>45218.333333333336</v>
       </c>
       <c r="D461" s="3">
         <v>45218.333333333336</v>
@@ -13806,7 +13806,7 @@
         <v>460</v>
       </c>
       <c r="C462" s="2">
-        <v>45219.417361111111</v>
+        <v>45219.416666666664</v>
       </c>
       <c r="D462" s="2">
         <v>45219.416666666664</v>
@@ -13835,7 +13835,7 @@
         <v>461</v>
       </c>
       <c r="C463" s="2">
-        <v>45219.459027777782</v>
+        <v>45219.458333333336</v>
       </c>
       <c r="D463" s="2">
         <v>45219.458333333336</v>
@@ -13864,7 +13864,7 @@
         <v>462</v>
       </c>
       <c r="C464" s="2">
-        <v>45219.500694444447</v>
+        <v>45219.5</v>
       </c>
       <c r="D464" s="2">
         <v>45219.5</v>
@@ -13893,7 +13893,7 @@
         <v>463</v>
       </c>
       <c r="C465" s="2">
-        <v>45219.542361111111</v>
+        <v>45219.541666666664</v>
       </c>
       <c r="D465" s="2">
         <v>45219.541666666664</v>
@@ -13922,7 +13922,7 @@
         <v>464</v>
       </c>
       <c r="C466" s="2">
-        <v>45224.584027777782</v>
+        <v>45224.583333333336</v>
       </c>
       <c r="D466" s="2">
         <v>45224.583333333336</v>
@@ -13951,7 +13951,7 @@
         <v>465</v>
       </c>
       <c r="C467" s="2">
-        <v>45225.500694444447</v>
+        <v>45225.5</v>
       </c>
       <c r="D467" s="2">
         <v>45225.5</v>
@@ -13980,7 +13980,7 @@
         <v>466</v>
       </c>
       <c r="C468" s="2">
-        <v>45225.542361111111</v>
+        <v>45225.541666666664</v>
       </c>
       <c r="D468" s="2">
         <v>45225.541666666664</v>
@@ -14008,8 +14008,8 @@
       <c r="B469">
         <v>467</v>
       </c>
-      <c r="C469" s="2">
-        <v>45226.354861111111</v>
+      <c r="C469" s="3">
+        <v>45226.333333333336</v>
       </c>
       <c r="D469" s="3">
         <v>45226.333333333336</v>
@@ -14038,7 +14038,7 @@
         <v>468</v>
       </c>
       <c r="C470" s="2">
-        <v>45226.375694444447</v>
+        <v>45226.375</v>
       </c>
       <c r="D470" s="2">
         <v>45226.375</v>
@@ -14067,7 +14067,7 @@
         <v>469</v>
       </c>
       <c r="C471" s="2">
-        <v>45226.417361111111</v>
+        <v>45226.416666666664</v>
       </c>
       <c r="D471" s="2">
         <v>45226.416666666664</v>
@@ -14096,7 +14096,7 @@
         <v>470</v>
       </c>
       <c r="C472" s="2">
-        <v>45231.542361111111</v>
+        <v>45231.541666666664</v>
       </c>
       <c r="D472" s="2">
         <v>45231.541666666664</v>
@@ -14125,7 +14125,7 @@
         <v>471</v>
       </c>
       <c r="C473" s="2">
-        <v>45236.584027777782</v>
+        <v>45236.583333333336</v>
       </c>
       <c r="D473" s="2">
         <v>45236.583333333336</v>
@@ -14154,7 +14154,7 @@
         <v>472</v>
       </c>
       <c r="C474" s="2">
-        <v>45236.625694444447</v>
+        <v>45236.625</v>
       </c>
       <c r="D474" s="2">
         <v>45236.625</v>
@@ -14182,8 +14182,8 @@
       <c r="B475">
         <v>473</v>
       </c>
-      <c r="C475" s="2">
-        <v>45237.396527777782</v>
+      <c r="C475" s="3">
+        <v>45237.375</v>
       </c>
       <c r="D475" s="3">
         <v>45237.375</v>
@@ -14212,7 +14212,7 @@
         <v>474</v>
       </c>
       <c r="C476" s="2">
-        <v>45238.542361111111</v>
+        <v>45238.541666666664</v>
       </c>
       <c r="D476" s="2">
         <v>45238.541666666664</v>
@@ -14241,7 +14241,7 @@
         <v>475</v>
       </c>
       <c r="C477" s="2">
-        <v>45238.584027777782</v>
+        <v>45238.583333333336</v>
       </c>
       <c r="D477" s="2">
         <v>45238.583333333336</v>
@@ -14270,7 +14270,7 @@
         <v>476</v>
       </c>
       <c r="C478" s="2">
-        <v>45238.625694444447</v>
+        <v>45238.625</v>
       </c>
       <c r="D478" s="2">
         <v>45238.625</v>
@@ -14298,8 +14298,8 @@
       <c r="B479">
         <v>477</v>
       </c>
-      <c r="C479" s="2">
-        <v>45240.396527777782</v>
+      <c r="C479" s="3">
+        <v>45240.375</v>
       </c>
       <c r="D479" s="3">
         <v>45240.375</v>
@@ -14328,7 +14328,7 @@
         <v>478</v>
       </c>
       <c r="C480" s="2">
-        <v>45240.417361111111</v>
+        <v>45240.416666666664</v>
       </c>
       <c r="D480" s="2">
         <v>45240.416666666664</v>
@@ -14357,7 +14357,7 @@
         <v>479</v>
       </c>
       <c r="C481" s="2">
-        <v>45240.459027777782</v>
+        <v>45240.458333333336</v>
       </c>
       <c r="D481" s="2">
         <v>45240.458333333336</v>
@@ -14386,7 +14386,7 @@
         <v>480</v>
       </c>
       <c r="C482" s="2">
-        <v>45245.542361111111</v>
+        <v>45245.541666666664</v>
       </c>
       <c r="D482" s="2">
         <v>45245.541666666664</v>
@@ -14415,7 +14415,7 @@
         <v>481</v>
       </c>
       <c r="C483" s="2">
-        <v>45245.584027777782</v>
+        <v>45245.583333333336</v>
       </c>
       <c r="D483" s="2">
         <v>45245.583333333336</v>
@@ -14444,7 +14444,7 @@
         <v>482</v>
       </c>
       <c r="C484" s="2">
-        <v>45245.625694444447</v>
+        <v>45245.625</v>
       </c>
       <c r="D484" s="2">
         <v>45245.625</v>
@@ -14472,8 +14472,8 @@
       <c r="B485">
         <v>483</v>
       </c>
-      <c r="C485" s="2">
-        <v>45246.396527777782</v>
+      <c r="C485" s="3">
+        <v>45246.375</v>
       </c>
       <c r="D485" s="3">
         <v>45246.375</v>
@@ -14502,7 +14502,7 @@
         <v>484</v>
       </c>
       <c r="C486" s="2">
-        <v>45246.417361111111</v>
+        <v>45246.416666666664</v>
       </c>
       <c r="D486" s="2">
         <v>45246.416666666664</v>
@@ -14531,7 +14531,7 @@
         <v>485</v>
       </c>
       <c r="C487" s="2">
-        <v>45246.500694444447</v>
+        <v>45246.5</v>
       </c>
       <c r="D487" s="2">
         <v>45246.5</v>
@@ -14560,7 +14560,7 @@
         <v>486</v>
       </c>
       <c r="C488" s="2">
-        <v>45251.459027777782</v>
+        <v>45251.458333333336</v>
       </c>
       <c r="D488" s="2">
         <v>45251.458333333336</v>
@@ -14589,7 +14589,7 @@
         <v>487</v>
       </c>
       <c r="C489" s="2">
-        <v>45251.500694444447</v>
+        <v>45251.5</v>
       </c>
       <c r="D489" s="2">
         <v>45251.5</v>
@@ -14618,7 +14618,7 @@
         <v>488</v>
       </c>
       <c r="C490" s="2">
-        <v>45251.542361111111</v>
+        <v>45251.541666666664</v>
       </c>
       <c r="D490" s="2">
         <v>45251.541666666664</v>
@@ -14647,7 +14647,7 @@
         <v>489</v>
       </c>
       <c r="C491" s="2">
-        <v>45251.584027777782</v>
+        <v>45251.583333333336</v>
       </c>
       <c r="D491" s="2">
         <v>45251.583333333336</v>
@@ -14676,7 +14676,7 @@
         <v>490</v>
       </c>
       <c r="C492" s="2">
-        <v>45251.625694444447</v>
+        <v>45251.625</v>
       </c>
       <c r="D492" s="2">
         <v>45251.625</v>
@@ -14704,8 +14704,8 @@
       <c r="B493">
         <v>491</v>
       </c>
-      <c r="C493" s="2">
-        <v>45260.396527777782</v>
+      <c r="C493" s="3">
+        <v>45260.375</v>
       </c>
       <c r="D493" s="3">
         <v>45260.375</v>
@@ -14734,7 +14734,7 @@
         <v>492</v>
       </c>
       <c r="C494" s="2">
-        <v>45260.500694444447</v>
+        <v>45260.5</v>
       </c>
       <c r="D494" s="2">
         <v>45260.5</v>
@@ -14763,7 +14763,7 @@
         <v>493</v>
       </c>
       <c r="C495" s="2">
-        <v>45260.542361111111</v>
+        <v>45260.541666666664</v>
       </c>
       <c r="D495" s="2">
         <v>45260.541666666664</v>
@@ -14792,7 +14792,7 @@
         <v>494</v>
       </c>
       <c r="C496" s="2">
-        <v>45260.584027777782</v>
+        <v>45260.583333333336</v>
       </c>
       <c r="D496" s="2">
         <v>45260.583333333336</v>
@@ -14821,7 +14821,7 @@
         <v>495</v>
       </c>
       <c r="C497" s="2">
-        <v>45264.417361111111</v>
+        <v>45264.416666666664</v>
       </c>
       <c r="D497" s="2">
         <v>45264.416666666664</v>
@@ -14850,7 +14850,7 @@
         <v>496</v>
       </c>
       <c r="C498" s="2">
-        <v>45264.459027777782</v>
+        <v>45264.458333333336</v>
       </c>
       <c r="D498" s="2">
         <v>45264.458333333336</v>
@@ -14879,7 +14879,7 @@
         <v>497</v>
       </c>
       <c r="C499" s="2">
-        <v>45264.500694444447</v>
+        <v>45264.5</v>
       </c>
       <c r="D499" s="2">
         <v>45264.5</v>
@@ -14908,7 +14908,7 @@
         <v>498</v>
       </c>
       <c r="C500" s="2">
-        <v>45264.542361111111</v>
+        <v>45264.541666666664</v>
       </c>
       <c r="D500" s="2">
         <v>45264.541666666664</v>
@@ -14937,7 +14937,7 @@
         <v>499</v>
       </c>
       <c r="C501" s="2">
-        <v>45264.584027777782</v>
+        <v>45264.583333333336</v>
       </c>
       <c r="D501" s="2">
         <v>45264.583333333336</v>
@@ -14966,7 +14966,7 @@
         <v>500</v>
       </c>
       <c r="C502" s="2">
-        <v>45264.625694444447</v>
+        <v>45264.625</v>
       </c>
       <c r="D502" s="2">
         <v>45264.625</v>
@@ -14994,8 +14994,8 @@
       <c r="B503">
         <v>501</v>
       </c>
-      <c r="C503" s="2">
-        <v>45267.396527777782</v>
+      <c r="C503" s="3">
+        <v>45267.375</v>
       </c>
       <c r="D503" s="3">
         <v>45267.375</v>
@@ -15024,7 +15024,7 @@
         <v>502</v>
       </c>
       <c r="C504" s="2">
-        <v>45267.417361111111</v>
+        <v>45267.416666666664</v>
       </c>
       <c r="D504" s="2">
         <v>45267.416666666664</v>
@@ -15053,7 +15053,7 @@
         <v>503</v>
       </c>
       <c r="C505" s="2">
-        <v>45267.459027777782</v>
+        <v>45267.458333333336</v>
       </c>
       <c r="D505" s="2">
         <v>45267.458333333336</v>
@@ -15082,7 +15082,7 @@
         <v>504</v>
       </c>
       <c r="C506" s="2">
-        <v>45267.500694444447</v>
+        <v>45267.5</v>
       </c>
       <c r="D506" s="2">
         <v>45267.5</v>
@@ -15111,7 +15111,7 @@
         <v>505</v>
       </c>
       <c r="C507" s="2">
-        <v>45275.625694444447</v>
+        <v>45275.625</v>
       </c>
       <c r="D507" s="2">
         <v>45275.625</v>
@@ -15139,8 +15139,8 @@
       <c r="B508">
         <v>506</v>
       </c>
-      <c r="C508" s="2">
-        <v>45278.396527777782</v>
+      <c r="C508" s="3">
+        <v>45278.375</v>
       </c>
       <c r="D508" s="3">
         <v>45278.375</v>
@@ -15169,7 +15169,7 @@
         <v>507</v>
       </c>
       <c r="C509" s="2">
-        <v>45278.417361111111</v>
+        <v>45278.416666666664</v>
       </c>
       <c r="D509" s="2">
         <v>45278.416666666664</v>
@@ -15198,7 +15198,7 @@
         <v>508</v>
       </c>
       <c r="C510" s="2">
-        <v>45278.459027777782</v>
+        <v>45278.458333333336</v>
       </c>
       <c r="D510" s="2">
         <v>45278.458333333336</v>
@@ -15227,7 +15227,7 @@
         <v>509</v>
       </c>
       <c r="C511" s="2">
-        <v>45278.500694444447</v>
+        <v>45278.5</v>
       </c>
       <c r="D511" s="2">
         <v>45278.5</v>
@@ -15256,7 +15256,7 @@
         <v>510</v>
       </c>
       <c r="C512" s="2">
-        <v>45278.542361111111</v>
+        <v>45278.541666666664</v>
       </c>
       <c r="D512" s="2">
         <v>45278.541666666664</v>
@@ -15284,8 +15284,8 @@
       <c r="B513">
         <v>511</v>
       </c>
-      <c r="C513" s="2">
-        <v>45281.396527777782</v>
+      <c r="C513" s="3">
+        <v>45281.375</v>
       </c>
       <c r="D513" s="3">
         <v>45281.375</v>
@@ -15314,7 +15314,7 @@
         <v>512</v>
       </c>
       <c r="C514" s="2">
-        <v>45281.417361111111</v>
+        <v>45281.416666666664</v>
       </c>
       <c r="D514" s="2">
         <v>45281.416666666664</v>
@@ -15343,7 +15343,7 @@
         <v>513</v>
       </c>
       <c r="C515" s="2">
-        <v>45281.459027777782</v>
+        <v>45281.458333333336</v>
       </c>
       <c r="D515" s="2">
         <v>45281.458333333336</v>
@@ -15372,7 +15372,7 @@
         <v>514</v>
       </c>
       <c r="C516" s="2">
-        <v>45281.500694444447</v>
+        <v>45281.5</v>
       </c>
       <c r="D516" s="2">
         <v>45281.5</v>
@@ -15401,7 +15401,7 @@
         <v>515</v>
       </c>
       <c r="C517" s="2">
-        <v>45281.542361111111</v>
+        <v>45281.541666666664</v>
       </c>
       <c r="D517" s="2">
         <v>45281.541666666664</v>
@@ -15430,7 +15430,7 @@
         <v>516</v>
       </c>
       <c r="C518" s="2">
-        <v>45281.625694444447</v>
+        <v>45281.625</v>
       </c>
       <c r="D518" s="2">
         <v>45281.625</v>
@@ -15458,8 +15458,8 @@
       <c r="B519">
         <v>517</v>
       </c>
-      <c r="C519" s="2">
-        <v>45289.396527777782</v>
+      <c r="C519" s="3">
+        <v>45289.375</v>
       </c>
       <c r="D519" s="3">
         <v>45289.375</v>
@@ -15488,7 +15488,7 @@
         <v>518</v>
       </c>
       <c r="C520" s="2">
-        <v>45289.542361111111</v>
+        <v>45289.541666666664</v>
       </c>
       <c r="D520" s="2">
         <v>45289.541666666664</v>
@@ -15517,7 +15517,7 @@
         <v>519</v>
       </c>
       <c r="C521" s="2">
-        <v>45289.584027777782</v>
+        <v>45289.583333333336</v>
       </c>
       <c r="D521" s="2">
         <v>45289.583333333336</v>
@@ -15546,7 +15546,7 @@
         <v>520</v>
       </c>
       <c r="C522" s="2">
-        <v>45289.625694444447</v>
+        <v>45289.625</v>
       </c>
       <c r="D522" s="2">
         <v>45289.625</v>
@@ -15575,7 +15575,7 @@
         <v>521</v>
       </c>
       <c r="C523" s="2">
-        <v>45293.459027777782</v>
+        <v>45293.458333333336</v>
       </c>
       <c r="D523" s="2">
         <v>45293.458333333336</v>
@@ -15604,7 +15604,7 @@
         <v>522</v>
       </c>
       <c r="C524" s="2">
-        <v>45293.625694444447</v>
+        <v>45293.625</v>
       </c>
       <c r="D524" s="2">
         <v>45293.625</v>
@@ -15633,7 +15633,7 @@
         <v>523</v>
       </c>
       <c r="C525" s="2">
-        <v>45295.417361111111</v>
+        <v>45295.416666666664</v>
       </c>
       <c r="D525" s="2">
         <v>45295.416666666664</v>
@@ -15661,8 +15661,8 @@
       <c r="B526">
         <v>524</v>
       </c>
-      <c r="C526" s="2">
-        <v>45296.396527777782</v>
+      <c r="C526" s="3">
+        <v>45296.375</v>
       </c>
       <c r="D526" s="3">
         <v>45296.375</v>
@@ -15691,7 +15691,7 @@
         <v>525</v>
       </c>
       <c r="C527" s="2">
-        <v>45296.417361111111</v>
+        <v>45296.416666666664</v>
       </c>
       <c r="D527" s="2">
         <v>45296.416666666664</v>
@@ -15720,7 +15720,7 @@
         <v>526</v>
       </c>
       <c r="C528" s="2">
-        <v>45296.459027777782</v>
+        <v>45296.458333333336</v>
       </c>
       <c r="D528" s="2">
         <v>45296.458333333336</v>
@@ -15749,7 +15749,7 @@
         <v>527</v>
       </c>
       <c r="C529" s="2">
-        <v>45296.542361111111</v>
+        <v>45296.541666666664</v>
       </c>
       <c r="D529" s="2">
         <v>45296.541666666664</v>
@@ -15778,7 +15778,7 @@
         <v>528</v>
       </c>
       <c r="C530" s="2">
-        <v>45296.584027777782</v>
+        <v>45296.583333333336</v>
       </c>
       <c r="D530" s="2">
         <v>45296.583333333336</v>
@@ -15807,7 +15807,7 @@
         <v>529</v>
       </c>
       <c r="C531" s="2">
-        <v>45296.625694444447</v>
+        <v>45296.625</v>
       </c>
       <c r="D531" s="2">
         <v>45296.625</v>
@@ -15836,7 +15836,7 @@
         <v>530</v>
       </c>
       <c r="C532" s="2">
-        <v>45302.500694444447</v>
+        <v>45302.5</v>
       </c>
       <c r="D532" s="2">
         <v>45302.5</v>
@@ -15865,7 +15865,7 @@
         <v>531</v>
       </c>
       <c r="C533" s="2">
-        <v>45302.542361111111</v>
+        <v>45302.541666666664</v>
       </c>
       <c r="D533" s="2">
         <v>45302.541666666664</v>
@@ -15894,7 +15894,7 @@
         <v>532</v>
       </c>
       <c r="C534" s="2">
-        <v>45302.584027777782</v>
+        <v>45302.583333333336</v>
       </c>
       <c r="D534" s="2">
         <v>45302.583333333336</v>
@@ -15923,7 +15923,7 @@
         <v>533</v>
       </c>
       <c r="C535" s="2">
-        <v>45302.625694444447</v>
+        <v>45302.625</v>
       </c>
       <c r="D535" s="2">
         <v>45302.625</v>
@@ -15952,7 +15952,7 @@
         <v>534</v>
       </c>
       <c r="C536" s="2">
-        <v>45307.584027777782</v>
+        <v>45307.583333333336</v>
       </c>
       <c r="D536" s="2">
         <v>45307.583333333336</v>
@@ -15981,7 +15981,7 @@
         <v>535</v>
       </c>
       <c r="C537" s="2">
-        <v>45307.625694444447</v>
+        <v>45307.625</v>
       </c>
       <c r="D537" s="2">
         <v>45307.625</v>
@@ -16010,7 +16010,7 @@
         <v>536</v>
       </c>
       <c r="C538" s="2">
-        <v>45308.625694444447</v>
+        <v>45308.625</v>
       </c>
       <c r="D538" s="2">
         <v>45308.625</v>
@@ -16038,8 +16038,8 @@
       <c r="B539">
         <v>537</v>
       </c>
-      <c r="C539" s="2">
-        <v>45309.396527777782</v>
+      <c r="C539" s="3">
+        <v>45309.375</v>
       </c>
       <c r="D539" s="3">
         <v>45309.375</v>
@@ -16068,7 +16068,7 @@
         <v>538</v>
       </c>
       <c r="C540" s="2">
-        <v>45309.417361111111</v>
+        <v>45309.416666666664</v>
       </c>
       <c r="D540" s="2">
         <v>45309.416666666664</v>
@@ -16097,7 +16097,7 @@
         <v>539</v>
       </c>
       <c r="C541" s="2">
-        <v>45309.459027777782</v>
+        <v>45309.458333333336</v>
       </c>
       <c r="D541" s="2">
         <v>45309.458333333336</v>
@@ -16126,7 +16126,7 @@
         <v>540</v>
       </c>
       <c r="C542" s="2">
-        <v>45314.500694444447</v>
+        <v>45314.5</v>
       </c>
       <c r="D542" s="2">
         <v>45314.5</v>
@@ -16155,7 +16155,7 @@
         <v>541</v>
       </c>
       <c r="C543" s="2">
-        <v>45314.542361111111</v>
+        <v>45314.541666666664</v>
       </c>
       <c r="D543" s="2">
         <v>45314.541666666664</v>
@@ -16184,7 +16184,7 @@
         <v>542</v>
       </c>
       <c r="C544" s="2">
-        <v>45314.584027777782</v>
+        <v>45314.583333333336</v>
       </c>
       <c r="D544" s="2">
         <v>45314.583333333336</v>
@@ -16213,7 +16213,7 @@
         <v>543</v>
       </c>
       <c r="C545" s="2">
-        <v>45316.584027777782</v>
+        <v>45316.583333333336</v>
       </c>
       <c r="D545" s="2">
         <v>45316.583333333336</v>
@@ -16242,7 +16242,7 @@
         <v>544</v>
       </c>
       <c r="C546" s="2">
-        <v>45316.625694444447</v>
+        <v>45316.625</v>
       </c>
       <c r="D546" s="2">
         <v>45316.625</v>
@@ -16270,8 +16270,8 @@
       <c r="B547">
         <v>545</v>
       </c>
-      <c r="C547" s="2">
-        <v>45317.396527777782</v>
+      <c r="C547" s="3">
+        <v>45317.375</v>
       </c>
       <c r="D547" s="3">
         <v>45317.375</v>
@@ -16300,7 +16300,7 @@
         <v>546</v>
       </c>
       <c r="C548" s="2">
-        <v>45322.542361111111</v>
+        <v>45322.541666666664</v>
       </c>
       <c r="D548" s="2">
         <v>45322.541666666664</v>
@@ -16328,8 +16328,8 @@
       <c r="B549">
         <v>547</v>
       </c>
-      <c r="C549" s="2">
-        <v>45323.396527777782</v>
+      <c r="C549" s="3">
+        <v>45323.375</v>
       </c>
       <c r="D549" s="3">
         <v>45323.375</v>
@@ -16358,7 +16358,7 @@
         <v>548</v>
       </c>
       <c r="C550" s="2">
-        <v>45323.459027777782</v>
+        <v>45323.458333333336</v>
       </c>
       <c r="D550" s="2">
         <v>45323.458333333336</v>
@@ -16387,7 +16387,7 @@
         <v>549</v>
       </c>
       <c r="C551" s="2">
-        <v>45327.459027777782</v>
+        <v>45327.458333333336</v>
       </c>
       <c r="D551" s="2">
         <v>45327.458333333336</v>
@@ -16416,7 +16416,7 @@
         <v>550</v>
       </c>
       <c r="C552" s="2">
-        <v>45327.500694444447</v>
+        <v>45327.5</v>
       </c>
       <c r="D552" s="2">
         <v>45327.5</v>
@@ -16445,7 +16445,7 @@
         <v>551</v>
       </c>
       <c r="C553" s="2">
-        <v>45327.542361111111</v>
+        <v>45327.541666666664</v>
       </c>
       <c r="D553" s="2">
         <v>45327.541666666664</v>
@@ -16474,7 +16474,7 @@
         <v>552</v>
       </c>
       <c r="C554" s="2">
-        <v>45327.584027777782</v>
+        <v>45327.583333333336</v>
       </c>
       <c r="D554" s="2">
         <v>45327.583333333336</v>
@@ -16503,7 +16503,7 @@
         <v>553</v>
       </c>
       <c r="C555" s="2">
-        <v>45327.625694444447</v>
+        <v>45327.625</v>
       </c>
       <c r="D555" s="2">
         <v>45327.625</v>
@@ -16531,8 +16531,8 @@
       <c r="B556">
         <v>554</v>
       </c>
-      <c r="C556" s="2">
-        <v>45328.396527777782</v>
+      <c r="C556" s="3">
+        <v>45328.375</v>
       </c>
       <c r="D556" s="3">
         <v>45328.375</v>
@@ -16561,7 +16561,7 @@
         <v>555</v>
       </c>
       <c r="C557" s="2">
-        <v>45334.625694444447</v>
+        <v>45334.625</v>
       </c>
       <c r="D557" s="2">
         <v>45334.625</v>
@@ -16590,7 +16590,7 @@
         <v>556</v>
       </c>
       <c r="C558" s="2">
-        <v>45335.625694444447</v>
+        <v>45335.625</v>
       </c>
       <c r="D558" s="2">
         <v>45335.625</v>
@@ -16619,7 +16619,7 @@
         <v>557</v>
       </c>
       <c r="C559" s="2">
-        <v>45336.396527777782</v>
+        <v>45336.375</v>
       </c>
       <c r="D559" s="2">
         <v>45336.375</v>
@@ -16648,7 +16648,7 @@
         <v>558</v>
       </c>
       <c r="C560" s="2">
-        <v>45336.417361111111</v>
+        <v>45336.416666666664</v>
       </c>
       <c r="D560" s="2">
         <v>45336.416666666664</v>
@@ -16677,7 +16677,7 @@
         <v>559</v>
       </c>
       <c r="C561" s="2">
-        <v>45336.459027777782</v>
+        <v>45336.458333333336</v>
       </c>
       <c r="D561" s="2">
         <v>45336.458333333336</v>
@@ -16706,7 +16706,7 @@
         <v>560</v>
       </c>
       <c r="C562" s="2">
-        <v>45336.500694444447</v>
+        <v>45336.5</v>
       </c>
       <c r="D562" s="2">
         <v>45336.5</v>
@@ -16735,7 +16735,7 @@
         <v>561</v>
       </c>
       <c r="C563" s="2">
-        <v>45342.542361111111</v>
+        <v>45342.541666666664</v>
       </c>
       <c r="D563" s="2">
         <v>45342.541666666664</v>
@@ -16764,7 +16764,7 @@
         <v>562</v>
       </c>
       <c r="C564" s="2">
-        <v>45342.584027777782</v>
+        <v>45342.583333333336</v>
       </c>
       <c r="D564" s="2">
         <v>45342.583333333336</v>
@@ -16793,7 +16793,7 @@
         <v>563</v>
       </c>
       <c r="C565" s="2">
-        <v>45342.625694444447</v>
+        <v>45342.625</v>
       </c>
       <c r="D565" s="2">
         <v>45342.625</v>
@@ -16821,8 +16821,8 @@
       <c r="B566">
         <v>564</v>
       </c>
-      <c r="C566" s="2">
-        <v>45343.396527777782</v>
+      <c r="C566" s="3">
+        <v>45343.375</v>
       </c>
       <c r="D566" s="3">
         <v>45343.375</v>
@@ -16851,7 +16851,7 @@
         <v>565</v>
       </c>
       <c r="C567" s="2">
-        <v>45343.417361111111</v>
+        <v>45343.416666666664</v>
       </c>
       <c r="D567" s="2">
         <v>45343.416666666664</v>
@@ -16880,7 +16880,7 @@
         <v>566</v>
       </c>
       <c r="C568" s="2">
-        <v>45348.459027777782</v>
+        <v>45348.458333333336</v>
       </c>
       <c r="D568" s="2">
         <v>45348.458333333336</v>
@@ -16909,7 +16909,7 @@
         <v>567</v>
       </c>
       <c r="C569" s="2">
-        <v>45349.542361111111</v>
+        <v>45349.541666666664</v>
       </c>
       <c r="D569" s="2">
         <v>45349.541666666664</v>
@@ -16938,7 +16938,7 @@
         <v>568</v>
       </c>
       <c r="C570" s="2">
-        <v>45349.584027777782</v>
+        <v>45349.583333333336</v>
       </c>
       <c r="D570" s="2">
         <v>45349.583333333336</v>
@@ -16967,7 +16967,7 @@
         <v>569</v>
       </c>
       <c r="C571" s="2">
-        <v>45351.500694444447</v>
+        <v>45351.5</v>
       </c>
       <c r="D571" s="2">
         <v>45351.5</v>
@@ -16996,7 +16996,7 @@
         <v>570</v>
       </c>
       <c r="C572" s="2">
-        <v>45351.542361111111</v>
+        <v>45351.541666666664</v>
       </c>
       <c r="D572" s="2">
         <v>45351.541666666664</v>
@@ -17025,7 +17025,7 @@
         <v>571</v>
       </c>
       <c r="C573" s="2">
-        <v>45351.584027777782</v>
+        <v>45351.583333333336</v>
       </c>
       <c r="D573" s="2">
         <v>45351.583333333336</v>
@@ -17054,7 +17054,7 @@
         <v>572</v>
       </c>
       <c r="C574" s="2">
-        <v>45356.625694444447</v>
+        <v>45356.625</v>
       </c>
       <c r="D574" s="2">
         <v>45356.625</v>
@@ -17082,8 +17082,8 @@
       <c r="B575">
         <v>573</v>
       </c>
-      <c r="C575" s="2">
-        <v>45357.396527777782</v>
+      <c r="C575" s="3">
+        <v>45357.375</v>
       </c>
       <c r="D575" s="3">
         <v>45357.375</v>
@@ -17112,7 +17112,7 @@
         <v>574</v>
       </c>
       <c r="C576" s="2">
-        <v>45357.417361111111</v>
+        <v>45357.416666666664</v>
       </c>
       <c r="D576" s="2">
         <v>45357.416666666664</v>
@@ -17141,7 +17141,7 @@
         <v>575</v>
       </c>
       <c r="C577" s="2">
-        <v>45359.584027777782</v>
+        <v>45359.583333333336</v>
       </c>
       <c r="D577" s="2">
         <v>45359.583333333336</v>
@@ -17170,7 +17170,7 @@
         <v>576</v>
       </c>
       <c r="C578" s="2">
-        <v>45362.417361111111</v>
+        <v>45362.416666666664</v>
       </c>
       <c r="D578" s="2">
         <v>45362.416666666664</v>
@@ -17199,7 +17199,7 @@
         <v>577</v>
       </c>
       <c r="C579" s="2">
-        <v>45362.459027777782</v>
+        <v>45362.458333333336</v>
       </c>
       <c r="D579" s="2">
         <v>45362.458333333336</v>
@@ -17228,7 +17228,7 @@
         <v>578</v>
       </c>
       <c r="C580" s="2">
-        <v>45362.500694444447</v>
+        <v>45362.5</v>
       </c>
       <c r="D580" s="2">
         <v>45362.5</v>
@@ -17257,7 +17257,7 @@
         <v>579</v>
       </c>
       <c r="C581" s="2">
-        <v>45362.542361111111</v>
+        <v>45362.541666666664</v>
       </c>
       <c r="D581" s="2">
         <v>45362.541666666664</v>
@@ -17286,7 +17286,7 @@
         <v>580</v>
       </c>
       <c r="C582" s="2">
-        <v>45362.584027777782</v>
+        <v>45362.583333333336</v>
       </c>
       <c r="D582" s="2">
         <v>45362.583333333336</v>
@@ -17315,7 +17315,7 @@
         <v>581</v>
       </c>
       <c r="C583" s="2">
-        <v>45365.375694444447</v>
+        <v>45365.375</v>
       </c>
       <c r="D583" s="2">
         <v>45365.375</v>
@@ -17344,7 +17344,7 @@
         <v>582</v>
       </c>
       <c r="C584" s="2">
-        <v>45365.417361111111</v>
+        <v>45365.416666666664</v>
       </c>
       <c r="D584" s="2">
         <v>45365.416666666664</v>
@@ -17373,7 +17373,7 @@
         <v>583</v>
       </c>
       <c r="C585" s="2">
-        <v>45365.500694444447</v>
+        <v>45365.5</v>
       </c>
       <c r="D585" s="2">
         <v>45365.5</v>
@@ -17402,7 +17402,7 @@
         <v>584</v>
       </c>
       <c r="C586" s="2">
-        <v>45365.584027777782</v>
+        <v>45365.583333333336</v>
       </c>
       <c r="D586" s="2">
         <v>45365.583333333336</v>
@@ -17431,7 +17431,7 @@
         <v>585</v>
       </c>
       <c r="C587" s="2">
-        <v>45366.500694444447</v>
+        <v>45366.5</v>
       </c>
       <c r="D587" s="2">
         <v>45366.5</v>
@@ -17460,7 +17460,7 @@
         <v>586</v>
       </c>
       <c r="C588" s="2">
-        <v>45366.542361111111</v>
+        <v>45366.541666666664</v>
       </c>
       <c r="D588" s="2">
         <v>45366.541666666664</v>
@@ -17489,7 +17489,7 @@
         <v>587</v>
       </c>
       <c r="C589" s="2">
-        <v>45373.417361111111</v>
+        <v>45373.416666666664</v>
       </c>
       <c r="D589" s="2">
         <v>45373.416666666664</v>
@@ -17518,7 +17518,7 @@
         <v>588</v>
       </c>
       <c r="C590" s="2">
-        <v>45373.500694444447</v>
+        <v>45373.5</v>
       </c>
       <c r="D590" s="2">
         <v>45373.5</v>
@@ -17547,7 +17547,7 @@
         <v>589</v>
       </c>
       <c r="C591" s="2">
-        <v>45373.542361111111</v>
+        <v>45373.541666666664</v>
       </c>
       <c r="D591" s="2">
         <v>45373.541666666664</v>
@@ -17575,8 +17575,8 @@
       <c r="B592">
         <v>590</v>
       </c>
-      <c r="C592" s="2">
-        <v>45376.354861111111</v>
+      <c r="C592" s="3">
+        <v>45376.333333333336</v>
       </c>
       <c r="D592" s="3">
         <v>45376.333333333336</v>
@@ -17605,7 +17605,7 @@
         <v>591</v>
       </c>
       <c r="C593" s="2">
-        <v>45376.375694444447</v>
+        <v>45376.375</v>
       </c>
       <c r="D593" s="2">
         <v>45376.375</v>
@@ -17634,7 +17634,7 @@
         <v>592</v>
       </c>
       <c r="C594" s="2">
-        <v>45376.417361111111</v>
+        <v>45376.416666666664</v>
       </c>
       <c r="D594" s="2">
         <v>45376.416666666664</v>
@@ -17663,7 +17663,7 @@
         <v>593</v>
       </c>
       <c r="C595" s="2">
-        <v>45376.500694444447</v>
+        <v>45376.5</v>
       </c>
       <c r="D595" s="2">
         <v>45376.5</v>
@@ -17692,7 +17692,7 @@
         <v>594</v>
       </c>
       <c r="C596" s="2">
-        <v>45383.459027777782</v>
+        <v>45383.458333333336</v>
       </c>
       <c r="D596" s="2">
         <v>45383.458333333336</v>
@@ -17721,7 +17721,7 @@
         <v>595</v>
       </c>
       <c r="C597" s="2">
-        <v>45383.584027777782</v>
+        <v>45383.583333333336</v>
       </c>
       <c r="D597" s="2">
         <v>45383.583333333336</v>
@@ -17750,7 +17750,7 @@
         <v>596</v>
       </c>
       <c r="C598" s="2">
-        <v>45384.542361111111</v>
+        <v>45384.541666666664</v>
       </c>
       <c r="D598" s="2">
         <v>45384.541666666664</v>
@@ -17779,7 +17779,7 @@
         <v>597</v>
       </c>
       <c r="C599" s="2">
-        <v>45384.584027777782</v>
+        <v>45384.583333333336</v>
       </c>
       <c r="D599" s="2">
         <v>45384.583333333336</v>
@@ -17807,8 +17807,8 @@
       <c r="B600">
         <v>598</v>
       </c>
-      <c r="C600" s="2">
-        <v>45385.354861111111</v>
+      <c r="C600" s="3">
+        <v>45385.333333333336</v>
       </c>
       <c r="D600" s="3">
         <v>45385.333333333336</v>
@@ -17837,7 +17837,7 @@
         <v>599</v>
       </c>
       <c r="C601" s="2">
-        <v>45387.375694444447</v>
+        <v>45387.375</v>
       </c>
       <c r="D601" s="2">
         <v>45387.375</v>
@@ -17866,10 +17866,10 @@
         <v>600</v>
       </c>
       <c r="C602" s="2">
-        <v>45387.417361111111</v>
+        <v>45387.416666666664</v>
       </c>
       <c r="D602" s="2">
-        <v>45387.417361111111</v>
+        <v>45387.416666666664</v>
       </c>
       <c r="E602">
         <v>517.95000000000005</v>
@@ -17895,10 +17895,10 @@
         <v>601</v>
       </c>
       <c r="C603" s="2">
-        <v>45387.459027777782</v>
+        <v>45387.458333333336</v>
       </c>
       <c r="D603" s="2">
-        <v>45387.459027777782</v>
+        <v>45387.458333333336</v>
       </c>
       <c r="E603">
         <v>519.72</v>
@@ -17924,10 +17924,10 @@
         <v>602</v>
       </c>
       <c r="C604" s="2">
-        <v>45387.500694444447</v>
+        <v>45387.5</v>
       </c>
       <c r="D604" s="2">
-        <v>45387.500694444447</v>
+        <v>45387.5</v>
       </c>
       <c r="E604">
         <v>520.29999999999995</v>
@@ -17953,10 +17953,10 @@
         <v>603</v>
       </c>
       <c r="C605" s="2">
-        <v>45387.542361111111</v>
+        <v>45387.541666666664</v>
       </c>
       <c r="D605" s="2">
-        <v>45387.542361111111</v>
+        <v>45387.541666666664</v>
       </c>
       <c r="E605">
         <v>517.57000000000005</v>
@@ -17982,10 +17982,10 @@
         <v>604</v>
       </c>
       <c r="C606" s="2">
-        <v>45387.584027777782</v>
+        <v>45387.583333333336</v>
       </c>
       <c r="D606" s="2">
-        <v>45387.584027777782</v>
+        <v>45387.583333333336</v>
       </c>
       <c r="E606">
         <v>517.92999999999995</v>
@@ -18010,11 +18010,11 @@
       <c r="B607">
         <v>605</v>
       </c>
-      <c r="C607" s="2">
-        <v>45390.354861111111</v>
-      </c>
-      <c r="D607" s="2">
-        <v>45390.354861111111</v>
+      <c r="C607" s="3">
+        <v>45390.333333333336</v>
+      </c>
+      <c r="D607" s="3">
+        <v>45390.333333333336</v>
       </c>
       <c r="E607">
         <v>519.03</v>
@@ -18040,10 +18040,10 @@
         <v>606</v>
       </c>
       <c r="C608" s="2">
-        <v>45392.584027777782</v>
+        <v>45392.583333333336</v>
       </c>
       <c r="D608" s="2">
-        <v>45392.584027777782</v>
+        <v>45392.583333333336</v>
       </c>
       <c r="E608">
         <v>513.01</v>
@@ -18068,11 +18068,11 @@
       <c r="B609">
         <v>607</v>
       </c>
-      <c r="C609" s="2">
-        <v>45393.354861111111</v>
-      </c>
-      <c r="D609" s="2">
-        <v>45393.354861111111</v>
+      <c r="C609" s="3">
+        <v>45393.333333333336</v>
+      </c>
+      <c r="D609" s="3">
+        <v>45393.333333333336</v>
       </c>
       <c r="E609">
         <v>515.51</v>
@@ -18098,10 +18098,10 @@
         <v>608</v>
       </c>
       <c r="C610" s="2">
-        <v>45393.375694444447</v>
+        <v>45393.375</v>
       </c>
       <c r="D610" s="2">
-        <v>45393.375694444447</v>
+        <v>45393.375</v>
       </c>
       <c r="E610">
         <v>514.03</v>
@@ -18127,10 +18127,10 @@
         <v>609</v>
       </c>
       <c r="C611" s="2">
-        <v>45393.417361111111</v>
+        <v>45393.416666666664</v>
       </c>
       <c r="D611" s="2">
-        <v>45393.417361111111</v>
+        <v>45393.416666666664</v>
       </c>
       <c r="E611">
         <v>513.33000000000004</v>
@@ -18156,10 +18156,10 @@
         <v>610</v>
       </c>
       <c r="C612" s="2">
-        <v>45393.459027777782</v>
+        <v>45393.458333333336</v>
       </c>
       <c r="D612" s="2">
-        <v>45393.459027777782</v>
+        <v>45393.458333333336</v>
       </c>
       <c r="E612">
         <v>515.33000000000004</v>
@@ -18185,10 +18185,10 @@
         <v>611</v>
       </c>
       <c r="C613" s="2">
-        <v>45394.417361111111</v>
+        <v>45394.416666666664</v>
       </c>
       <c r="D613" s="2">
-        <v>45394.417361111111</v>
+        <v>45394.416666666664</v>
       </c>
       <c r="E613">
         <v>512.59</v>
@@ -18213,11 +18213,11 @@
       <c r="B614">
         <v>612</v>
       </c>
-      <c r="C614" s="2">
-        <v>45397.354861111111</v>
-      </c>
-      <c r="D614" s="2">
-        <v>45397.354861111111</v>
+      <c r="C614" s="3">
+        <v>45397.333333333336</v>
+      </c>
+      <c r="D614" s="3">
+        <v>45397.333333333336</v>
       </c>
       <c r="E614">
         <v>514.70000000000005</v>
@@ -18243,10 +18243,10 @@
         <v>613</v>
       </c>
       <c r="C615" s="2">
-        <v>45397.375694444447</v>
+        <v>45397.375</v>
       </c>
       <c r="D615" s="2">
-        <v>45397.375694444447</v>
+        <v>45397.375</v>
       </c>
       <c r="E615">
         <v>514.88</v>
@@ -18272,10 +18272,10 @@
         <v>614</v>
       </c>
       <c r="C616" s="2">
-        <v>45397.417361111111</v>
+        <v>45397.416666666664</v>
       </c>
       <c r="D616" s="2">
-        <v>45397.417361111111</v>
+        <v>45397.416666666664</v>
       </c>
       <c r="E616">
         <v>510.98</v>
@@ -18301,10 +18301,10 @@
         <v>615</v>
       </c>
       <c r="C617" s="2">
-        <v>45397.459027777782</v>
+        <v>45397.458333333336</v>
       </c>
       <c r="D617" s="2">
-        <v>45397.459027777782</v>
+        <v>45397.458333333336</v>
       </c>
       <c r="E617">
         <v>512.36</v>
@@ -18329,11 +18329,11 @@
       <c r="B618">
         <v>616</v>
       </c>
-      <c r="C618" s="2">
-        <v>45398.354861111111</v>
-      </c>
-      <c r="D618" s="2">
-        <v>45398.354861111111</v>
+      <c r="C618" s="3">
+        <v>45398.333333333336</v>
+      </c>
+      <c r="D618" s="3">
+        <v>45398.333333333336</v>
       </c>
       <c r="E618">
         <v>504.85</v>
@@ -18359,10 +18359,10 @@
         <v>617</v>
       </c>
       <c r="C619" s="2">
-        <v>45398.417361111111</v>
+        <v>45398.416666666664</v>
       </c>
       <c r="D619" s="2">
-        <v>45398.417361111111</v>
+        <v>45398.416666666664</v>
       </c>
       <c r="E619">
         <v>503.08</v>
@@ -18388,10 +18388,10 @@
         <v>618</v>
       </c>
       <c r="C620" s="2">
-        <v>45399.500694444447</v>
+        <v>45399.5</v>
       </c>
       <c r="D620" s="2">
-        <v>45399.500694444447</v>
+        <v>45399.5</v>
       </c>
       <c r="E620">
         <v>500.12</v>
@@ -18417,10 +18417,10 @@
         <v>619</v>
       </c>
       <c r="C621" s="2">
-        <v>45399.542361111111</v>
+        <v>45399.541666666664</v>
       </c>
       <c r="D621" s="2">
-        <v>45399.542361111111</v>
+        <v>45399.541666666664</v>
       </c>
       <c r="E621">
         <v>502.05</v>
@@ -18446,10 +18446,10 @@
         <v>620</v>
       </c>
       <c r="C622" s="2">
-        <v>45399.584027777782</v>
+        <v>45399.583333333336</v>
       </c>
       <c r="D622" s="2">
-        <v>45399.584027777782</v>
+        <v>45399.583333333336</v>
       </c>
       <c r="E622">
         <v>501.14</v>
@@ -18474,11 +18474,11 @@
       <c r="B623">
         <v>621</v>
       </c>
-      <c r="C623" s="2">
-        <v>45400.354861111111</v>
-      </c>
-      <c r="D623" s="2">
-        <v>45400.354861111111</v>
+      <c r="C623" s="3">
+        <v>45400.333333333336</v>
+      </c>
+      <c r="D623" s="3">
+        <v>45400.333333333336</v>
       </c>
       <c r="E623">
         <v>502.02</v>
@@ -18504,10 +18504,10 @@
         <v>622</v>
       </c>
       <c r="C624" s="2">
-        <v>45400.375694444447</v>
+        <v>45400.375</v>
       </c>
       <c r="D624" s="2">
-        <v>45400.375694444447</v>
+        <v>45400.375</v>
       </c>
       <c r="E624">
         <v>500.95</v>
@@ -18533,10 +18533,10 @@
         <v>623</v>
       </c>
       <c r="C625" s="2">
-        <v>45400.584027777782</v>
+        <v>45400.583333333336</v>
       </c>
       <c r="D625" s="2">
-        <v>45400.584027777782</v>
+        <v>45400.583333333336</v>
       </c>
       <c r="E625">
         <v>499.1</v>
@@ -18561,11 +18561,11 @@
       <c r="B626">
         <v>624</v>
       </c>
-      <c r="C626" s="2">
-        <v>45404.354861111111</v>
-      </c>
-      <c r="D626" s="2">
-        <v>45404.354861111111</v>
+      <c r="C626" s="3">
+        <v>45404.333333333336</v>
+      </c>
+      <c r="D626" s="3">
+        <v>45404.333333333336</v>
       </c>
       <c r="E626">
         <v>497.7</v>
@@ -18591,10 +18591,10 @@
         <v>625</v>
       </c>
       <c r="C627" s="2">
-        <v>45404.417361111111</v>
+        <v>45404.416666666664</v>
       </c>
       <c r="D627" s="2">
-        <v>45404.417361111111</v>
+        <v>45404.416666666664</v>
       </c>
       <c r="E627">
         <v>496.07</v>
@@ -18620,10 +18620,10 @@
         <v>626</v>
       </c>
       <c r="C628" s="2">
-        <v>45406.459027777782</v>
+        <v>45406.458333333336</v>
       </c>
       <c r="D628" s="2">
-        <v>45406.459027777782</v>
+        <v>45406.458333333336</v>
       </c>
       <c r="E628">
         <v>504.03</v>
@@ -18649,10 +18649,10 @@
         <v>627</v>
       </c>
       <c r="C629" s="2">
-        <v>45406.500694444447</v>
+        <v>45406.5</v>
       </c>
       <c r="D629" s="2">
-        <v>45406.500694444447</v>
+        <v>45406.5</v>
       </c>
       <c r="E629">
         <v>504.27</v>
@@ -18678,10 +18678,10 @@
         <v>628</v>
       </c>
       <c r="C630" s="2">
-        <v>45406.584027777782</v>
+        <v>45406.583333333336</v>
       </c>
       <c r="D630" s="2">
-        <v>45406.584027777782</v>
+        <v>45406.583333333336</v>
       </c>
       <c r="E630">
         <v>504.4</v>
@@ -18707,10 +18707,10 @@
         <v>629</v>
       </c>
       <c r="C631" s="2">
-        <v>45407.459027777782</v>
+        <v>45407.458333333336</v>
       </c>
       <c r="D631" s="2">
-        <v>45407.459027777782</v>
+        <v>45407.458333333336</v>
       </c>
       <c r="E631">
         <v>500.2</v>
@@ -18736,10 +18736,10 @@
         <v>630</v>
       </c>
       <c r="C632" s="2">
-        <v>45407.500694444447</v>
+        <v>45407.5</v>
       </c>
       <c r="D632" s="2">
-        <v>45407.500694444447</v>
+        <v>45407.5</v>
       </c>
       <c r="E632">
         <v>501.74</v>
@@ -18765,10 +18765,10 @@
         <v>631</v>
       </c>
       <c r="C633" s="2">
-        <v>45407.542361111111</v>
+        <v>45407.541666666664</v>
       </c>
       <c r="D633" s="2">
-        <v>45407.542361111111</v>
+        <v>45407.541666666664</v>
       </c>
       <c r="E633">
         <v>503.45</v>
@@ -18794,10 +18794,10 @@
         <v>632</v>
       </c>
       <c r="C634" s="2">
-        <v>45411.584027777782</v>
+        <v>45411.583333333336</v>
       </c>
       <c r="D634" s="2">
-        <v>45411.584027777782</v>
+        <v>45411.583333333336</v>
       </c>
       <c r="E634">
         <v>508.77</v>
@@ -18822,11 +18822,11 @@
       <c r="B635">
         <v>633</v>
       </c>
-      <c r="C635" s="2">
-        <v>45412.354861111111</v>
-      </c>
-      <c r="D635" s="2">
-        <v>45412.354861111111</v>
+      <c r="C635" s="3">
+        <v>45412.333333333336</v>
+      </c>
+      <c r="D635" s="3">
+        <v>45412.333333333336</v>
       </c>
       <c r="E635">
         <v>508.32</v>
@@ -18852,10 +18852,10 @@
         <v>634</v>
       </c>
       <c r="C636" s="2">
-        <v>45414.375694444447</v>
+        <v>45414.375</v>
       </c>
       <c r="D636" s="2">
-        <v>45414.375694444447</v>
+        <v>45414.375</v>
       </c>
       <c r="E636">
         <v>501.78</v>
@@ -18881,10 +18881,10 @@
         <v>635</v>
       </c>
       <c r="C637" s="2">
-        <v>45414.417361111111</v>
+        <v>45414.416666666664</v>
       </c>
       <c r="D637" s="2">
-        <v>45414.417361111111</v>
+        <v>45414.416666666664</v>
       </c>
       <c r="E637">
         <v>502.34</v>
@@ -18910,10 +18910,10 @@
         <v>636</v>
       </c>
       <c r="C638" s="2">
-        <v>45414.459027777782</v>
+        <v>45414.458333333336</v>
       </c>
       <c r="D638" s="2">
-        <v>45414.459027777782</v>
+        <v>45414.458333333336</v>
       </c>
       <c r="E638">
         <v>502.76</v>
@@ -18939,10 +18939,10 @@
         <v>637</v>
       </c>
       <c r="C639" s="2">
-        <v>45414.500694444447</v>
+        <v>45414.5</v>
       </c>
       <c r="D639" s="2">
-        <v>45414.500694444447</v>
+        <v>45414.5</v>
       </c>
       <c r="E639">
         <v>502.38</v>
@@ -18968,10 +18968,10 @@
         <v>638</v>
       </c>
       <c r="C640" s="2">
-        <v>45414.542361111111</v>
+        <v>45414.541666666664</v>
       </c>
       <c r="D640" s="2">
-        <v>45414.542361111111</v>
+        <v>45414.541666666664</v>
       </c>
       <c r="E640">
         <v>503.91</v>
@@ -18997,10 +18997,10 @@
         <v>639</v>
       </c>
       <c r="C641" s="2">
-        <v>45414.584027777782</v>
+        <v>45414.583333333336</v>
       </c>
       <c r="D641" s="2">
-        <v>45414.584027777782</v>
+        <v>45414.583333333336</v>
       </c>
       <c r="E641">
         <v>505.41</v>
@@ -19026,10 +19026,10 @@
         <v>640</v>
       </c>
       <c r="C642" s="2">
-        <v>45420.375694444447</v>
+        <v>45420.375</v>
       </c>
       <c r="D642" s="2">
-        <v>45420.375694444447</v>
+        <v>45420.375</v>
       </c>
       <c r="E642">
         <v>516.63</v>
@@ -19055,10 +19055,10 @@
         <v>641</v>
       </c>
       <c r="C643" s="2">
-        <v>45420.417361111111</v>
+        <v>45420.416666666664</v>
       </c>
       <c r="D643" s="2">
-        <v>45420.417361111111</v>
+        <v>45420.416666666664</v>
       </c>
       <c r="E643">
         <v>517.41999999999996</v>
@@ -19084,10 +19084,10 @@
         <v>642</v>
       </c>
       <c r="C644" s="2">
-        <v>45420.500694444447</v>
+        <v>45420.5</v>
       </c>
       <c r="D644" s="2">
-        <v>45420.500694444447</v>
+        <v>45420.5</v>
       </c>
       <c r="E644">
         <v>516.64</v>
@@ -19113,10 +19113,10 @@
         <v>643</v>
       </c>
       <c r="C645" s="2">
-        <v>45420.542361111111</v>
+        <v>45420.541666666664</v>
       </c>
       <c r="D645" s="2">
-        <v>45420.542361111111</v>
+        <v>45420.541666666664</v>
       </c>
       <c r="E645">
         <v>517.15</v>
@@ -19142,10 +19142,10 @@
         <v>644</v>
       </c>
       <c r="C646" s="2">
-        <v>45420.584027777782</v>
+        <v>45420.583333333336</v>
       </c>
       <c r="D646" s="2">
-        <v>45420.584027777782</v>
+        <v>45420.583333333336</v>
       </c>
       <c r="E646">
         <v>516.86</v>
@@ -19170,11 +19170,11 @@
       <c r="B647">
         <v>645</v>
       </c>
-      <c r="C647" s="2">
-        <v>45421.354861111111</v>
-      </c>
-      <c r="D647" s="2">
-        <v>45421.354861111111</v>
+      <c r="C647" s="3">
+        <v>45421.333333333336</v>
+      </c>
+      <c r="D647" s="3">
+        <v>45421.333333333336</v>
       </c>
       <c r="E647">
         <v>517.75</v>
@@ -19200,10 +19200,10 @@
         <v>646</v>
       </c>
       <c r="C648" s="2">
-        <v>45425.542361111111</v>
+        <v>45425.541666666664</v>
       </c>
       <c r="D648" s="2">
-        <v>45425.542361111111</v>
+        <v>45425.541666666664</v>
       </c>
       <c r="E648">
         <v>520.57000000000005</v>
@@ -19229,10 +19229,10 @@
         <v>647</v>
       </c>
       <c r="C649" s="2">
-        <v>45425.584027777782</v>
+        <v>45425.583333333336</v>
       </c>
       <c r="D649" s="2">
-        <v>45425.584027777782</v>
+        <v>45425.583333333336</v>
       </c>
       <c r="E649">
         <v>520.89</v>
@@ -19257,11 +19257,11 @@
       <c r="B650">
         <v>648</v>
       </c>
-      <c r="C650" s="2">
-        <v>45426.354861111111</v>
-      </c>
-      <c r="D650" s="2">
-        <v>45426.354861111111</v>
+      <c r="C650" s="3">
+        <v>45426.333333333336</v>
+      </c>
+      <c r="D650" s="3">
+        <v>45426.333333333336</v>
       </c>
       <c r="E650">
         <v>521.29999999999995</v>
@@ -19287,10 +19287,10 @@
         <v>649</v>
       </c>
       <c r="C651" s="2">
-        <v>45426.375694444447</v>
+        <v>45426.375</v>
       </c>
       <c r="D651" s="2">
-        <v>45426.375694444447</v>
+        <v>45426.375</v>
       </c>
       <c r="E651">
         <v>521.34</v>
@@ -19316,10 +19316,10 @@
         <v>650</v>
       </c>
       <c r="C652" s="2">
-        <v>45426.417361111111</v>
+        <v>45426.416666666664</v>
       </c>
       <c r="D652" s="2">
-        <v>45426.417361111111</v>
+        <v>45426.416666666664</v>
       </c>
       <c r="E652">
         <v>521.76</v>
@@ -19345,10 +19345,10 @@
         <v>651</v>
       </c>
       <c r="C653" s="2">
-        <v>45426.459027777782</v>
+        <v>45426.458333333336</v>
       </c>
       <c r="D653" s="2">
-        <v>45426.459027777782</v>
+        <v>45426.458333333336</v>
       </c>
       <c r="E653">
         <v>521.12</v>
@@ -19374,10 +19374,10 @@
         <v>652</v>
       </c>
       <c r="C654" s="2">
-        <v>45426.500694444447</v>
+        <v>45426.5</v>
       </c>
       <c r="D654" s="2">
-        <v>45426.500694444447</v>
+        <v>45426.5</v>
       </c>
       <c r="E654">
         <v>520.95000000000005</v>
@@ -19403,10 +19403,10 @@
         <v>653</v>
       </c>
       <c r="C655" s="2">
-        <v>45429.375694444447</v>
+        <v>45429.375</v>
       </c>
       <c r="D655" s="2">
-        <v>45429.375694444447</v>
+        <v>45429.375</v>
       </c>
       <c r="E655">
         <v>528.78</v>
@@ -19432,10 +19432,10 @@
         <v>654</v>
       </c>
       <c r="C656" s="2">
-        <v>45429.417361111111</v>
+        <v>45429.416666666664</v>
       </c>
       <c r="D656" s="2">
-        <v>45429.417361111111</v>
+        <v>45429.416666666664</v>
       </c>
       <c r="E656">
         <v>528.95000000000005</v>
@@ -19461,10 +19461,10 @@
         <v>655</v>
       </c>
       <c r="C657" s="2">
-        <v>45429.459027777782</v>
+        <v>45429.458333333336</v>
       </c>
       <c r="D657" s="2">
-        <v>45429.459027777782</v>
+        <v>45429.458333333336</v>
       </c>
       <c r="E657">
         <v>528.82000000000005</v>
@@ -19490,10 +19490,10 @@
         <v>656</v>
       </c>
       <c r="C658" s="2">
-        <v>45429.500694444447</v>
+        <v>45429.5</v>
       </c>
       <c r="D658" s="2">
-        <v>45429.500694444447</v>
+        <v>45429.5</v>
       </c>
       <c r="E658">
         <v>528.77</v>
@@ -19519,10 +19519,10 @@
         <v>657</v>
       </c>
       <c r="C659" s="2">
-        <v>45429.542361111111</v>
+        <v>45429.541666666664</v>
       </c>
       <c r="D659" s="2">
-        <v>45429.542361111111</v>
+        <v>45429.541666666664</v>
       </c>
       <c r="E659">
         <v>528.55999999999995</v>
@@ -19548,10 +19548,10 @@
         <v>658</v>
       </c>
       <c r="C660" s="2">
-        <v>45429.584027777782</v>
+        <v>45429.583333333336</v>
       </c>
       <c r="D660" s="2">
-        <v>45429.584027777782</v>
+        <v>45429.583333333336</v>
       </c>
       <c r="E660">
         <v>528.75</v>
@@ -19577,10 +19577,10 @@
         <v>659</v>
       </c>
       <c r="C661" s="2">
-        <v>45434.584027777782</v>
+        <v>45434.583333333336</v>
       </c>
       <c r="D661" s="2">
-        <v>45434.584027777782</v>
+        <v>45434.583333333336</v>
       </c>
       <c r="E661">
         <v>528.57000000000005</v>
@@ -19605,11 +19605,11 @@
       <c r="B662">
         <v>660</v>
       </c>
-      <c r="C662" s="2">
-        <v>45436.354861111111</v>
-      </c>
-      <c r="D662" s="2">
-        <v>45436.354861111111</v>
+      <c r="C662" s="3">
+        <v>45436.333333333336</v>
+      </c>
+      <c r="D662" s="3">
+        <v>45436.333333333336</v>
       </c>
       <c r="E662">
         <v>527.66999999999996</v>
@@ -19635,10 +19635,10 @@
         <v>661</v>
       </c>
       <c r="C663" s="2">
-        <v>45436.375694444447</v>
+        <v>45436.375</v>
       </c>
       <c r="D663" s="2">
-        <v>45436.375694444447</v>
+        <v>45436.375</v>
       </c>
       <c r="E663">
         <v>528.16999999999996</v>
@@ -19664,10 +19664,10 @@
         <v>662</v>
       </c>
       <c r="C664" s="2">
-        <v>45436.417361111111</v>
+        <v>45436.416666666664</v>
       </c>
       <c r="D664" s="2">
-        <v>45436.417361111111</v>
+        <v>45436.416666666664</v>
       </c>
       <c r="E664">
         <v>529.01</v>
@@ -19693,10 +19693,10 @@
         <v>663</v>
       </c>
       <c r="C665" s="2">
-        <v>45436.459027777782</v>
+        <v>45436.458333333336</v>
       </c>
       <c r="D665" s="2">
-        <v>45436.459027777782</v>
+        <v>45436.458333333336</v>
       </c>
       <c r="E665">
         <v>529.47</v>
@@ -19722,10 +19722,10 @@
         <v>664</v>
       </c>
       <c r="C666" s="2">
-        <v>45436.500694444447</v>
+        <v>45436.5</v>
       </c>
       <c r="D666" s="2">
-        <v>45436.500694444447</v>
+        <v>45436.5</v>
       </c>
       <c r="E666">
         <v>529.42999999999995</v>
@@ -19751,10 +19751,10 @@
         <v>665</v>
       </c>
       <c r="C667" s="2">
-        <v>45436.542361111111</v>
+        <v>45436.541666666664</v>
       </c>
       <c r="D667" s="2">
-        <v>45436.542361111111</v>
+        <v>45436.541666666664</v>
       </c>
       <c r="E667">
         <v>529.63</v>
@@ -19780,10 +19780,10 @@
         <v>666</v>
       </c>
       <c r="C668" s="2">
-        <v>45436.584027777782</v>
+        <v>45436.583333333336</v>
       </c>
       <c r="D668" s="2">
-        <v>45436.584027777782</v>
+        <v>45436.583333333336</v>
       </c>
       <c r="E668">
         <v>529.07000000000005</v>
@@ -19809,10 +19809,10 @@
         <v>667</v>
       </c>
       <c r="C669" s="2">
-        <v>45441.459027777782</v>
+        <v>45441.458333333336</v>
       </c>
       <c r="D669" s="2">
-        <v>45441.459027777782</v>
+        <v>45441.458333333336</v>
       </c>
       <c r="E669">
         <v>526.23</v>
@@ -19838,10 +19838,10 @@
         <v>668</v>
       </c>
       <c r="C670" s="2">
-        <v>45441.500694444447</v>
+        <v>45441.5</v>
       </c>
       <c r="D670" s="2">
-        <v>45441.500694444447</v>
+        <v>45441.5</v>
       </c>
       <c r="E670">
         <v>527.11</v>
@@ -19867,10 +19867,10 @@
         <v>669</v>
       </c>
       <c r="C671" s="2">
-        <v>45441.542361111111</v>
+        <v>45441.541666666664</v>
       </c>
       <c r="D671" s="2">
-        <v>45441.542361111111</v>
+        <v>45441.541666666664</v>
       </c>
       <c r="E671">
         <v>527.01</v>
@@ -19896,10 +19896,10 @@
         <v>670</v>
       </c>
       <c r="C672" s="2">
-        <v>45442.500694444447</v>
+        <v>45442.5</v>
       </c>
       <c r="D672" s="2">
-        <v>45442.500694444447</v>
+        <v>45442.5</v>
       </c>
       <c r="E672">
         <v>524.66999999999996</v>
@@ -19925,10 +19925,10 @@
         <v>671</v>
       </c>
       <c r="C673" s="2">
-        <v>45442.542361111111</v>
+        <v>45442.541666666664</v>
       </c>
       <c r="D673" s="2">
-        <v>45442.542361111111</v>
+        <v>45442.541666666664</v>
       </c>
       <c r="E673">
         <v>524.72</v>
@@ -19953,11 +19953,11 @@
       <c r="B674">
         <v>672</v>
       </c>
-      <c r="C674" s="2">
-        <v>45443.354861111111</v>
-      </c>
-      <c r="D674" s="2">
-        <v>45443.354861111111</v>
+      <c r="C674" s="3">
+        <v>45443.333333333336</v>
+      </c>
+      <c r="D674" s="3">
+        <v>45443.333333333336</v>
       </c>
       <c r="E674">
         <v>523.69000000000005</v>
@@ -19983,10 +19983,10 @@
         <v>673</v>
       </c>
       <c r="C675" s="2">
-        <v>45443.500694444447</v>
+        <v>45443.5</v>
       </c>
       <c r="D675" s="2">
-        <v>45443.500694444447</v>
+        <v>45443.5</v>
       </c>
       <c r="E675">
         <v>519.79</v>
@@ -20012,10 +20012,10 @@
         <v>674</v>
       </c>
       <c r="C676" s="2">
-        <v>45449.542361111111</v>
+        <v>45449.541666666664</v>
       </c>
       <c r="D676" s="2">
-        <v>45449.542361111111</v>
+        <v>45449.541666666664</v>
       </c>
       <c r="E676">
         <v>534.24</v>
@@ -20041,10 +20041,10 @@
         <v>675</v>
       </c>
       <c r="C677" s="2">
-        <v>45449.584027777782</v>
+        <v>45449.583333333336</v>
       </c>
       <c r="D677" s="2">
-        <v>45449.584027777782</v>
+        <v>45449.583333333336</v>
       </c>
       <c r="E677">
         <v>534.44000000000005</v>
@@ -20069,11 +20069,11 @@
       <c r="B678">
         <v>676</v>
       </c>
-      <c r="C678" s="2">
-        <v>45450.354861111111</v>
-      </c>
-      <c r="D678" s="2">
-        <v>45450.354861111111</v>
+      <c r="C678" s="3">
+        <v>45450.333333333336</v>
+      </c>
+      <c r="D678" s="3">
+        <v>45450.333333333336</v>
       </c>
       <c r="E678">
         <v>532.92999999999995</v>
@@ -20099,10 +20099,10 @@
         <v>677</v>
       </c>
       <c r="C679" s="2">
-        <v>45453.375694444447</v>
+        <v>45453.375</v>
       </c>
       <c r="D679" s="2">
-        <v>45453.375694444447</v>
+        <v>45453.375</v>
       </c>
       <c r="E679">
         <v>533.1</v>
@@ -20128,10 +20128,10 @@
         <v>678</v>
       </c>
       <c r="C680" s="2">
-        <v>45453.417361111111</v>
+        <v>45453.416666666664</v>
       </c>
       <c r="D680" s="2">
-        <v>45453.417361111111</v>
+        <v>45453.416666666664</v>
       </c>
       <c r="E680">
         <v>533.86</v>
@@ -20157,10 +20157,10 @@
         <v>679</v>
       </c>
       <c r="C681" s="2">
-        <v>45453.459027777782</v>
+        <v>45453.458333333336</v>
       </c>
       <c r="D681" s="2">
-        <v>45453.459027777782</v>
+        <v>45453.458333333336</v>
       </c>
       <c r="E681">
         <v>534.66</v>
@@ -20186,10 +20186,10 @@
         <v>680</v>
       </c>
       <c r="C682" s="2">
-        <v>45453.500694444447</v>
+        <v>45453.5</v>
       </c>
       <c r="D682" s="2">
-        <v>45453.500694444447</v>
+        <v>45453.5</v>
       </c>
       <c r="E682">
         <v>534.62</v>
@@ -20215,10 +20215,10 @@
         <v>681</v>
       </c>
       <c r="C683" s="2">
-        <v>45453.542361111111</v>
+        <v>45453.541666666664</v>
       </c>
       <c r="D683" s="2">
-        <v>45453.542361111111</v>
+        <v>45453.541666666664</v>
       </c>
       <c r="E683">
         <v>535.22</v>
@@ -20244,10 +20244,10 @@
         <v>682</v>
       </c>
       <c r="C684" s="2">
-        <v>45453.584027777782</v>
+        <v>45453.583333333336</v>
       </c>
       <c r="D684" s="2">
-        <v>45453.584027777782</v>
+        <v>45453.583333333336</v>
       </c>
       <c r="E684">
         <v>535.14</v>
@@ -20273,10 +20273,10 @@
         <v>683</v>
       </c>
       <c r="C685" s="2">
-        <v>45454.375694444447</v>
+        <v>45454.375</v>
       </c>
       <c r="D685" s="2">
-        <v>45454.375694444447</v>
+        <v>45454.375</v>
       </c>
       <c r="E685">
         <v>532.97</v>
@@ -20302,10 +20302,10 @@
         <v>684</v>
       </c>
       <c r="C686" s="2">
-        <v>45457.375694444447</v>
+        <v>45457.375</v>
       </c>
       <c r="D686" s="2">
-        <v>45457.375694444447</v>
+        <v>45457.375</v>
       </c>
       <c r="E686">
         <v>540.91999999999996</v>
@@ -20331,10 +20331,10 @@
         <v>685</v>
       </c>
       <c r="C687" s="2">
-        <v>45457.459027777782</v>
+        <v>45457.458333333336</v>
       </c>
       <c r="D687" s="2">
-        <v>45457.459027777782</v>
+        <v>45457.458333333336</v>
       </c>
       <c r="E687">
         <v>541.26</v>
@@ -20360,10 +20360,10 @@
         <v>686</v>
       </c>
       <c r="C688" s="2">
-        <v>45457.500694444447</v>
+        <v>45457.5</v>
       </c>
       <c r="D688" s="2">
-        <v>45457.500694444447</v>
+        <v>45457.5</v>
       </c>
       <c r="E688">
         <v>541.82000000000005</v>
@@ -20389,10 +20389,10 @@
         <v>687</v>
       </c>
       <c r="C689" s="2">
-        <v>45457.542361111111</v>
+        <v>45457.541666666664</v>
       </c>
       <c r="D689" s="2">
-        <v>45457.542361111111</v>
+        <v>45457.541666666664</v>
       </c>
       <c r="E689">
         <v>541.51</v>
@@ -20418,10 +20418,10 @@
         <v>688</v>
       </c>
       <c r="C690" s="2">
-        <v>45457.584027777782</v>
+        <v>45457.583333333336</v>
       </c>
       <c r="D690" s="2">
-        <v>45457.584027777782</v>
+        <v>45457.583333333336</v>
       </c>
       <c r="E690">
         <v>542</v>
@@ -20446,11 +20446,11 @@
       <c r="B691">
         <v>689</v>
       </c>
-      <c r="C691" s="2">
-        <v>45460.354861111111</v>
-      </c>
-      <c r="D691" s="2">
-        <v>45460.354861111111</v>
+      <c r="C691" s="3">
+        <v>45460.333333333336</v>
+      </c>
+      <c r="D691" s="3">
+        <v>45460.333333333336</v>
       </c>
       <c r="E691">
         <v>541.9</v>
@@ -20476,10 +20476,10 @@
         <v>690</v>
       </c>
       <c r="C692" s="2">
-        <v>45460.375694444447</v>
+        <v>45460.375</v>
       </c>
       <c r="D692" s="2">
-        <v>45460.375694444447</v>
+        <v>45460.375</v>
       </c>
       <c r="E692">
         <v>542.03</v>
@@ -20504,11 +20504,11 @@
       <c r="B693">
         <v>691</v>
       </c>
-      <c r="C693" s="2">
-        <v>45467.354861111111</v>
-      </c>
-      <c r="D693" s="2">
-        <v>45467.354861111111</v>
+      <c r="C693" s="3">
+        <v>45467.333333333336</v>
+      </c>
+      <c r="D693" s="3">
+        <v>45467.333333333336</v>
       </c>
       <c r="E693">
         <v>544.25</v>
@@ -20534,10 +20534,10 @@
         <v>692</v>
       </c>
       <c r="C694" s="2">
-        <v>45467.375694444447</v>
+        <v>45467.375</v>
       </c>
       <c r="D694" s="2">
-        <v>45467.375694444447</v>
+        <v>45467.375</v>
       </c>
       <c r="E694">
         <v>545.87</v>
@@ -20563,10 +20563,10 @@
         <v>693</v>
       </c>
       <c r="C695" s="2">
-        <v>45467.417361111111</v>
+        <v>45467.416666666664</v>
       </c>
       <c r="D695" s="2">
-        <v>45467.417361111111</v>
+        <v>45467.416666666664</v>
       </c>
       <c r="E695">
         <v>545.9</v>
@@ -20592,10 +20592,10 @@
         <v>694</v>
       </c>
       <c r="C696" s="2">
-        <v>45467.459027777782</v>
+        <v>45467.458333333336</v>
       </c>
       <c r="D696" s="2">
-        <v>45467.459027777782</v>
+        <v>45467.458333333336</v>
       </c>
       <c r="E696">
         <v>546.08000000000004</v>
@@ -20621,10 +20621,10 @@
         <v>695</v>
       </c>
       <c r="C697" s="2">
-        <v>45467.542361111111</v>
+        <v>45467.541666666664</v>
       </c>
       <c r="D697" s="2">
-        <v>45467.542361111111</v>
+        <v>45467.541666666664</v>
       </c>
       <c r="E697">
         <v>543.85</v>
@@ -20649,11 +20649,11 @@
       <c r="B698">
         <v>696</v>
       </c>
-      <c r="C698" s="2">
-        <v>45468.354861111111</v>
-      </c>
-      <c r="D698" s="2">
-        <v>45468.354861111111</v>
+      <c r="C698" s="3">
+        <v>45468.333333333336</v>
+      </c>
+      <c r="D698" s="3">
+        <v>45468.333333333336</v>
       </c>
       <c r="E698">
         <v>543.78</v>
@@ -20679,10 +20679,10 @@
         <v>697</v>
       </c>
       <c r="C699" s="2">
-        <v>45468.375694444447</v>
+        <v>45468.375</v>
       </c>
       <c r="D699" s="2">
-        <v>45468.375694444447</v>
+        <v>45468.375</v>
       </c>
       <c r="E699">
         <v>543.42999999999995</v>
@@ -20708,10 +20708,10 @@
         <v>698</v>
       </c>
       <c r="C700" s="2">
-        <v>45470.584027777782</v>
+        <v>45470.583333333336</v>
       </c>
       <c r="D700" s="2">
-        <v>45470.584027777782</v>
+        <v>45470.583333333336</v>
       </c>
       <c r="E700">
         <v>545.38</v>
@@ -20736,11 +20736,11 @@
       <c r="B701">
         <v>699</v>
       </c>
-      <c r="C701" s="2">
-        <v>45474.354861111111</v>
-      </c>
-      <c r="D701" s="2">
-        <v>45474.354861111111</v>
+      <c r="C701" s="3">
+        <v>45474.333333333336</v>
+      </c>
+      <c r="D701" s="3">
+        <v>45474.333333333336</v>
       </c>
       <c r="E701">
         <v>545.51</v>
@@ -20769,7 +20769,7 @@
         <v>45474.417361111111</v>
       </c>
       <c r="D702" s="2">
-        <v>45474.417361111111</v>
+        <v>45474.416666666664</v>
       </c>
       <c r="E702">
         <v>543.16</v>
@@ -20798,7 +20798,7 @@
         <v>45474.459027777782</v>
       </c>
       <c r="D703" s="2">
-        <v>45474.459027777782</v>
+        <v>45474.458333333336</v>
       </c>
       <c r="E703">
         <v>544.29999999999995</v>
@@ -20827,7 +20827,7 @@
         <v>45474.500694444447</v>
       </c>
       <c r="D704" s="2">
-        <v>45474.500694444447</v>
+        <v>45474.5</v>
       </c>
       <c r="E704">
         <v>544.97</v>
@@ -20856,7 +20856,7 @@
         <v>45474.542361111111</v>
       </c>
       <c r="D705" s="2">
-        <v>45474.542361111111</v>
+        <v>45474.541666666664</v>
       </c>
       <c r="E705">
         <v>544.66</v>
@@ -20885,7 +20885,7 @@
         <v>45474.584027777782</v>
       </c>
       <c r="D706" s="2">
-        <v>45474.584027777782</v>
+        <v>45474.583333333336</v>
       </c>
       <c r="E706">
         <v>544.62</v>
@@ -20914,7 +20914,7 @@
         <v>45475.375694444447</v>
       </c>
       <c r="D707" s="2">
-        <v>45475.375694444447</v>
+        <v>45475.375</v>
       </c>
       <c r="E707">
         <v>545.19000000000005</v>
@@ -20943,7 +20943,7 @@
         <v>45482.584027777782</v>
       </c>
       <c r="D708" s="2">
-        <v>45482.584027777782</v>
+        <v>45482.583333333336</v>
       </c>
       <c r="E708">
         <v>555.80999999999995</v>
@@ -20972,7 +20972,7 @@
         <v>45484.459027777782</v>
       </c>
       <c r="D709" s="2">
-        <v>45484.459027777782</v>
+        <v>45484.458333333336</v>
       </c>
       <c r="E709">
         <v>556.54999999999995</v>
@@ -21001,7 +21001,7 @@
         <v>45484.542361111111</v>
       </c>
       <c r="D710" s="2">
-        <v>45484.542361111111</v>
+        <v>45484.541666666664</v>
       </c>
       <c r="E710">
         <v>556.04</v>
@@ -21030,7 +21030,7 @@
         <v>45484.584027777782</v>
       </c>
       <c r="D711" s="2">
-        <v>45484.584027777782</v>
+        <v>45484.583333333336</v>
       </c>
       <c r="E711">
         <v>557.24</v>
@@ -21058,8 +21058,8 @@
       <c r="C712" s="2">
         <v>45485.354861111111</v>
       </c>
-      <c r="D712" s="2">
-        <v>45485.354861111111</v>
+      <c r="D712" s="3">
+        <v>45485.333333333336</v>
       </c>
       <c r="E712">
         <v>557.62</v>
@@ -21087,8 +21087,8 @@
       <c r="C713" s="2">
         <v>45489.354861111111</v>
       </c>
-      <c r="D713" s="2">
-        <v>45489.354861111111</v>
+      <c r="D713" s="3">
+        <v>45489.333333333336</v>
       </c>
       <c r="E713">
         <v>562.91</v>
@@ -21117,7 +21117,7 @@
         <v>45489.375694444447</v>
       </c>
       <c r="D714" s="2">
-        <v>45489.375694444447</v>
+        <v>45489.375</v>
       </c>
       <c r="E714">
         <v>563.04999999999995</v>
@@ -21146,7 +21146,7 @@
         <v>45489.417361111111</v>
       </c>
       <c r="D715" s="2">
-        <v>45489.417361111111</v>
+        <v>45489.416666666664</v>
       </c>
       <c r="E715">
         <v>563.15</v>
@@ -21175,7 +21175,7 @@
         <v>45489.459027777782</v>
       </c>
       <c r="D716" s="2">
-        <v>45489.459027777782</v>
+        <v>45489.458333333336</v>
       </c>
       <c r="E716">
         <v>563.26</v>
@@ -21204,7 +21204,7 @@
         <v>45489.500694444447</v>
       </c>
       <c r="D717" s="2">
-        <v>45489.500694444447</v>
+        <v>45489.5</v>
       </c>
       <c r="E717">
         <v>563.39</v>
@@ -21232,8 +21232,8 @@
       <c r="C718" s="2">
         <v>45491.354861111111</v>
       </c>
-      <c r="D718" s="2">
-        <v>45491.354861111111</v>
+      <c r="D718" s="3">
+        <v>45491.333333333336</v>
       </c>
       <c r="E718">
         <v>558.14</v>
@@ -21262,7 +21262,7 @@
         <v>45491.375694444447</v>
       </c>
       <c r="D719" s="2">
-        <v>45491.375694444447</v>
+        <v>45491.375</v>
       </c>
       <c r="E719">
         <v>558.65</v>
@@ -21291,7 +21291,7 @@
         <v>45491.459027777782</v>
       </c>
       <c r="D720" s="2">
-        <v>45491.459027777782</v>
+        <v>45491.458333333336</v>
       </c>
       <c r="E720">
         <v>553.04999999999995</v>
@@ -21319,8 +21319,8 @@
       <c r="C721" s="2">
         <v>45492.354861111111</v>
       </c>
-      <c r="D721" s="2">
-        <v>45492.354861111111</v>
+      <c r="D721" s="3">
+        <v>45492.333333333336</v>
       </c>
       <c r="E721">
         <v>552.34</v>
@@ -21349,7 +21349,7 @@
         <v>45492.459027777782</v>
       </c>
       <c r="D722" s="2">
-        <v>45492.459027777782</v>
+        <v>45492.458333333336</v>
       </c>
       <c r="E722">
         <v>550.89</v>
@@ -21378,7 +21378,7 @@
         <v>45492.500694444447</v>
       </c>
       <c r="D723" s="2">
-        <v>45492.500694444447</v>
+        <v>45492.5</v>
       </c>
       <c r="E723">
         <v>549.25</v>
@@ -21407,7 +21407,7 @@
         <v>45492.584027777782</v>
       </c>
       <c r="D724" s="2">
-        <v>45492.584027777782</v>
+        <v>45492.583333333336</v>
       </c>
       <c r="E724">
         <v>549.47</v>
@@ -21436,7 +21436,7 @@
         <v>45497.500694444447</v>
       </c>
       <c r="D725" s="2">
-        <v>45497.500694444447</v>
+        <v>45497.5</v>
       </c>
       <c r="E725">
         <v>544.09</v>
@@ -21464,8 +21464,8 @@
       <c r="C726" s="2">
         <v>45498.354861111111</v>
       </c>
-      <c r="D726" s="2">
-        <v>45498.354861111111</v>
+      <c r="D726" s="3">
+        <v>45498.333333333336</v>
       </c>
       <c r="E726">
         <v>541.20000000000005</v>
@@ -21494,7 +21494,7 @@
         <v>45498.375694444447</v>
       </c>
       <c r="D727" s="2">
-        <v>45498.375694444447</v>
+        <v>45498.375</v>
       </c>
       <c r="E727">
         <v>539.23</v>
@@ -21523,7 +21523,7 @@
         <v>45498.417361111111</v>
       </c>
       <c r="D728" s="2">
-        <v>45498.417361111111</v>
+        <v>45498.416666666664</v>
       </c>
       <c r="E728">
         <v>542.54</v>
@@ -21551,8 +21551,8 @@
       <c r="C729" s="2">
         <v>45499.354861111111</v>
       </c>
-      <c r="D729" s="2">
-        <v>45499.354861111111</v>
+      <c r="D729" s="3">
+        <v>45499.333333333336</v>
       </c>
       <c r="E729">
         <v>541.66999999999996</v>
@@ -21581,7 +21581,7 @@
         <v>45499.375694444447</v>
       </c>
       <c r="D730" s="2">
-        <v>45499.375694444447</v>
+        <v>45499.375</v>
       </c>
       <c r="E730">
         <v>543.58000000000004</v>
@@ -21610,7 +21610,7 @@
         <v>45499.417361111111</v>
       </c>
       <c r="D731" s="2">
-        <v>45499.417361111111</v>
+        <v>45499.416666666664</v>
       </c>
       <c r="E731">
         <v>543.48</v>
@@ -21639,7 +21639,7 @@
         <v>45503.500694444447</v>
       </c>
       <c r="D732" s="2">
-        <v>45503.500694444447</v>
+        <v>45503.5</v>
       </c>
       <c r="E732">
         <v>538.88</v>
@@ -21668,7 +21668,7 @@
         <v>45503.542361111111</v>
       </c>
       <c r="D733" s="2">
-        <v>45503.542361111111</v>
+        <v>45503.541666666664</v>
       </c>
       <c r="E733">
         <v>541.51</v>
@@ -21697,7 +21697,7 @@
         <v>45503.584027777782</v>
       </c>
       <c r="D734" s="2">
-        <v>45503.584027777782</v>
+        <v>45503.583333333336</v>
       </c>
       <c r="E734">
         <v>541.12</v>
@@ -21726,7 +21726,7 @@
         <v>45506.417361111111</v>
       </c>
       <c r="D735" s="2">
-        <v>45506.417361111111</v>
+        <v>45506.416666666664</v>
       </c>
       <c r="E735">
         <v>528.85</v>
@@ -21755,7 +21755,7 @@
         <v>45506.459027777782</v>
       </c>
       <c r="D736" s="2">
-        <v>45506.459027777782</v>
+        <v>45506.458333333336</v>
       </c>
       <c r="E736">
         <v>532.12</v>
@@ -21784,7 +21784,7 @@
         <v>45506.500694444447</v>
       </c>
       <c r="D737" s="2">
-        <v>45506.500694444447</v>
+        <v>45506.5</v>
       </c>
       <c r="E737">
         <v>531.16999999999996</v>
@@ -21813,7 +21813,7 @@
         <v>45506.542361111111</v>
       </c>
       <c r="D738" s="2">
-        <v>45506.542361111111</v>
+        <v>45506.541666666664</v>
       </c>
       <c r="E738">
         <v>529.83000000000004</v>
@@ -21842,7 +21842,7 @@
         <v>45506.584027777782</v>
       </c>
       <c r="D739" s="2">
-        <v>45506.584027777782</v>
+        <v>45506.583333333336</v>
       </c>
       <c r="E739">
         <v>531.28</v>
@@ -21871,7 +21871,7 @@
         <v>45509.375694444447</v>
       </c>
       <c r="D740" s="2">
-        <v>45509.375694444447</v>
+        <v>45509.375</v>
       </c>
       <c r="E740">
         <v>519.79</v>
@@ -21900,7 +21900,7 @@
         <v>45509.417361111111</v>
       </c>
       <c r="D741" s="2">
-        <v>45509.417361111111</v>
+        <v>45509.416666666664</v>
       </c>
       <c r="E741">
         <v>516.07000000000005</v>
@@ -21928,8 +21928,8 @@
       <c r="C742" s="2">
         <v>45512.354861111111</v>
       </c>
-      <c r="D742" s="2">
-        <v>45512.354861111111</v>
+      <c r="D742" s="3">
+        <v>45512.333333333336</v>
       </c>
       <c r="E742">
         <v>524.14</v>
@@ -21958,7 +21958,7 @@
         <v>45512.375694444447</v>
       </c>
       <c r="D743" s="2">
-        <v>45512.375694444447</v>
+        <v>45512.375</v>
       </c>
       <c r="E743">
         <v>525.36</v>
@@ -21987,7 +21987,7 @@
         <v>45512.417361111111</v>
       </c>
       <c r="D744" s="2">
-        <v>45512.417361111111</v>
+        <v>45512.416666666664</v>
       </c>
       <c r="E744">
         <v>527.91</v>
@@ -22016,7 +22016,7 @@
         <v>45516.584027777782</v>
       </c>
       <c r="D745" s="2">
-        <v>45516.584027777782</v>
+        <v>45516.583333333336</v>
       </c>
       <c r="E745">
         <v>533</v>
@@ -22045,7 +22045,7 @@
         <v>45524.417361111111</v>
       </c>
       <c r="D746" s="2">
-        <v>45524.417361111111</v>
+        <v>45524.416666666664</v>
       </c>
       <c r="E746">
         <v>558.41</v>
@@ -22074,7 +22074,7 @@
         <v>45524.459027777782</v>
       </c>
       <c r="D747" s="2">
-        <v>45524.459027777782</v>
+        <v>45524.458333333336</v>
       </c>
       <c r="E747">
         <v>559.24</v>
@@ -22103,7 +22103,7 @@
         <v>45524.500694444447</v>
       </c>
       <c r="D748" s="2">
-        <v>45524.500694444447</v>
+        <v>45524.5</v>
       </c>
       <c r="E748">
         <v>557.46</v>
@@ -22132,7 +22132,7 @@
         <v>45524.542361111111</v>
       </c>
       <c r="D749" s="2">
-        <v>45524.542361111111</v>
+        <v>45524.541666666664</v>
       </c>
       <c r="E749">
         <v>558.28</v>
@@ -22161,7 +22161,7 @@
         <v>45524.584027777782</v>
       </c>
       <c r="D750" s="2">
-        <v>45524.584027777782</v>
+        <v>45524.583333333336</v>
       </c>
       <c r="E750">
         <v>558.99</v>
@@ -22189,8 +22189,8 @@
       <c r="C751" s="2">
         <v>45527.354861111111</v>
       </c>
-      <c r="D751" s="2">
-        <v>45527.354861111111</v>
+      <c r="D751" s="3">
+        <v>45527.333333333336</v>
       </c>
       <c r="E751">
         <v>559.16</v>
@@ -22219,7 +22219,7 @@
         <v>45532.542361111111</v>
       </c>
       <c r="D752" s="2">
-        <v>45532.542361111111</v>
+        <v>45532.541666666664</v>
       </c>
       <c r="E752">
         <v>555.11</v>
@@ -22248,7 +22248,7 @@
         <v>45532.584027777782</v>
       </c>
       <c r="D753" s="2">
-        <v>45532.584027777782</v>
+        <v>45532.583333333336</v>
       </c>
       <c r="E753">
         <v>558.21</v>
@@ -22277,7 +22277,7 @@
         <v>45534.500694444447</v>
       </c>
       <c r="D754" s="2">
-        <v>45534.500694444447</v>
+        <v>45534.5</v>
       </c>
       <c r="E754">
         <v>559.15</v>
@@ -22306,7 +22306,7 @@
         <v>45534.542361111111</v>
       </c>
       <c r="D755" s="2">
-        <v>45534.542361111111</v>
+        <v>45534.541666666664</v>
       </c>
       <c r="E755">
         <v>558.75</v>
@@ -22335,7 +22335,7 @@
         <v>45539.375694444447</v>
       </c>
       <c r="D756" s="2">
-        <v>45539.375694444447</v>
+        <v>45539.375</v>
       </c>
       <c r="E756">
         <v>550.41</v>
@@ -22364,7 +22364,7 @@
         <v>45539.459027777782</v>
       </c>
       <c r="D757" s="2">
-        <v>45539.459027777782</v>
+        <v>45539.458333333336</v>
       </c>
       <c r="E757">
         <v>551.85</v>
@@ -22392,8 +22392,8 @@
       <c r="C758" s="2">
         <v>45540.354861111111</v>
       </c>
-      <c r="D758" s="2">
-        <v>45540.354861111111</v>
+      <c r="D758" s="3">
+        <v>45540.333333333336</v>
       </c>
       <c r="E758">
         <v>551.32000000000005</v>
@@ -22422,7 +22422,7 @@
         <v>45540.459027777782</v>
       </c>
       <c r="D759" s="2">
-        <v>45540.459027777782</v>
+        <v>45540.458333333336</v>
       </c>
       <c r="E759">
         <v>547.66</v>
@@ -22451,7 +22451,7 @@
         <v>45540.500694444447</v>
       </c>
       <c r="D760" s="2">
-        <v>45540.500694444447</v>
+        <v>45540.5</v>
       </c>
       <c r="E760">
         <v>548.82000000000005</v>
@@ -22480,7 +22480,7 @@
         <v>45540.542361111111</v>
       </c>
       <c r="D761" s="2">
-        <v>45540.542361111111</v>
+        <v>45540.541666666664</v>
       </c>
       <c r="E761">
         <v>550.62</v>
@@ -22509,7 +22509,7 @@
         <v>45540.584027777782</v>
       </c>
       <c r="D762" s="2">
-        <v>45540.584027777782</v>
+        <v>45540.583333333336</v>
       </c>
       <c r="E762">
         <v>549.85</v>
@@ -22538,7 +22538,7 @@
         <v>45541.584027777782</v>
       </c>
       <c r="D763" s="2">
-        <v>45541.584027777782</v>
+        <v>45541.583333333336</v>
       </c>
       <c r="E763">
         <v>540.67999999999995</v>
@@ -22566,8 +22566,8 @@
       <c r="C764" s="2">
         <v>45544.354861111111</v>
       </c>
-      <c r="D764" s="2">
-        <v>45544.354861111111</v>
+      <c r="D764" s="3">
+        <v>45544.333333333336</v>
       </c>
       <c r="E764">
         <v>544.45000000000005</v>
@@ -22596,7 +22596,7 @@
         <v>45544.375694444447</v>
       </c>
       <c r="D765" s="2">
-        <v>45544.375694444447</v>
+        <v>45544.375</v>
       </c>
       <c r="E765">
         <v>545.33000000000004</v>
@@ -22625,7 +22625,7 @@
         <v>45544.417361111111</v>
       </c>
       <c r="D766" s="2">
-        <v>45544.417361111111</v>
+        <v>45544.416666666664</v>
       </c>
       <c r="E766">
         <v>543.41999999999996</v>
@@ -22654,7 +22654,7 @@
         <v>45546.417361111111</v>
       </c>
       <c r="D767" s="2">
-        <v>45546.417361111111</v>
+        <v>45546.416666666664</v>
       </c>
       <c r="E767">
         <v>540.71</v>
@@ -22683,7 +22683,7 @@
         <v>45546.459027777782</v>
       </c>
       <c r="D768" s="2">
-        <v>45546.459027777782</v>
+        <v>45546.458333333336</v>
       </c>
       <c r="E768">
         <v>544.47</v>
@@ -22712,7 +22712,7 @@
         <v>45551.417361111111</v>
       </c>
       <c r="D769" s="2">
-        <v>45551.417361111111</v>
+        <v>45551.416666666664</v>
       </c>
       <c r="E769">
         <v>560.34</v>
@@ -22741,7 +22741,7 @@
         <v>45551.459027777782</v>
       </c>
       <c r="D770" s="2">
-        <v>45551.459027777782</v>
+        <v>45551.458333333336</v>
       </c>
       <c r="E770">
         <v>561.28</v>
@@ -22770,7 +22770,7 @@
         <v>45551.500694444447</v>
       </c>
       <c r="D771" s="2">
-        <v>45551.500694444447</v>
+        <v>45551.5</v>
       </c>
       <c r="E771">
         <v>561.49</v>
@@ -22799,7 +22799,7 @@
         <v>45551.542361111111</v>
       </c>
       <c r="D772" s="2">
-        <v>45551.542361111111</v>
+        <v>45551.541666666664</v>
       </c>
       <c r="E772">
         <v>562.47</v>
@@ -22828,7 +22828,7 @@
         <v>45552.500694444447</v>
       </c>
       <c r="D773" s="2">
-        <v>45552.500694444447</v>
+        <v>45552.5</v>
       </c>
       <c r="E773">
         <v>562.08000000000004</v>
@@ -22857,7 +22857,7 @@
         <v>45552.542361111111</v>
       </c>
       <c r="D774" s="2">
-        <v>45552.542361111111</v>
+        <v>45552.541666666664</v>
       </c>
       <c r="E774">
         <v>562.85</v>
@@ -22886,7 +22886,7 @@
         <v>45552.584027777782</v>
       </c>
       <c r="D775" s="2">
-        <v>45552.584027777782</v>
+        <v>45552.583333333336</v>
       </c>
       <c r="E775">
         <v>561.97</v>
@@ -22914,8 +22914,8 @@
       <c r="C776" s="2">
         <v>45553.354861111111</v>
       </c>
-      <c r="D776" s="2">
-        <v>45553.354861111111</v>
+      <c r="D776" s="3">
+        <v>45553.333333333336</v>
       </c>
       <c r="E776">
         <v>563.19000000000005</v>
@@ -22944,7 +22944,7 @@
         <v>45553.375694444447</v>
       </c>
       <c r="D777" s="2">
-        <v>45553.375694444447</v>
+        <v>45553.375</v>
       </c>
       <c r="E777">
         <v>563</v>
@@ -22973,7 +22973,7 @@
         <v>45553.459027777782</v>
       </c>
       <c r="D778" s="2">
-        <v>45553.459027777782</v>
+        <v>45553.458333333336</v>
       </c>
       <c r="E778">
         <v>561.77</v>
@@ -23002,7 +23002,7 @@
         <v>45553.500694444447</v>
       </c>
       <c r="D779" s="2">
-        <v>45553.500694444447</v>
+        <v>45553.5</v>
       </c>
       <c r="E779">
         <v>563.65</v>
@@ -23031,7 +23031,7 @@
         <v>45553.584027777782</v>
       </c>
       <c r="D780" s="2">
-        <v>45553.584027777782</v>
+        <v>45553.583333333336</v>
       </c>
       <c r="E780">
         <v>563.30999999999995</v>
@@ -23060,7 +23060,7 @@
         <v>45555.417361111111</v>
       </c>
       <c r="D781" s="2">
-        <v>45555.417361111111</v>
+        <v>45555.416666666664</v>
       </c>
       <c r="E781">
         <v>566.22</v>
@@ -23089,7 +23089,7 @@
         <v>45555.459027777782</v>
       </c>
       <c r="D782" s="2">
-        <v>45555.459027777782</v>
+        <v>45555.458333333336</v>
       </c>
       <c r="E782">
         <v>566.83000000000004</v>
@@ -23118,7 +23118,7 @@
         <v>45555.500694444447</v>
       </c>
       <c r="D783" s="2">
-        <v>45555.500694444447</v>
+        <v>45555.5</v>
       </c>
       <c r="E783">
         <v>568.30999999999995</v>
@@ -23147,7 +23147,7 @@
         <v>45555.542361111111</v>
       </c>
       <c r="D784" s="2">
-        <v>45555.542361111111</v>
+        <v>45555.541666666664</v>
       </c>
       <c r="E784">
         <v>568.09</v>
@@ -23176,7 +23176,7 @@
         <v>45555.584027777782</v>
       </c>
       <c r="D785" s="2">
-        <v>45555.584027777782</v>
+        <v>45555.583333333336</v>
       </c>
       <c r="E785">
         <v>567.45000000000005</v>
@@ -23204,8 +23204,8 @@
       <c r="C786" s="2">
         <v>45558.354861111111</v>
       </c>
-      <c r="D786" s="2">
-        <v>45558.354861111111</v>
+      <c r="D786" s="3">
+        <v>45558.333333333336</v>
       </c>
       <c r="E786">
         <v>569.09</v>
@@ -23234,7 +23234,7 @@
         <v>45558.375694444447</v>
       </c>
       <c r="D787" s="2">
-        <v>45558.375694444447</v>
+        <v>45558.375</v>
       </c>
       <c r="E787">
         <v>568.96</v>
@@ -23263,7 +23263,7 @@
         <v>45561.542361111111</v>
       </c>
       <c r="D788" s="2">
-        <v>45561.542361111111</v>
+        <v>45561.541666666664</v>
       </c>
       <c r="E788">
         <v>571.70000000000005</v>
@@ -23292,7 +23292,7 @@
         <v>45561.584027777782</v>
       </c>
       <c r="D789" s="2">
-        <v>45561.584027777782</v>
+        <v>45561.583333333336</v>
       </c>
       <c r="E789">
         <v>572.16999999999996</v>
@@ -23320,8 +23320,8 @@
       <c r="C790" s="2">
         <v>45562.354861111111</v>
       </c>
-      <c r="D790" s="2">
-        <v>45562.354861111111</v>
+      <c r="D790" s="3">
+        <v>45562.333333333336</v>
       </c>
       <c r="E790">
         <v>573.27</v>
@@ -23350,7 +23350,7 @@
         <v>45562.375694444447</v>
       </c>
       <c r="D791" s="2">
-        <v>45562.375694444447</v>
+        <v>45562.375</v>
       </c>
       <c r="E791">
         <v>573.35</v>
@@ -23379,7 +23379,7 @@
         <v>45562.417361111111</v>
       </c>
       <c r="D792" s="2">
-        <v>45562.417361111111</v>
+        <v>45562.416666666664</v>
       </c>
       <c r="E792">
         <v>573.6</v>
@@ -23408,7 +23408,7 @@
         <v>45562.542361111111</v>
       </c>
       <c r="D793" s="2">
-        <v>45562.542361111111</v>
+        <v>45562.541666666664</v>
       </c>
       <c r="E793">
         <v>572.52</v>
@@ -23437,7 +23437,7 @@
         <v>45565.375694444447</v>
       </c>
       <c r="D794" s="2">
-        <v>45565.375694444447</v>
+        <v>45565.375</v>
       </c>
       <c r="E794">
         <v>570.72</v>
@@ -23466,7 +23466,7 @@
         <v>45566.500694444447</v>
       </c>
       <c r="D795" s="2">
-        <v>45566.500694444447</v>
+        <v>45566.5</v>
       </c>
       <c r="E795">
         <v>568.33000000000004</v>
@@ -23495,7 +23495,7 @@
         <v>45566.542361111111</v>
       </c>
       <c r="D796" s="2">
-        <v>45566.542361111111</v>
+        <v>45566.541666666664</v>
       </c>
       <c r="E796">
         <v>569.53</v>
@@ -23524,7 +23524,7 @@
         <v>45566.584027777782</v>
       </c>
       <c r="D797" s="2">
-        <v>45566.584027777782</v>
+        <v>45566.583333333336</v>
       </c>
       <c r="E797">
         <v>570.26</v>
@@ -23553,7 +23553,7 @@
         <v>45567.375694444447</v>
       </c>
       <c r="D798" s="2">
-        <v>45567.375694444447</v>
+        <v>45567.375</v>
       </c>
       <c r="E798">
         <v>567.17999999999995</v>
@@ -23582,7 +23582,7 @@
         <v>45567.417361111111</v>
       </c>
       <c r="D799" s="2">
-        <v>45567.417361111111</v>
+        <v>45567.416666666664</v>
       </c>
       <c r="E799">
         <v>568.29</v>
@@ -23611,7 +23611,7 @@
         <v>45567.500694444447</v>
       </c>
       <c r="D800" s="2">
-        <v>45567.500694444447</v>
+        <v>45567.5</v>
       </c>
       <c r="E800">
         <v>568.12</v>
@@ -23640,7 +23640,7 @@
         <v>45567.542361111111</v>
       </c>
       <c r="D801" s="2">
-        <v>45567.542361111111</v>
+        <v>45567.541666666664</v>
       </c>
       <c r="E801">
         <v>569.30999999999995</v>
@@ -23666,7 +23666,7 @@
         <v>800</v>
       </c>
       <c r="C802" s="2">
-        <v>45568.500694444447</v>
+        <v>45568.5</v>
       </c>
       <c r="D802" s="2">
         <v>45568.5</v>
@@ -23695,7 +23695,7 @@
         <v>801</v>
       </c>
       <c r="C803" s="2">
-        <v>45568.542361111111</v>
+        <v>45568.541666666664</v>
       </c>
       <c r="D803" s="2">
         <v>45568.541666666664</v>
@@ -23724,7 +23724,7 @@
         <v>802</v>
       </c>
       <c r="C804" s="2">
-        <v>45573.354861111111</v>
+        <v>45573.333333333336</v>
       </c>
       <c r="D804" s="2">
         <v>45573.333333333336</v>
@@ -23753,7 +23753,7 @@
         <v>803</v>
       </c>
       <c r="C805" s="2">
-        <v>45573.375694444447</v>
+        <v>45573.375</v>
       </c>
       <c r="D805" s="2">
         <v>45573.375</v>
@@ -23782,7 +23782,7 @@
         <v>804</v>
       </c>
       <c r="C806" s="2">
-        <v>45573.417361111111</v>
+        <v>45573.416666666664</v>
       </c>
       <c r="D806" s="2">
         <v>45573.416666666664</v>
@@ -23811,7 +23811,7 @@
         <v>805</v>
       </c>
       <c r="C807" s="2">
-        <v>45573.459027777782</v>
+        <v>45573.458333333336</v>
       </c>
       <c r="D807" s="2">
         <v>45573.458333333336</v>
@@ -23840,7 +23840,7 @@
         <v>806</v>
       </c>
       <c r="C808" s="2">
-        <v>45573.500694444447</v>
+        <v>45573.5</v>
       </c>
       <c r="D808" s="2">
         <v>45573.5</v>
@@ -23869,7 +23869,7 @@
         <v>807</v>
       </c>
       <c r="C809" s="2">
-        <v>45575.584027777782</v>
+        <v>45575.583333333336</v>
       </c>
       <c r="D809" s="2">
         <v>45575.583333333336</v>
@@ -23897,8 +23897,8 @@
       <c r="B810">
         <v>808</v>
       </c>
-      <c r="C810" s="2">
-        <v>45576.354861111111</v>
+      <c r="C810" s="3">
+        <v>45576.333333333336</v>
       </c>
       <c r="D810" s="3">
         <v>45576.333333333336</v>
@@ -23927,7 +23927,7 @@
         <v>809</v>
       </c>
       <c r="C811" s="2">
-        <v>45581.417361111111</v>
+        <v>45581.416666666664</v>
       </c>
       <c r="D811" s="2">
         <v>45581.416666666664</v>
@@ -23956,7 +23956,7 @@
         <v>810</v>
       </c>
       <c r="C812" s="2">
-        <v>45581.459027777782</v>
+        <v>45581.458333333336</v>
       </c>
       <c r="D812" s="2">
         <v>45581.458333333336</v>
@@ -23985,7 +23985,7 @@
         <v>811</v>
       </c>
       <c r="C813" s="2">
-        <v>45581.500694444447</v>
+        <v>45581.5</v>
       </c>
       <c r="D813" s="2">
         <v>45581.5</v>
@@ -24014,7 +24014,7 @@
         <v>812</v>
       </c>
       <c r="C814" s="2">
-        <v>45586.459027777782</v>
+        <v>45586.458333333336</v>
       </c>
       <c r="D814" s="2">
         <v>45586.458333333336</v>
@@ -24043,7 +24043,7 @@
         <v>813</v>
       </c>
       <c r="C815" s="2">
-        <v>45586.500694444447</v>
+        <v>45586.5</v>
       </c>
       <c r="D815" s="2">
         <v>45586.5</v>
@@ -24072,7 +24072,7 @@
         <v>814</v>
       </c>
       <c r="C816" s="2">
-        <v>45586.542361111111</v>
+        <v>45586.541666666664</v>
       </c>
       <c r="D816" s="2">
         <v>45586.541666666664</v>
@@ -24101,7 +24101,7 @@
         <v>815</v>
       </c>
       <c r="C817" s="2">
-        <v>45586.584027777782</v>
+        <v>45586.583333333336</v>
       </c>
       <c r="D817" s="2">
         <v>45586.583333333336</v>
@@ -24130,7 +24130,7 @@
         <v>816</v>
       </c>
       <c r="C818" s="2">
-        <v>45587.375694444447</v>
+        <v>45587.375</v>
       </c>
       <c r="D818" s="2">
         <v>45587.375</v>
@@ -24159,7 +24159,7 @@
         <v>817</v>
       </c>
       <c r="C819" s="2">
-        <v>45587.417361111111</v>
+        <v>45587.416666666664</v>
       </c>
       <c r="D819" s="2">
         <v>45587.416666666664</v>
@@ -24188,7 +24188,7 @@
         <v>818</v>
       </c>
       <c r="C820" s="2">
-        <v>45587.459027777782</v>
+        <v>45587.458333333336</v>
       </c>
       <c r="D820" s="2">
         <v>45587.458333333336</v>
@@ -24217,7 +24217,7 @@
         <v>819</v>
       </c>
       <c r="C821" s="2">
-        <v>45588.584027777782</v>
+        <v>45588.583333333336</v>
       </c>
       <c r="D821" s="2">
         <v>45588.583333333336</v>
@@ -24245,8 +24245,8 @@
       <c r="B822">
         <v>820</v>
       </c>
-      <c r="C822" s="2">
-        <v>45589.354861111111</v>
+      <c r="C822" s="3">
+        <v>45589.333333333336</v>
       </c>
       <c r="D822" s="3">
         <v>45589.333333333336</v>
@@ -24275,7 +24275,7 @@
         <v>821</v>
       </c>
       <c r="C823" s="2">
-        <v>45589.375694444447</v>
+        <v>45589.375</v>
       </c>
       <c r="D823" s="2">
         <v>45589.375</v>
@@ -24304,7 +24304,7 @@
         <v>822</v>
       </c>
       <c r="C824" s="2">
-        <v>45589.417361111111</v>
+        <v>45589.416666666664</v>
       </c>
       <c r="D824" s="2">
         <v>45589.416666666664</v>
@@ -24333,7 +24333,7 @@
         <v>823</v>
       </c>
       <c r="C825" s="2">
-        <v>45589.459027777782</v>
+        <v>45589.458333333336</v>
       </c>
       <c r="D825" s="2">
         <v>45589.458333333336</v>
@@ -24362,7 +24362,7 @@
         <v>824</v>
       </c>
       <c r="C826" s="2">
-        <v>45594.375694444447</v>
+        <v>45594.375</v>
       </c>
       <c r="D826" s="2">
         <v>45594.375</v>
@@ -24391,7 +24391,7 @@
         <v>825</v>
       </c>
       <c r="C827" s="2">
-        <v>45594.417361111111</v>
+        <v>45594.416666666664</v>
       </c>
       <c r="D827" s="2">
         <v>45594.416666666664</v>
@@ -24420,7 +24420,7 @@
         <v>826</v>
       </c>
       <c r="C828" s="2">
-        <v>45594.459027777782</v>
+        <v>45594.458333333336</v>
       </c>
       <c r="D828" s="2">
         <v>45594.458333333336</v>
@@ -24449,7 +24449,7 @@
         <v>827</v>
       </c>
       <c r="C829" s="2">
-        <v>45594.500694444447</v>
+        <v>45594.5</v>
       </c>
       <c r="D829" s="2">
         <v>45594.5</v>
@@ -24478,7 +24478,7 @@
         <v>828</v>
       </c>
       <c r="C830" s="2">
-        <v>45594.542361111111</v>
+        <v>45594.541666666664</v>
       </c>
       <c r="D830" s="2">
         <v>45594.541666666664</v>
@@ -24507,7 +24507,7 @@
         <v>829</v>
       </c>
       <c r="C831" s="2">
-        <v>45594.584027777782</v>
+        <v>45594.583333333336</v>
       </c>
       <c r="D831" s="2">
         <v>45594.583333333336</v>
